--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>trideni</t>
   </si>
@@ -140,6 +140,12 @@
     <t>28. 12.–3. 1. 2021</t>
   </si>
   <si>
+    <t>11.–17. 1. 2021</t>
+  </si>
+  <si>
+    <t>18.–24. 1. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -227,10 +233,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,16 +743,22 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -862,16 +874,22 @@
       <c r="AO2" t="n">
         <v>0.32</v>
       </c>
+      <c r="AP2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -987,16 +1005,22 @@
       <c r="AO3" t="n">
         <v>0.04</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1112,16 +1136,22 @@
       <c r="AO4" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
         <v>0.1799999999999999</v>
@@ -1237,16 +1267,22 @@
       <c r="AO5" t="n">
         <v>0.55</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1362,16 +1398,22 @@
       <c r="AO6" t="n">
         <v>0.36</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1487,16 +1529,22 @@
       <c r="AO7" t="n">
         <v>0.02</v>
       </c>
+      <c r="AP7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1612,16 +1660,22 @@
       <c r="AO8" t="n">
         <v>0.1</v>
       </c>
+      <c r="AP8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -1737,16 +1791,22 @@
       <c r="AO9" t="n">
         <v>0.52</v>
       </c>
+      <c r="AP9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -1862,16 +1922,22 @@
       <c r="AO10" t="n">
         <v>0.14</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -1987,16 +2053,22 @@
       <c r="AO11" t="n">
         <v>0.05</v>
       </c>
+      <c r="AP11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2112,16 +2184,22 @@
       <c r="AO12" t="n">
         <v>0.27</v>
       </c>
+      <c r="AP12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
         <v>0.1100000000000001</v>
@@ -2237,16 +2315,22 @@
       <c r="AO13" t="n">
         <v>0.54</v>
       </c>
+      <c r="AP13" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.02000000000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2362,16 +2446,22 @@
       <c r="AO14" t="n">
         <v>0.3</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -2487,16 +2577,22 @@
       <c r="AO15" t="n">
         <v>0.04</v>
       </c>
+      <c r="AP15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -2612,16 +2708,22 @@
       <c r="AO16" t="n">
         <v>0.02</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -2737,16 +2839,22 @@
       <c r="AO17" t="n">
         <v>0.64</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.07000000000000006</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.07999999999999996</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -2862,16 +2970,22 @@
       <c r="AO18" t="n">
         <v>0.48</v>
       </c>
+      <c r="AP18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -2987,16 +3101,22 @@
       <c r="AO19" t="n">
         <v>0.06</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3112,16 +3232,22 @@
       <c r="AO20" t="n">
         <v>0.05</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
         <v>0.1699999999999999</v>
@@ -3237,16 +3363,22 @@
       <c r="AO21" t="n">
         <v>0.4099999999999999</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.07000000000000006</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.07000000000000006</v>
+      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -3362,16 +3494,22 @@
       <c r="AO22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -3487,16 +3625,22 @@
       <c r="AO23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AP23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -3612,16 +3756,22 @@
       <c r="AO24" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
         <v>0.1699999999999999</v>
@@ -3737,16 +3887,22 @@
       <c r="AO25" t="n">
         <v>0.75</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.1199999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -3862,16 +4018,22 @@
       <c r="AO26" t="n">
         <v>0.35</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -3987,16 +4149,22 @@
       <c r="AO27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -4112,16 +4280,22 @@
       <c r="AO28" t="n">
         <v>0.06</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="n">
         <v>0.1799999999999999</v>
@@ -4237,16 +4411,22 @@
       <c r="AO29" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AP29" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.08000000000000007</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -4362,16 +4542,22 @@
       <c r="AO30" t="n">
         <v>0.29</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -4487,16 +4673,22 @@
       <c r="AO31" t="n">
         <v>0.04</v>
       </c>
+      <c r="AP31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -4612,16 +4804,22 @@
       <c r="AO32" t="n">
         <v>0.06</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" t="n">
         <v>0.1900000000000001</v>
@@ -4737,16 +4935,22 @@
       <c r="AO33" t="n">
         <v>0.6100000000000001</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -4862,16 +5066,22 @@
       <c r="AO34" t="n">
         <v>0.31</v>
       </c>
+      <c r="AP34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -4987,16 +5197,22 @@
       <c r="AO35" t="n">
         <v>0.06</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -5112,16 +5328,22 @@
       <c r="AO36" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -5237,16 +5459,22 @@
       <c r="AO37" t="n">
         <v>0.54</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -5362,16 +5590,22 @@
       <c r="AO38" t="n">
         <v>0.28</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -5487,16 +5721,22 @@
       <c r="AO39" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -5612,16 +5852,22 @@
       <c r="AO40" t="n">
         <v>0.21</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
         <v>0.1799999999999999</v>
@@ -5737,16 +5983,22 @@
       <c r="AO41" t="n">
         <v>0.4399999999999999</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.07999999999999996</v>
+      </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -5862,16 +6114,22 @@
       <c r="AO42" t="n">
         <v>0.33</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -5987,16 +6245,22 @@
       <c r="AO43" t="n">
         <v>0.03</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -6112,16 +6376,22 @@
       <c r="AO44" t="n">
         <v>0.11</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -6237,16 +6507,22 @@
       <c r="AO45" t="n">
         <v>0.53</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.06000000000000005</v>
+      </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -6362,16 +6638,22 @@
       <c r="AO46" t="n">
         <v>0.35</v>
       </c>
+      <c r="AP46" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -6487,16 +6769,22 @@
       <c r="AO47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AP47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -6612,16 +6900,22 @@
       <c r="AO48" t="n">
         <v>0.08</v>
       </c>
+      <c r="AP48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -6737,16 +7031,22 @@
       <c r="AO49" t="n">
         <v>0.52</v>
       </c>
+      <c r="AP49" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.1200000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -6862,16 +7162,22 @@
       <c r="AO50" t="n">
         <v>0.22</v>
       </c>
+      <c r="AP50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -6987,16 +7293,22 @@
       <c r="AO51" t="n">
         <v>0.05</v>
       </c>
+      <c r="AP51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -7112,16 +7424,22 @@
       <c r="AO52" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP52" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -7237,22 +7555,28 @@
       <c r="AO53" t="n">
         <v>0.64</v>
       </c>
+      <c r="AP53" t="n">
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.1899999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E54" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F54" t="n">
         <v>0.35</v>
@@ -7261,16 +7585,16 @@
         <v>0.4</v>
       </c>
       <c r="H54" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I54" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="J54" t="n">
         <v>0.65</v>
       </c>
       <c r="K54" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="L54" t="n">
         <v>0.66</v>
@@ -7279,31 +7603,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O54" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="P54" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="R54" t="n">
         <v>0.68</v>
       </c>
       <c r="S54" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="T54" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="U54" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="V54" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W54" t="n">
         <v>0.66</v>
@@ -7315,16 +7639,16 @@
         <v>0.74</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AB54" t="n">
         <v>0.77</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AD54" t="n">
         <v>0.6899999999999999</v>
@@ -7345,42 +7669,48 @@
         <v>0.59</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AK54" t="n">
         <v>0.68</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AM54" t="n">
         <v>0.65</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AO54" t="n">
         <v>0.3</v>
       </c>
+      <c r="AP54" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="E55" t="n">
         <v>0.06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G55" t="n">
         <v>0.14</v>
@@ -7398,7 +7728,7 @@
         <v>0.03</v>
       </c>
       <c r="L55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M55" t="n">
         <v>0.07000000000000001</v>
@@ -7422,16 +7752,16 @@
         <v>0.13</v>
       </c>
       <c r="T55" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="U55" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="V55" t="n">
         <v>0.1</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="X55" t="n">
         <v>0.05</v>
@@ -7440,7 +7770,7 @@
         <v>0.09</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AA55" t="n">
         <v>0.07000000000000001</v>
@@ -7452,13 +7782,13 @@
         <v>0.09</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE55" t="n">
         <v>0.11</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AG55" t="n">
         <v>0.13</v>
@@ -7476,10 +7806,10 @@
         <v>0.1</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AN55" t="n">
         <v>0.14</v>
@@ -7487,22 +7817,28 @@
       <c r="AO55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AP55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D56" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="F56" t="n">
         <v>0.41</v>
@@ -7511,34 +7847,34 @@
         <v>0.37</v>
       </c>
       <c r="H56" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I56" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="J56" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K56" t="n">
         <v>0.17</v>
       </c>
       <c r="L56" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N56" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="O56" t="n">
         <v>0.12</v>
       </c>
       <c r="P56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.09</v>
       </c>
       <c r="R56" t="n">
         <v>0.14</v>
@@ -7547,10 +7883,10 @@
         <v>0.04</v>
       </c>
       <c r="T56" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U56" t="n">
         <v>0.15</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.14</v>
       </c>
       <c r="V56" t="n">
         <v>0.1</v>
@@ -7565,10 +7901,10 @@
         <v>0.09</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AB56" t="n">
         <v>0.08</v>
@@ -7583,7 +7919,7 @@
         <v>0.19</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG56" t="n">
         <v>0.17</v>
@@ -7592,10 +7928,10 @@
         <v>0.16</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AK56" t="n">
         <v>0.13</v>
@@ -7607,81 +7943,87 @@
         <v>0.14</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AO56" t="n">
         <v>0.09</v>
       </c>
+      <c r="AP56" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="G57" t="n">
         <v>0.08999999999999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0.12</v>
+        <v>0.1199999999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>0.13</v>
+        <v>0.1199999999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="L57" t="n">
         <v>0.12</v>
       </c>
       <c r="M57" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N57" t="n">
         <v>0.04999999999999993</v>
       </c>
       <c r="O57" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="P57" t="n">
         <v>0.06000000000000005</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02000000000000013</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="R57" t="n">
         <v>0.07999999999999996</v>
       </c>
       <c r="S57" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2300000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="W57" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="X57" t="n">
         <v>0.04999999999999993</v>
@@ -7693,22 +8035,22 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="AB57" t="n">
         <v>0.07999999999999996</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="AE57" t="n">
         <v>0.09000000000000008</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="AG57" t="n">
         <v>0.13</v>
@@ -7717,10 +8059,10 @@
         <v>0.12</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="AK57" t="n">
         <v>0.08999999999999997</v>
@@ -7729,7 +8071,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AN57" t="n">
         <v>0.32</v>
@@ -7737,16 +8079,22 @@
       <c r="AO57" t="n">
         <v>0.54</v>
       </c>
+      <c r="AP57" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -7770,7 +8118,7 @@
         <v>0.52</v>
       </c>
       <c r="K58" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L58" t="n">
         <v>0.68</v>
@@ -7788,19 +8136,19 @@
         <v>0.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="R58" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="S58" t="n">
         <v>0.7</v>
       </c>
       <c r="T58" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="U58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="V58" t="n">
         <v>0.72</v>
@@ -7815,10 +8163,10 @@
         <v>0.78</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="AB58" t="n">
         <v>0.78</v>
@@ -7830,16 +8178,16 @@
         <v>0.68</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AF58" t="n">
         <v>0.63</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AI58" t="n">
         <v>0.58</v>
@@ -7851,27 +8199,33 @@
         <v>0.66</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.62</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -7913,7 +8267,7 @@
         <v>0.09</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R59" t="n">
         <v>0.05</v>
@@ -7922,10 +8276,10 @@
         <v>0.04</v>
       </c>
       <c r="T59" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="U59" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="V59" t="n">
         <v>0.06</v>
@@ -7943,7 +8297,7 @@
         <v>0.08</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AB59" t="n">
         <v>0.05</v>
@@ -7952,34 +8306,34 @@
         <v>0.08</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AE59" t="n">
         <v>0.08</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AG59" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AK59" t="n">
         <v>0.1</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AN59" t="n">
         <v>0.09</v>
@@ -7987,16 +8341,22 @@
       <c r="AO59" t="n">
         <v>0.04</v>
       </c>
+      <c r="AP59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -8035,10 +8395,10 @@
         <v>0.06</v>
       </c>
       <c r="P60" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R60" t="n">
         <v>0.06</v>
@@ -8065,7 +8425,7 @@
         <v>0.06</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AA60" t="n">
         <v>0.1</v>
@@ -8077,7 +8437,7 @@
         <v>0.11</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE60" t="n">
         <v>0.19</v>
@@ -8086,7 +8446,7 @@
         <v>0.17</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AH60" t="n">
         <v>0.2</v>
@@ -8095,13 +8455,13 @@
         <v>0.2</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AM60" t="n">
         <v>0.17</v>
@@ -8112,16 +8472,22 @@
       <c r="AO60" t="n">
         <v>0.1</v>
       </c>
+      <c r="AP60" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -8145,7 +8511,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>0.15</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="L61" t="n">
         <v>0.08999999999999997</v>
@@ -8160,22 +8526,22 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="R61" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="S61" t="n">
         <v>0.21</v>
       </c>
       <c r="T61" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="U61" t="n">
-        <v>0.265</v>
+        <v>0.2599999999999999</v>
       </c>
       <c r="V61" t="n">
         <v>0.14</v>
@@ -8202,51 +8568,57 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.05999999999999994</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.12</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="AH61" t="n">
         <v>0.1200000000000001</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="AJ61" t="n">
         <v>0.13</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="AL61" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="AM61" t="n">
         <v>0.06999999999999995</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -8297,10 +8669,10 @@
         <v>0.7</v>
       </c>
       <c r="T62" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="U62" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="V62" t="n">
         <v>0.6899999999999999</v>
@@ -8315,10 +8687,10 @@
         <v>0.77</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AB62" t="n">
         <v>0.77</v>
@@ -8327,7 +8699,7 @@
         <v>0.76</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE62" t="n">
         <v>0.67</v>
@@ -8336,10 +8708,10 @@
         <v>0.64</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AI62" t="n">
         <v>0.7</v>
@@ -8351,7 +8723,7 @@
         <v>0.74</v>
       </c>
       <c r="AL62" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="AM62" t="n">
         <v>0.72</v>
@@ -8360,18 +8732,24 @@
         <v>0.51</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.73</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -8443,7 +8821,7 @@
         <v>0.08</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB63" t="n">
         <v>0.06</v>
@@ -8452,10 +8830,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF63" t="n">
         <v>0.06</v>
@@ -8482,21 +8860,27 @@
         <v>0.06</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AO63" t="n">
         <v>0.02</v>
       </c>
+      <c r="AP63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -8580,7 +8964,7 @@
         <v>0.1</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF64" t="n">
         <v>0.14</v>
@@ -8601,7 +8985,7 @@
         <v>0.11</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AM64" t="n">
         <v>0.09</v>
@@ -8612,16 +8996,22 @@
       <c r="AO64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AP64" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D65" t="n">
         <v>0.1799999999999999</v>
@@ -8672,10 +9062,10 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2100000000000001</v>
       </c>
       <c r="U65" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="V65" t="n">
         <v>0.17</v>
@@ -8690,10 +9080,10 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="AB65" t="n">
         <v>0.07999999999999996</v>
@@ -8705,16 +9095,16 @@
         <v>0.14</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AF65" t="n">
         <v>0.16</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AI65" t="n">
         <v>0.15</v>
@@ -8732,21 +9122,27 @@
         <v>0.13</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -8862,16 +9258,22 @@
       <c r="AO66" t="n">
         <v>0.35</v>
       </c>
+      <c r="AP66" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -8987,16 +9389,22 @@
       <c r="AO67" t="n">
         <v>0.02</v>
       </c>
+      <c r="AP67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -9112,16 +9520,22 @@
       <c r="AO68" t="n">
         <v>0.03</v>
       </c>
+      <c r="AP68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -9237,16 +9651,22 @@
       <c r="AO69" t="n">
         <v>0.6</v>
       </c>
+      <c r="AP69" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.1599999999999999</v>
+      </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -9362,16 +9782,22 @@
       <c r="AO70" t="n">
         <v>0.36</v>
       </c>
+      <c r="AP70" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -9487,16 +9913,22 @@
       <c r="AO71" t="n">
         <v>0.05</v>
       </c>
+      <c r="AP71" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -9612,16 +10044,22 @@
       <c r="AO72" t="n">
         <v>0.1</v>
       </c>
+      <c r="AP72" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
         <v>0.1599999999999999</v>
@@ -9737,16 +10175,22 @@
       <c r="AO73" t="n">
         <v>0.49</v>
       </c>
+      <c r="AP73" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -9862,16 +10306,22 @@
       <c r="AO74" t="n">
         <v>0.21</v>
       </c>
+      <c r="AP74" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -9987,16 +10437,22 @@
       <c r="AO75" t="n">
         <v>0.06</v>
       </c>
+      <c r="AP75" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:43">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -10112,16 +10568,22 @@
       <c r="AO76" t="n">
         <v>0.15</v>
       </c>
+      <c r="AP76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D77" t="n">
         <v>0.1000000000000001</v>
@@ -10237,10 +10699,16 @@
       <c r="AO77" t="n">
         <v>0.58</v>
       </c>
+      <c r="AP77" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.05000000000000004</v>
+      </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10254,7 +10722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10262,7 +10730,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10383,13 +10851,19 @@
       <c r="AN1" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AO1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -10505,13 +10979,19 @@
       <c r="AN2" t="n">
         <v>1199</v>
       </c>
+      <c r="AO2" t="n">
+        <v>1153</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1153</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -10627,13 +11107,19 @@
       <c r="AN3" t="n">
         <v>338</v>
       </c>
+      <c r="AO3" t="n">
+        <v>339</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>339</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -10749,13 +11235,19 @@
       <c r="AN4" t="n">
         <v>97</v>
       </c>
+      <c r="AO4" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -10871,13 +11363,19 @@
       <c r="AN5" t="n">
         <v>323</v>
       </c>
+      <c r="AO5" t="n">
+        <v>320</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>320</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -10993,13 +11491,19 @@
       <c r="AN6" t="n">
         <v>176</v>
       </c>
+      <c r="AO6" t="n">
+        <v>173</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>173</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -11115,13 +11619,19 @@
       <c r="AN7" t="n">
         <v>104</v>
       </c>
+      <c r="AO7" t="n">
+        <v>103</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -11237,13 +11747,19 @@
       <c r="AN8" t="n">
         <v>567</v>
       </c>
+      <c r="AO8" t="n">
+        <v>543</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>543</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -11359,13 +11875,19 @@
       <c r="AN9" t="n">
         <v>299</v>
       </c>
+      <c r="AO9" t="n">
+        <v>285</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>285</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -11481,13 +12003,19 @@
       <c r="AN10" t="n">
         <v>156</v>
       </c>
+      <c r="AO10" t="n">
+        <v>152</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>152</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -11603,13 +12131,19 @@
       <c r="AN11" t="n">
         <v>177</v>
       </c>
+      <c r="AO11" t="n">
+        <v>173</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>173</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -11725,13 +12259,19 @@
       <c r="AN12" t="n">
         <v>291</v>
       </c>
+      <c r="AO12" t="n">
+        <v>262</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>262</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -11847,13 +12387,19 @@
       <c r="AN13" t="n">
         <v>681</v>
       </c>
+      <c r="AO13" t="n">
+        <v>661</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>661</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -11969,135 +12515,147 @@
       <c r="AN14" t="n">
         <v>227</v>
       </c>
+      <c r="AO14" t="n">
+        <v>230</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>230</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
+        <v>61</v>
+      </c>
+      <c r="H15" t="n">
+        <v>61</v>
+      </c>
+      <c r="I15" t="n">
+        <v>68</v>
+      </c>
+      <c r="J15" t="n">
+        <v>68</v>
+      </c>
+      <c r="K15" t="n">
         <v>64</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
         <v>64</v>
       </c>
-      <c r="I15" t="n">
-        <v>69</v>
-      </c>
-      <c r="J15" t="n">
-        <v>69</v>
-      </c>
-      <c r="K15" t="n">
-        <v>67</v>
-      </c>
-      <c r="L15" t="n">
-        <v>67</v>
-      </c>
       <c r="M15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T15" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W15" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="X15" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y15" t="n">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Z15" t="n">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AA15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AB15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AC15" t="n">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AD15" t="n">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AE15" t="n">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AF15" t="n">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AG15" t="n">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AH15" t="n">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AI15" t="n">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AJ15" t="n">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AK15" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AL15" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AM15" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AN15" t="n">
-        <v>439</v>
+        <v>429</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>417</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -12118,40 +12676,40 @@
         <v>188</v>
       </c>
       <c r="I16" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K16" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P16" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R16" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S16" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T16" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U16" t="n">
         <v>167</v>
@@ -12160,84 +12718,90 @@
         <v>167</v>
       </c>
       <c r="W16" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X16" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y16" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Z16" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AA16" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AB16" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AC16" t="n">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AD16" t="n">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AE16" t="n">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="AF16" t="n">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="AG16" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AH16" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AI16" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AJ16" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AK16" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AL16" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM16" t="n">
+        <v>382</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>382</v>
+      </c>
+      <c r="AO16" t="n">
         <v>375</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AP16" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D17" t="n">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E17" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F17" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G17" t="n">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="H17" t="n">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="I17" t="n">
         <v>1146</v>
@@ -12246,10 +12810,10 @@
         <v>1146</v>
       </c>
       <c r="K17" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="L17" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="M17" t="n">
         <v>1107</v>
@@ -12270,40 +12834,40 @@
         <v>1046</v>
       </c>
       <c r="S17" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="T17" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="U17" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="V17" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="W17" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="X17" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="Y17" t="n">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Z17" t="n">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="AA17" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AB17" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AC17" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AD17" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AE17" t="n">
         <v>346</v>
@@ -12312,10 +12876,10 @@
         <v>346</v>
       </c>
       <c r="AG17" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AH17" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AI17" t="n">
         <v>385</v>
@@ -12324,24 +12888,30 @@
         <v>385</v>
       </c>
       <c r="AK17" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL17" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM17" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AN17" t="n">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>361</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -12457,13 +13027,19 @@
       <c r="AN18" t="n">
         <v>442</v>
       </c>
+      <c r="AO18" t="n">
+        <v>427</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>427</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -12579,13 +13155,19 @@
       <c r="AN19" t="n">
         <v>466</v>
       </c>
+      <c r="AO19" t="n">
+        <v>442</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>442</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -12701,10 +13283,16 @@
       <c r="AN20" t="n">
         <v>291</v>
       </c>
+      <c r="AO20" t="n">
+        <v>284</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>284</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -12745,6 +13333,8 @@
       <c r="AL21" t="s"/>
       <c r="AM21" t="s"/>
       <c r="AN21" t="s"/>
+      <c r="AO21" t="s"/>
+      <c r="AP21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>trideni</t>
   </si>
@@ -146,6 +146,12 @@
     <t>18.–24. 1. 2021</t>
   </si>
   <si>
+    <t>1.–7. 2. 2021</t>
+  </si>
+  <si>
+    <t>8.–14. 2. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -233,10 +239,19 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Děti na ZŠ v domácnosti (respondenti do 45 let včetně)</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ78"/>
+  <dimension ref="A1:AS86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,16 +764,22 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -880,16 +901,22 @@
       <c r="AQ2" t="n">
         <v>0.67</v>
       </c>
+      <c r="AR2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1011,16 +1038,22 @@
       <c r="AQ3" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1142,19 +1175,25 @@
       <c r="AQ4" t="n">
         <v>0.13</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E5" t="n">
         <v>0.22</v>
@@ -1166,13 +1205,13 @@
         <v>0.21</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I5" t="n">
         <v>0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K5" t="n">
         <v>0.15</v>
@@ -1184,28 +1223,28 @@
         <v>0.14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="R5" t="n">
         <v>0.15</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2400000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="V5" t="n">
         <v>0.17</v>
@@ -1214,28 +1253,28 @@
         <v>0.15</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AF5" t="n">
         <v>0.14</v>
@@ -1253,13 +1292,13 @@
         <v>0.11</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AN5" t="n">
         <v>0.35</v>
@@ -1273,16 +1312,22 @@
       <c r="AQ5" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1404,16 +1449,22 @@
       <c r="AQ6" t="n">
         <v>0.66</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:45">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1535,16 +1586,22 @@
       <c r="AQ7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AR7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1666,16 +1723,22 @@
       <c r="AQ8" t="n">
         <v>0.1</v>
       </c>
+      <c r="AR8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -1708,52 +1771,52 @@
         <v>0.14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="R9" t="n">
         <v>0.15</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="U9" t="n">
         <v>0.15</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="W9" t="n">
         <v>0.15</v>
       </c>
       <c r="X9" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" t="n">
         <v>0.13</v>
@@ -1762,7 +1825,7 @@
         <v>0.15</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AG9" t="n">
         <v>0.18</v>
@@ -1780,13 +1843,13 @@
         <v>0.12</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AM9" t="n">
         <v>0.11</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="AO9" t="n">
         <v>0.52</v>
@@ -1797,16 +1860,22 @@
       <c r="AQ9" t="n">
         <v>0.17</v>
       </c>
+      <c r="AR9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -1928,16 +1997,22 @@
       <c r="AQ10" t="n">
         <v>0.34</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2059,16 +2134,22 @@
       <c r="AQ11" t="n">
         <v>0.18</v>
       </c>
+      <c r="AR11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:45">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2190,31 +2271,37 @@
       <c r="AQ12" t="n">
         <v>0.46</v>
       </c>
+      <c r="AR12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="G13" t="n">
         <v>0.12</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I13" t="n">
         <v>0.15</v>
@@ -2223,7 +2310,7 @@
         <v>0.12</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -2235,79 +2322,79 @@
         <v>0.11</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q13" t="n">
         <v>0.14</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="S13" t="n">
         <v>0.11</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="W13" t="n">
         <v>0.11</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01999999999999991</v>
+        <v>0.02</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN13" t="n">
         <v>0.23</v>
@@ -2316,21 +2403,27 @@
         <v>0.54</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2452,16 +2545,22 @@
       <c r="AQ14" t="n">
         <v>0.82</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -2583,16 +2682,22 @@
       <c r="AQ15" t="n">
         <v>0.05</v>
       </c>
+      <c r="AR15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:45">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -2714,61 +2819,67 @@
       <c r="AQ16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:45">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2400000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2400000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I17" t="n">
         <v>0.17</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K17" t="n">
         <v>0.12</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="S17" t="n">
         <v>0.105</v>
@@ -2780,58 +2891,58 @@
         <v>0.27</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AN17" t="n">
         <v>0.39</v>
@@ -2840,21 +2951,27 @@
         <v>0.64</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -2976,16 +3093,22 @@
       <c r="AQ18" t="n">
         <v>0.7</v>
       </c>
+      <c r="AR18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:45">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3107,16 +3230,22 @@
       <c r="AQ19" t="n">
         <v>0.14</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:45">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3238,25 +3367,31 @@
       <c r="AQ20" t="n">
         <v>0.09</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:45">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
         <v>0.21</v>
@@ -3271,114 +3406,120 @@
         <v>0.16</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="L21" t="n">
         <v>0.12</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04499999999999993</v>
+        <v>0.045</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="S21" t="n">
         <v>0.21</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1749999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="U21" t="n">
         <v>0.23</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AG21" t="n">
         <v>0.11</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AI21" t="n">
         <v>0.11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -3500,16 +3641,22 @@
       <c r="AQ22" t="n">
         <v>0.53</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -3631,16 +3778,22 @@
       <c r="AQ23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AR23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:45">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -3762,25 +3915,31 @@
       <c r="AQ24" t="n">
         <v>0.28</v>
       </c>
+      <c r="AR24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:45">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E25" t="n">
         <v>0.2</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G25" t="n">
         <v>0.18</v>
@@ -3792,28 +3951,28 @@
         <v>0.2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="M25" t="n">
         <v>0.11</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="R25" t="n">
         <v>0.47</v>
@@ -3831,55 +3990,55 @@
         <v>0.3</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="X25" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AN25" t="n">
         <v>0.45</v>
@@ -3888,21 +4047,27 @@
         <v>0.75</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:45">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -4024,16 +4189,22 @@
       <c r="AQ26" t="n">
         <v>0.72</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:45">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -4155,16 +4326,22 @@
       <c r="AQ27" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -4286,19 +4463,25 @@
       <c r="AQ28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:45">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E29" t="n">
         <v>0.25</v>
@@ -4322,64 +4505,64 @@
         <v>0.15</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2299999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="U29" t="n">
         <v>0.22</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.06</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AF29" t="n">
         <v>0.14</v>
@@ -4394,39 +4577,45 @@
         <v>0.11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="AO29" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -4548,16 +4737,22 @@
       <c r="AQ30" t="n">
         <v>0.68</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -4679,16 +4874,22 @@
       <c r="AQ31" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -4810,19 +5011,25 @@
       <c r="AQ32" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:45">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E33" t="n">
         <v>0.2</v>
@@ -4831,16 +5038,16 @@
         <v>0.18</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H33" t="n">
         <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K33" t="n">
         <v>0.12</v>
@@ -4849,19 +5056,19 @@
         <v>0.13</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="R33" t="n">
         <v>0.2</v>
@@ -4873,37 +5080,37 @@
         <v>0.23</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2799999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W33" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AF33" t="n">
         <v>0.15</v>
@@ -4927,30 +5134,36 @@
         <v>0.11</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.16</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -5072,16 +5285,22 @@
       <c r="AQ34" t="n">
         <v>0.63</v>
       </c>
+      <c r="AR34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -5203,16 +5422,22 @@
       <c r="AQ35" t="n">
         <v>0.06</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -5334,16 +5559,22 @@
       <c r="AQ36" t="n">
         <v>0.14</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -5361,16 +5592,16 @@
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="M37" t="n">
         <v>0.14</v>
@@ -5379,10 +5610,10 @@
         <v>0.11</v>
       </c>
       <c r="O37" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="P37" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="Q37" t="n">
         <v>0.12</v>
@@ -5391,43 +5622,43 @@
         <v>0.18</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2300000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W37" t="n">
         <v>0.18</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>0.12</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AF37" t="n">
         <v>0.12</v>
@@ -5436,22 +5667,22 @@
         <v>0.12</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="AJ37" t="n">
         <v>0.12</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AN37" t="n">
         <v>0.34</v>
@@ -5465,16 +5696,22 @@
       <c r="AQ37" t="n">
         <v>0.17</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:45">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -5596,16 +5833,22 @@
       <c r="AQ38" t="n">
         <v>0.52</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -5727,16 +5970,22 @@
       <c r="AQ39" t="n">
         <v>0.14</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:45">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -5858,40 +6107,46 @@
       <c r="AQ40" t="n">
         <v>0.26</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:45">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="F41" t="n">
         <v>0.16</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="H41" t="n">
         <v>0.14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="L41" t="n">
         <v>0.13</v>
@@ -5900,16 +6155,16 @@
         <v>0.12</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="O41" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1</v>
       </c>
       <c r="P41" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="R41" t="n">
         <v>0.21</v>
@@ -5924,81 +6179,87 @@
         <v>0.2</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="X41" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AG41" t="n">
         <v>0.11</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AN41" t="n">
         <v>0.29</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:45">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -6120,16 +6381,22 @@
       <c r="AQ42" t="n">
         <v>0.68</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:45">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -6251,16 +6518,22 @@
       <c r="AQ43" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:45">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -6382,22 +6655,28 @@
       <c r="AQ44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="F45" t="n">
         <v>0.15</v>
@@ -6418,25 +6697,25 @@
         <v>0.12</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="M45" t="n">
         <v>0.11</v>
       </c>
       <c r="N45" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="P45" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="R45" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="S45" t="n">
         <v>0.11</v>
@@ -6451,55 +6730,55 @@
         <v>0.14</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AF45" t="n">
         <v>0.14</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AN45" t="n">
         <v>0.34</v>
@@ -6508,21 +6787,27 @@
         <v>0.53</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:45">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -6644,16 +6929,22 @@
       <c r="AQ46" t="n">
         <v>0.7</v>
       </c>
+      <c r="AR46" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:45">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -6775,16 +7066,22 @@
       <c r="AQ47" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:45">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -6906,16 +7203,22 @@
       <c r="AQ48" t="n">
         <v>0.1</v>
       </c>
+      <c r="AR48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:45">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -6924,7 +7227,7 @@
         <v>0.23</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="G49" t="n">
         <v>0.21</v>
@@ -6936,7 +7239,7 @@
         <v>0.2</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K49" t="n">
         <v>0.13</v>
@@ -6948,19 +7251,19 @@
         <v>0.14</v>
       </c>
       <c r="N49" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="O49" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="P49" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.06</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="S49" t="n">
         <v>0.2</v>
@@ -6972,34 +7275,34 @@
         <v>0.25</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AF49" t="n">
         <v>0.13</v>
@@ -7017,36 +7320,42 @@
         <v>0.11</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="AO49" t="n">
         <v>0.52</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:45">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -7168,16 +7477,22 @@
       <c r="AQ50" t="n">
         <v>0.55</v>
       </c>
+      <c r="AR50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:45">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -7299,16 +7614,22 @@
       <c r="AQ51" t="n">
         <v>0.09</v>
       </c>
+      <c r="AR51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:45">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -7430,28 +7751,34 @@
       <c r="AQ52" t="n">
         <v>0.17</v>
       </c>
+      <c r="AR52" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="F53" t="n">
         <v>0.32</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="H53" t="n">
         <v>0.24</v>
@@ -7478,16 +7805,16 @@
         <v>0.11</v>
       </c>
       <c r="P53" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="T53" t="n">
         <v>0.28</v>
@@ -7496,28 +7823,28 @@
         <v>0.29</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="W53" t="n">
         <v>0.16</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="Z53" t="n">
         <v>0.12</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AD53" t="n">
         <v>0.13</v>
@@ -7526,16 +7853,16 @@
         <v>0.14</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="AJ53" t="n">
         <v>0.16</v>
@@ -7556,21 +7883,27 @@
         <v>0.64</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.21</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:45">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -7692,16 +8025,22 @@
       <c r="AQ54" t="n">
         <v>0.65</v>
       </c>
+      <c r="AR54" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -7823,16 +8162,22 @@
       <c r="AQ55" t="n">
         <v>0.09</v>
       </c>
+      <c r="AR55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:45">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -7954,40 +8299,46 @@
       <c r="AQ56" t="n">
         <v>0.14</v>
       </c>
+      <c r="AR56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L57" t="n">
         <v>0.12</v>
@@ -7996,25 +8347,25 @@
         <v>0.15</v>
       </c>
       <c r="N57" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="P57" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="S57" t="n">
         <v>0.21</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="U57" t="n">
         <v>0.27</v>
@@ -8026,28 +8377,28 @@
         <v>0.15</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AF57" t="n">
         <v>0.16</v>
@@ -8062,13 +8413,13 @@
         <v>0.13</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AM57" t="n">
         <v>0.12</v>
@@ -8080,21 +8431,27 @@
         <v>0.54</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR57" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:45">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -8216,16 +8573,22 @@
       <c r="AQ58" t="n">
         <v>0.62</v>
       </c>
+      <c r="AR58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:45">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -8347,16 +8710,22 @@
       <c r="AQ59" t="n">
         <v>0.1</v>
       </c>
+      <c r="AR59" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:45">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -8478,16 +8847,22 @@
       <c r="AQ60" t="n">
         <v>0.16</v>
       </c>
+      <c r="AR60" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:45">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -8499,37 +8874,37 @@
         <v>0.15</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="H61" t="n">
         <v>0.2</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="M61" t="n">
         <v>0.12</v>
       </c>
       <c r="N61" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="O61" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="P61" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="R61" t="n">
         <v>0.22</v>
@@ -8541,67 +8916,67 @@
         <v>0.23</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2599999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="V61" t="n">
         <v>0.14</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="X61" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AJ61" t="n">
         <v>0.13</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AL61" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM61" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN61" t="n">
         <v>0.37</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AP61" t="n">
         <v>0.11</v>
@@ -8609,16 +8984,22 @@
       <c r="AQ61" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:45">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -8740,16 +9121,22 @@
       <c r="AQ62" t="n">
         <v>0.73</v>
       </c>
+      <c r="AR62" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:45">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -8871,16 +9258,22 @@
       <c r="AQ63" t="n">
         <v>0.05</v>
       </c>
+      <c r="AR63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:45">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -9002,19 +9395,25 @@
       <c r="AQ64" t="n">
         <v>0.1</v>
       </c>
+      <c r="AR64" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:45">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E65" t="n">
         <v>0.23</v>
@@ -9026,13 +9425,13 @@
         <v>0.23</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K65" t="n">
         <v>0.15</v>
@@ -9044,28 +9443,28 @@
         <v>0.13</v>
       </c>
       <c r="N65" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O65" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="P65" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="R65" t="n">
         <v>0.16</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="U65" t="n">
-        <v>0.2300000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="V65" t="n">
         <v>0.17</v>
@@ -9074,22 +9473,22 @@
         <v>0.14</v>
       </c>
       <c r="X65" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AD65" t="n">
         <v>0.14</v>
@@ -9101,7 +9500,7 @@
         <v>0.16</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AH65" t="n">
         <v>0.14</v>
@@ -9110,10 +9509,10 @@
         <v>0.15</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AL65" t="n">
         <v>0.11</v>
@@ -9122,7 +9521,7 @@
         <v>0.13</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AO65" t="n">
         <v>0.55</v>
@@ -9133,16 +9532,22 @@
       <c r="AQ65" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR65" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:45">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -9264,16 +9669,22 @@
       <c r="AQ66" t="n">
         <v>0.78</v>
       </c>
+      <c r="AR66" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:45">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -9395,16 +9806,22 @@
       <c r="AQ67" t="n">
         <v>0.03</v>
       </c>
+      <c r="AR67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:45">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -9526,16 +9943,22 @@
       <c r="AQ68" t="n">
         <v>0.03</v>
       </c>
+      <c r="AR68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:45">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -9544,129 +9967,135 @@
         <v>0.34</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3299999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I69" t="n">
         <v>0.29</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2299999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="K69" t="n">
         <v>0.21</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N69" t="n">
         <v>0.11</v>
       </c>
       <c r="O69" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="P69" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T69" t="n">
-        <v>0.2949999999999999</v>
+        <v>0.295</v>
       </c>
       <c r="U69" t="n">
         <v>0.275</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="X69" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AL69" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AM69" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AO69" t="n">
         <v>0.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:45">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -9788,16 +10217,22 @@
       <c r="AQ70" t="n">
         <v>0.68</v>
       </c>
+      <c r="AR70" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:45">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -9919,16 +10354,22 @@
       <c r="AQ71" t="n">
         <v>0.08</v>
       </c>
+      <c r="AR71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:45">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -10050,22 +10491,28 @@
       <c r="AQ72" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR72" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:45">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F73" t="n">
         <v>0.16</v>
@@ -10080,7 +10527,7 @@
         <v>0.16</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="K73" t="n">
         <v>0.12</v>
@@ -10092,25 +10539,25 @@
         <v>0.11</v>
       </c>
       <c r="N73" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O73" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="P73" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R73" t="n">
         <v>0.16</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="T73" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="U73" t="n">
         <v>0.22</v>
@@ -10119,34 +10566,34 @@
         <v>0.16</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="X73" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AG73" t="n">
         <v>0.12</v>
@@ -10155,19 +10602,19 @@
         <v>0.11</v>
       </c>
       <c r="AI73" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AK73" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AL73" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AM73" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN73" t="n">
         <v>0.26</v>
@@ -10181,16 +10628,22 @@
       <c r="AQ73" t="n">
         <v>0.12</v>
       </c>
+      <c r="AR73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:45">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -10312,16 +10765,22 @@
       <c r="AQ74" t="n">
         <v>0.47</v>
       </c>
+      <c r="AR74" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:45">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -10443,16 +10902,22 @@
       <c r="AQ75" t="n">
         <v>0.17</v>
       </c>
+      <c r="AR75" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:45">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -10574,70 +11039,76 @@
       <c r="AQ76" t="n">
         <v>0.31</v>
       </c>
+      <c r="AR76" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:45">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H77" t="n">
         <v>0.12</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J77" t="n">
         <v>0.12</v>
       </c>
       <c r="K77" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="L77" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="M77" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="O77" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="P77" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="S77" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="T77" t="n">
         <v>0.17</v>
       </c>
       <c r="U77" t="n">
-        <v>0.2199999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="V77" t="n">
         <v>0.16</v>
@@ -10646,52 +11117,52 @@
         <v>0.14</v>
       </c>
       <c r="X77" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AC77" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="AG77" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH77" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="AL77" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="AM77" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="AN77" t="n">
         <v>0.35</v>
@@ -10700,15 +11171,1117 @@
         <v>0.58</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:45">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45">
+      <c r="A86" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10722,7 +12295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10730,7 +12303,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10857,13 +12430,19 @@
       <c r="AP1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="AQ1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -10985,13 +12564,19 @@
       <c r="AP2" t="n">
         <v>1153</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>1152</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -11113,13 +12698,19 @@
       <c r="AP3" t="n">
         <v>339</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>320</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>320</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -11241,13 +12832,19 @@
       <c r="AP4" t="n">
         <v>89</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -11369,13 +12966,19 @@
       <c r="AP5" t="n">
         <v>320</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>311</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>311</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -11497,13 +13100,19 @@
       <c r="AP6" t="n">
         <v>173</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>165</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>165</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -11625,13 +13234,19 @@
       <c r="AP7" t="n">
         <v>103</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>102</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -11753,13 +13368,19 @@
       <c r="AP8" t="n">
         <v>543</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>543</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>543</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -11881,13 +13502,19 @@
       <c r="AP9" t="n">
         <v>285</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>286</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>286</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -12009,13 +13636,19 @@
       <c r="AP10" t="n">
         <v>152</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>152</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>152</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -12137,13 +13770,19 @@
       <c r="AP11" t="n">
         <v>173</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>171</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>171</v>
+      </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -12265,13 +13904,19 @@
       <c r="AP12" t="n">
         <v>262</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>270</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -12393,13 +14038,19 @@
       <c r="AP13" t="n">
         <v>661</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>654</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>654</v>
+      </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -12521,13 +14172,19 @@
       <c r="AP14" t="n">
         <v>230</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>228</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>228</v>
+      </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -12649,13 +14306,19 @@
       <c r="AP15" t="n">
         <v>417</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>466</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>466</v>
+      </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -12777,13 +14440,19 @@
       <c r="AP16" t="n">
         <v>375</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>346</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>346</v>
+      </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -12905,13 +14574,19 @@
       <c r="AP17" t="n">
         <v>361</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>340</v>
+      </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -13033,13 +14708,19 @@
       <c r="AP18" t="n">
         <v>427</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>419</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>419</v>
+      </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -13161,13 +14842,19 @@
       <c r="AP19" t="n">
         <v>442</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>455</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>455</v>
+      </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -13289,52 +14976,328 @@
       <c r="AP20" t="n">
         <v>284</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>278</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>278</v>
+      </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="s"/>
-      <c r="AE21" t="s"/>
-      <c r="AF21" t="s"/>
-      <c r="AG21" t="s"/>
-      <c r="AH21" t="s"/>
-      <c r="AI21" t="s"/>
-      <c r="AJ21" t="s"/>
-      <c r="AK21" t="s"/>
-      <c r="AL21" t="s"/>
-      <c r="AM21" t="s"/>
-      <c r="AN21" t="s"/>
-      <c r="AO21" t="s"/>
-      <c r="AP21" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>249</v>
+      </c>
+      <c r="D21" t="n">
+        <v>249</v>
+      </c>
+      <c r="E21" t="n">
+        <v>203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>203</v>
+      </c>
+      <c r="G21" t="n">
+        <v>196</v>
+      </c>
+      <c r="H21" t="n">
+        <v>196</v>
+      </c>
+      <c r="I21" t="n">
+        <v>191</v>
+      </c>
+      <c r="J21" t="n">
+        <v>191</v>
+      </c>
+      <c r="K21" t="n">
+        <v>194</v>
+      </c>
+      <c r="L21" t="n">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>179</v>
+      </c>
+      <c r="N21" t="n">
+        <v>179</v>
+      </c>
+      <c r="O21" t="n">
+        <v>171</v>
+      </c>
+      <c r="P21" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>163</v>
+      </c>
+      <c r="R21" t="n">
+        <v>163</v>
+      </c>
+      <c r="S21" t="n">
+        <v>155</v>
+      </c>
+      <c r="T21" t="n">
+        <v>155</v>
+      </c>
+      <c r="U21" t="n">
+        <v>168</v>
+      </c>
+      <c r="V21" t="n">
+        <v>168</v>
+      </c>
+      <c r="W21" t="n">
+        <v>157</v>
+      </c>
+      <c r="X21" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>153</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>145</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>145</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>168</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>168</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>157</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>157</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>169</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>169</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>156</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>156</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>156</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>156</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>157</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>157</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="n">
+        <v>630</v>
+      </c>
+      <c r="D22" t="n">
+        <v>630</v>
+      </c>
+      <c r="E22" t="n">
+        <v>628</v>
+      </c>
+      <c r="F22" t="n">
+        <v>628</v>
+      </c>
+      <c r="G22" t="n">
+        <v>648</v>
+      </c>
+      <c r="H22" t="n">
+        <v>648</v>
+      </c>
+      <c r="I22" t="n">
+        <v>614</v>
+      </c>
+      <c r="J22" t="n">
+        <v>614</v>
+      </c>
+      <c r="K22" t="n">
+        <v>612</v>
+      </c>
+      <c r="L22" t="n">
+        <v>612</v>
+      </c>
+      <c r="M22" t="n">
+        <v>566</v>
+      </c>
+      <c r="N22" t="n">
+        <v>566</v>
+      </c>
+      <c r="O22" t="n">
+        <v>538</v>
+      </c>
+      <c r="P22" t="n">
+        <v>538</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>526</v>
+      </c>
+      <c r="R22" t="n">
+        <v>526</v>
+      </c>
+      <c r="S22" t="n">
+        <v>501</v>
+      </c>
+      <c r="T22" t="n">
+        <v>501</v>
+      </c>
+      <c r="U22" t="n">
+        <v>530</v>
+      </c>
+      <c r="V22" t="n">
+        <v>530</v>
+      </c>
+      <c r="W22" t="n">
+        <v>496</v>
+      </c>
+      <c r="X22" t="n">
+        <v>496</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>507</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>534</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>534</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>552</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>552</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>523</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>523</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>551</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>551</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>519</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>519</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>478</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>478</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>519</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>519</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>488</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>488</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>486</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+      <c r="Z23" t="s"/>
+      <c r="AA23" t="s"/>
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="s"/>
+      <c r="AE23" t="s"/>
+      <c r="AF23" t="s"/>
+      <c r="AG23" t="s"/>
+      <c r="AH23" t="s"/>
+      <c r="AI23" t="s"/>
+      <c r="AJ23" t="s"/>
+      <c r="AK23" t="s"/>
+      <c r="AL23" t="s"/>
+      <c r="AM23" t="s"/>
+      <c r="AN23" t="s"/>
+      <c r="AO23" t="s"/>
+      <c r="AP23" t="s"/>
+      <c r="AQ23" t="s"/>
+      <c r="AR23" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>trideni</t>
   </si>
@@ -158,6 +158,12 @@
     <t>22.–28. 2. 2021</t>
   </si>
   <si>
+    <t>1.–7. 3. 2021</t>
+  </si>
+  <si>
+    <t>8.–14. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -245,10 +251,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU78"/>
+  <dimension ref="A1:AW78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,16 +779,22 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -916,16 +928,22 @@
       <c r="AU2" t="n">
         <v>0.66</v>
       </c>
+      <c r="AV2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1059,16 +1077,22 @@
       <c r="AU3" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1202,16 +1226,22 @@
       <c r="AU4" t="n">
         <v>0.14</v>
       </c>
+      <c r="AV4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1345,16 +1375,22 @@
       <c r="AU5" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1488,16 +1524,22 @@
       <c r="AU6" t="n">
         <v>0.64</v>
       </c>
+      <c r="AV6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1631,16 +1673,22 @@
       <c r="AU7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AV7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1774,16 +1822,22 @@
       <c r="AU8" t="n">
         <v>0.11</v>
       </c>
+      <c r="AV8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -1917,16 +1971,22 @@
       <c r="AU9" t="n">
         <v>0.18</v>
       </c>
+      <c r="AV9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2060,16 +2120,22 @@
       <c r="AU10" t="n">
         <v>0.32</v>
       </c>
+      <c r="AV10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2203,16 +2269,22 @@
       <c r="AU11" t="n">
         <v>0.11</v>
       </c>
+      <c r="AV11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2346,16 +2418,22 @@
       <c r="AU12" t="n">
         <v>0.49</v>
       </c>
+      <c r="AV12" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2489,16 +2567,22 @@
       <c r="AU13" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2632,16 +2716,22 @@
       <c r="AU14" t="n">
         <v>0.83</v>
       </c>
+      <c r="AV14" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -2775,16 +2865,22 @@
       <c r="AU15" t="n">
         <v>0.06</v>
       </c>
+      <c r="AV15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -2918,16 +3014,22 @@
       <c r="AU16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AV16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3061,16 +3163,22 @@
       <c r="AU17" t="n">
         <v>0.06</v>
       </c>
+      <c r="AV17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3204,16 +3312,22 @@
       <c r="AU18" t="n">
         <v>0.67</v>
       </c>
+      <c r="AV18" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3347,16 +3461,22 @@
       <c r="AU19" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3490,16 +3610,22 @@
       <c r="AU20" t="n">
         <v>0.09</v>
       </c>
+      <c r="AV20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -3633,16 +3759,22 @@
       <c r="AU21" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -3776,16 +3908,22 @@
       <c r="AU22" t="n">
         <v>0.51</v>
       </c>
+      <c r="AV22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -3919,16 +4057,22 @@
       <c r="AU23" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4062,16 +4206,22 @@
       <c r="AU24" t="n">
         <v>0.25</v>
       </c>
+      <c r="AV24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -4205,16 +4355,22 @@
       <c r="AU25" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -4348,16 +4504,22 @@
       <c r="AU26" t="n">
         <v>0.71</v>
       </c>
+      <c r="AV26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -4491,16 +4653,22 @@
       <c r="AU27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AV27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -4634,16 +4802,22 @@
       <c r="AU28" t="n">
         <v>0.13</v>
       </c>
+      <c r="AV28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -4777,16 +4951,22 @@
       <c r="AU29" t="n">
         <v>0.09</v>
       </c>
+      <c r="AV29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -4920,16 +5100,22 @@
       <c r="AU30" t="n">
         <v>0.68</v>
       </c>
+      <c r="AV30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -5063,16 +5249,22 @@
       <c r="AU31" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AV31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -5206,16 +5398,22 @@
       <c r="AU32" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -5349,16 +5547,22 @@
       <c r="AU33" t="n">
         <v>0.17</v>
       </c>
+      <c r="AV33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -5492,16 +5696,22 @@
       <c r="AU34" t="n">
         <v>0.6</v>
       </c>
+      <c r="AV34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -5635,16 +5845,22 @@
       <c r="AU35" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -5778,16 +5994,22 @@
       <c r="AU36" t="n">
         <v>0.16</v>
       </c>
+      <c r="AV36" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -5921,16 +6143,22 @@
       <c r="AU37" t="n">
         <v>0.16</v>
       </c>
+      <c r="AV37" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -6064,16 +6292,22 @@
       <c r="AU38" t="n">
         <v>0.51</v>
       </c>
+      <c r="AV38" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -6207,16 +6441,22 @@
       <c r="AU39" t="n">
         <v>0.15</v>
       </c>
+      <c r="AV39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -6350,16 +6590,22 @@
       <c r="AU40" t="n">
         <v>0.25</v>
       </c>
+      <c r="AV40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -6493,16 +6739,22 @@
       <c r="AU41" t="n">
         <v>0.09</v>
       </c>
+      <c r="AV41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -6636,16 +6888,22 @@
       <c r="AU42" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AV42" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -6779,16 +7037,22 @@
       <c r="AU43" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -6922,16 +7186,22 @@
       <c r="AU44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AV44" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -7065,16 +7335,22 @@
       <c r="AU45" t="n">
         <v>0.05</v>
       </c>
+      <c r="AV45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -7208,16 +7484,22 @@
       <c r="AU46" t="n">
         <v>0.68</v>
       </c>
+      <c r="AV46" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -7351,16 +7633,22 @@
       <c r="AU47" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -7494,16 +7782,22 @@
       <c r="AU48" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV48" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -7637,16 +7931,22 @@
       <c r="AU49" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV49" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -7780,16 +8080,22 @@
       <c r="AU50" t="n">
         <v>0.55</v>
       </c>
+      <c r="AV50" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -7923,16 +8229,22 @@
       <c r="AU51" t="n">
         <v>0.09</v>
       </c>
+      <c r="AV51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -8066,16 +8378,22 @@
       <c r="AU52" t="n">
         <v>0.16</v>
       </c>
+      <c r="AV52" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -8209,16 +8527,22 @@
       <c r="AU53" t="n">
         <v>0.2</v>
       </c>
+      <c r="AV53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -8352,16 +8676,22 @@
       <c r="AU54" t="n">
         <v>0.68</v>
       </c>
+      <c r="AV54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -8495,16 +8825,22 @@
       <c r="AU55" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:49">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -8638,16 +8974,22 @@
       <c r="AU56" t="n">
         <v>0.1</v>
       </c>
+      <c r="AV56" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:49">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -8781,16 +9123,22 @@
       <c r="AU57" t="n">
         <v>0.14</v>
       </c>
+      <c r="AV57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:49">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -8924,16 +9272,22 @@
       <c r="AU58" t="n">
         <v>0.59</v>
       </c>
+      <c r="AV58" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:49">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -9067,16 +9421,22 @@
       <c r="AU59" t="n">
         <v>0.1</v>
       </c>
+      <c r="AV59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:49">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -9210,16 +9570,22 @@
       <c r="AU60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AV60" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -9353,16 +9719,22 @@
       <c r="AU61" t="n">
         <v>0.12</v>
       </c>
+      <c r="AV61" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:49">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -9496,16 +9868,22 @@
       <c r="AU62" t="n">
         <v>0.72</v>
       </c>
+      <c r="AV62" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:49">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -9639,16 +10017,22 @@
       <c r="AU63" t="n">
         <v>0.06</v>
       </c>
+      <c r="AV63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:49">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -9782,16 +10166,22 @@
       <c r="AU64" t="n">
         <v>0.14</v>
       </c>
+      <c r="AV64" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:49">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -9925,16 +10315,22 @@
       <c r="AU65" t="n">
         <v>0.08</v>
       </c>
+      <c r="AV65" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:49">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -10068,16 +10464,22 @@
       <c r="AU66" t="n">
         <v>0.79</v>
       </c>
+      <c r="AV66" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:49">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -10211,16 +10613,22 @@
       <c r="AU67" t="n">
         <v>0.04</v>
       </c>
+      <c r="AV67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:49">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -10354,16 +10762,22 @@
       <c r="AU68" t="n">
         <v>0.03</v>
       </c>
+      <c r="AV68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:49">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -10497,16 +10911,22 @@
       <c r="AU69" t="n">
         <v>0.14</v>
       </c>
+      <c r="AV69" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:49">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -10640,16 +11060,22 @@
       <c r="AU70" t="n">
         <v>0.65</v>
       </c>
+      <c r="AV70" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:49">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -10783,16 +11209,22 @@
       <c r="AU71" t="n">
         <v>0.09</v>
       </c>
+      <c r="AV71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:49">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -10926,16 +11358,22 @@
       <c r="AU72" t="n">
         <v>0.13</v>
       </c>
+      <c r="AV72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:49">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -11069,16 +11507,22 @@
       <c r="AU73" t="n">
         <v>0.13</v>
       </c>
+      <c r="AV73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:49">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -11212,16 +11656,22 @@
       <c r="AU74" t="n">
         <v>0.48</v>
       </c>
+      <c r="AV74" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:49">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -11355,16 +11805,22 @@
       <c r="AU75" t="n">
         <v>0.14</v>
       </c>
+      <c r="AV75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:49">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -11498,16 +11954,22 @@
       <c r="AU76" t="n">
         <v>0.32</v>
       </c>
+      <c r="AV76" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:49">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -11641,10 +12103,16 @@
       <c r="AU77" t="n">
         <v>0.06</v>
       </c>
+      <c r="AV77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:49">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11658,7 +12126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT21"/>
+  <dimension ref="A1:AV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11666,7 +12134,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11805,13 +12273,19 @@
       <c r="AT1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AU1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -11945,13 +12419,19 @@
       <c r="AT2" t="n">
         <v>1156</v>
       </c>
+      <c r="AU2" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1160</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -12085,13 +12565,19 @@
       <c r="AT3" t="n">
         <v>322</v>
       </c>
+      <c r="AU3" t="n">
+        <v>320</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>320</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -12225,13 +12711,19 @@
       <c r="AT4" t="n">
         <v>94</v>
       </c>
+      <c r="AU4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -12365,13 +12857,19 @@
       <c r="AT5" t="n">
         <v>310</v>
       </c>
+      <c r="AU5" t="n">
+        <v>307</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>307</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -12505,13 +13003,19 @@
       <c r="AT6" t="n">
         <v>165</v>
       </c>
+      <c r="AU6" t="n">
+        <v>163</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>163</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -12645,13 +13149,19 @@
       <c r="AT7" t="n">
         <v>103</v>
       </c>
+      <c r="AU7" t="n">
+        <v>105</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>105</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -12785,13 +13295,19 @@
       <c r="AT8" t="n">
         <v>549</v>
       </c>
+      <c r="AU8" t="n">
+        <v>569</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>569</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -12925,13 +13441,19 @@
       <c r="AT9" t="n">
         <v>282</v>
       </c>
+      <c r="AU9" t="n">
+        <v>271</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>271</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -13065,13 +13587,19 @@
       <c r="AT10" t="n">
         <v>154</v>
       </c>
+      <c r="AU10" t="n">
+        <v>145</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -13205,13 +13733,19 @@
       <c r="AT11" t="n">
         <v>171</v>
       </c>
+      <c r="AU11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>175</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -13345,13 +13879,19 @@
       <c r="AT12" t="n">
         <v>278</v>
       </c>
+      <c r="AU12" t="n">
+        <v>277</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>277</v>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -13485,13 +14025,19 @@
       <c r="AT13" t="n">
         <v>652</v>
       </c>
+      <c r="AU13" t="n">
+        <v>667</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>667</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -13625,13 +14171,19 @@
       <c r="AT14" t="n">
         <v>226</v>
       </c>
+      <c r="AU14" t="n">
+        <v>216</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>216</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -13765,13 +14317,19 @@
       <c r="AT15" t="n">
         <v>464</v>
       </c>
+      <c r="AU15" t="n">
+        <v>465</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>465</v>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -13905,13 +14463,19 @@
       <c r="AT16" t="n">
         <v>375</v>
       </c>
+      <c r="AU16" t="n">
+        <v>380</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>380</v>
+      </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -14045,13 +14609,19 @@
       <c r="AT17" t="n">
         <v>317</v>
       </c>
+      <c r="AU17" t="n">
+        <v>315</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>315</v>
+      </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -14185,13 +14755,19 @@
       <c r="AT18" t="n">
         <v>423</v>
       </c>
+      <c r="AU18" t="n">
+        <v>417</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>417</v>
+      </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -14325,13 +14901,19 @@
       <c r="AT19" t="n">
         <v>444</v>
       </c>
+      <c r="AU19" t="n">
+        <v>458</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>458</v>
+      </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -14465,10 +15047,16 @@
       <c r="AT20" t="n">
         <v>289</v>
       </c>
+      <c r="AU20" t="n">
+        <v>285</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>285</v>
+      </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -14515,6 +15103,8 @@
       <c r="AR21" t="s"/>
       <c r="AS21" t="s"/>
       <c r="AT21" t="s"/>
+      <c r="AU21" t="s"/>
+      <c r="AV21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>trideni</t>
   </si>
@@ -164,6 +164,12 @@
     <t>8.–14. 3. 2021</t>
   </si>
   <si>
+    <t>15.–21. 3. 2021</t>
+  </si>
+  <si>
+    <t>22.–28. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -251,10 +257,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW78"/>
+  <dimension ref="A1:AY78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +643,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,16 +791,22 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -934,16 +946,22 @@
       <c r="AW2" t="n">
         <v>0.59</v>
       </c>
+      <c r="AX2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1083,16 +1101,22 @@
       <c r="AW3" t="n">
         <v>0.09</v>
       </c>
+      <c r="AX3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1232,16 +1256,22 @@
       <c r="AW4" t="n">
         <v>0.18</v>
       </c>
+      <c r="AX4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1381,16 +1411,22 @@
       <c r="AW5" t="n">
         <v>0.14</v>
       </c>
+      <c r="AX5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1530,16 +1566,22 @@
       <c r="AW6" t="n">
         <v>0.62</v>
       </c>
+      <c r="AX6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1679,16 +1721,22 @@
       <c r="AW7" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1828,16 +1876,22 @@
       <c r="AW8" t="n">
         <v>0.13</v>
       </c>
+      <c r="AX8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -1977,16 +2031,22 @@
       <c r="AW9" t="n">
         <v>0.17</v>
       </c>
+      <c r="AX9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2126,16 +2186,22 @@
       <c r="AW10" t="n">
         <v>0.3</v>
       </c>
+      <c r="AX10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2275,16 +2341,22 @@
       <c r="AW11" t="n">
         <v>0.04</v>
       </c>
+      <c r="AX11" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2424,16 +2496,22 @@
       <c r="AW12" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AX12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2573,16 +2651,22 @@
       <c r="AW13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2722,16 +2806,22 @@
       <c r="AW14" t="n">
         <v>0.76</v>
       </c>
+      <c r="AX14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -2871,16 +2961,22 @@
       <c r="AW15" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AX15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -3020,16 +3116,22 @@
       <c r="AW16" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3169,16 +3271,22 @@
       <c r="AW17" t="n">
         <v>0.09</v>
       </c>
+      <c r="AX17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3318,16 +3426,22 @@
       <c r="AW18" t="n">
         <v>0.59</v>
       </c>
+      <c r="AX18" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3467,16 +3581,22 @@
       <c r="AW19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AX19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3616,16 +3736,22 @@
       <c r="AW20" t="n">
         <v>0.14</v>
       </c>
+      <c r="AX20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -3765,16 +3891,22 @@
       <c r="AW21" t="n">
         <v>0.11</v>
       </c>
+      <c r="AX21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -3914,16 +4046,22 @@
       <c r="AW22" t="n">
         <v>0.38</v>
       </c>
+      <c r="AX22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -4063,16 +4201,22 @@
       <c r="AW23" t="n">
         <v>0.14</v>
       </c>
+      <c r="AX23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4212,16 +4356,22 @@
       <c r="AW24" t="n">
         <v>0.36</v>
       </c>
+      <c r="AX24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -4361,16 +4511,22 @@
       <c r="AW25" t="n">
         <v>0.12</v>
       </c>
+      <c r="AX25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -4510,16 +4666,22 @@
       <c r="AW26" t="n">
         <v>0.62</v>
       </c>
+      <c r="AX26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -4659,16 +4821,22 @@
       <c r="AW27" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -4808,16 +4976,22 @@
       <c r="AW28" t="n">
         <v>0.15</v>
       </c>
+      <c r="AX28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -4957,16 +5131,22 @@
       <c r="AW29" t="n">
         <v>0.13</v>
       </c>
+      <c r="AX29" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -5106,16 +5286,22 @@
       <c r="AW30" t="n">
         <v>0.64</v>
       </c>
+      <c r="AX30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -5255,16 +5441,22 @@
       <c r="AW31" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -5404,16 +5596,22 @@
       <c r="AW32" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -5553,16 +5751,22 @@
       <c r="AW33" t="n">
         <v>0.18</v>
       </c>
+      <c r="AX33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -5702,16 +5906,22 @@
       <c r="AW34" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AX34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -5851,16 +6061,22 @@
       <c r="AW35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AX35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6000,16 +6216,22 @@
       <c r="AW36" t="n">
         <v>0.21</v>
       </c>
+      <c r="AX36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -6149,16 +6371,22 @@
       <c r="AW37" t="n">
         <v>0.16</v>
       </c>
+      <c r="AX37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -6298,16 +6526,22 @@
       <c r="AW38" t="n">
         <v>0.44</v>
       </c>
+      <c r="AX38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -6447,16 +6681,22 @@
       <c r="AW39" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -6596,16 +6836,22 @@
       <c r="AW40" t="n">
         <v>0.35</v>
       </c>
+      <c r="AX40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -6745,16 +6991,22 @@
       <c r="AW41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AX41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -6894,16 +7146,22 @@
       <c r="AW42" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AX42" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -7043,16 +7301,22 @@
       <c r="AW43" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -7192,16 +7456,22 @@
       <c r="AW44" t="n">
         <v>0.25</v>
       </c>
+      <c r="AX44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -7341,16 +7611,22 @@
       <c r="AW45" t="n">
         <v>0.09</v>
       </c>
+      <c r="AX45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -7490,16 +7766,22 @@
       <c r="AW46" t="n">
         <v>0.63</v>
       </c>
+      <c r="AX46" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -7639,16 +7921,22 @@
       <c r="AW47" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -7788,16 +8076,22 @@
       <c r="AW48" t="n">
         <v>0.15</v>
       </c>
+      <c r="AX48" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -7937,16 +8231,22 @@
       <c r="AW49" t="n">
         <v>0.14</v>
       </c>
+      <c r="AX49" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -8086,16 +8386,22 @@
       <c r="AW50" t="n">
         <v>0.5</v>
       </c>
+      <c r="AX50" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -8235,16 +8541,22 @@
       <c r="AW51" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -8384,16 +8696,22 @@
       <c r="AW52" t="n">
         <v>0.17</v>
       </c>
+      <c r="AX52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -8533,16 +8851,22 @@
       <c r="AW53" t="n">
         <v>0.23</v>
       </c>
+      <c r="AX53" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -8682,16 +9006,22 @@
       <c r="AW54" t="n">
         <v>0.6</v>
       </c>
+      <c r="AX54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -8831,16 +9161,22 @@
       <c r="AW55" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:51">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -8980,16 +9316,22 @@
       <c r="AW56" t="n">
         <v>0.16</v>
       </c>
+      <c r="AX56" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:51">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -9129,16 +9471,22 @@
       <c r="AW57" t="n">
         <v>0.16</v>
       </c>
+      <c r="AX57" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:51">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -9278,16 +9626,22 @@
       <c r="AW58" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AX58" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:51">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -9427,16 +9781,22 @@
       <c r="AW59" t="n">
         <v>0.11</v>
       </c>
+      <c r="AX59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:51">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -9576,16 +9936,22 @@
       <c r="AW60" t="n">
         <v>0.21</v>
       </c>
+      <c r="AX60" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:51">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -9725,16 +10091,22 @@
       <c r="AW61" t="n">
         <v>0.12</v>
       </c>
+      <c r="AX61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:51">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -9874,16 +10246,22 @@
       <c r="AW62" t="n">
         <v>0.61</v>
       </c>
+      <c r="AX62" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:51">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -10023,16 +10401,22 @@
       <c r="AW63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AX63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:51">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -10172,16 +10556,22 @@
       <c r="AW64" t="n">
         <v>0.15</v>
       </c>
+      <c r="AX64" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="65" spans="1:49">
+    <row r="65" spans="1:51">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -10321,16 +10711,22 @@
       <c r="AW65" t="n">
         <v>0.16</v>
       </c>
+      <c r="AX65" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="66" spans="1:49">
+    <row r="66" spans="1:51">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -10470,16 +10866,22 @@
       <c r="AW66" t="n">
         <v>0.7</v>
       </c>
+      <c r="AX66" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="67" spans="1:49">
+    <row r="67" spans="1:51">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -10619,16 +11021,22 @@
       <c r="AW67" t="n">
         <v>0.03</v>
       </c>
+      <c r="AX67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:49">
+    <row r="68" spans="1:51">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -10768,16 +11176,22 @@
       <c r="AW68" t="n">
         <v>0.04</v>
       </c>
+      <c r="AX68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:49">
+    <row r="69" spans="1:51">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -10917,16 +11331,22 @@
       <c r="AW69" t="n">
         <v>0.23</v>
       </c>
+      <c r="AX69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="70" spans="1:49">
+    <row r="70" spans="1:51">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -11066,16 +11486,22 @@
       <c r="AW70" t="n">
         <v>0.63</v>
       </c>
+      <c r="AX70" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="71" spans="1:49">
+    <row r="71" spans="1:51">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -11215,16 +11641,22 @@
       <c r="AW71" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="72" spans="1:49">
+    <row r="72" spans="1:51">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -11364,16 +11796,22 @@
       <c r="AW72" t="n">
         <v>0.17</v>
       </c>
+      <c r="AX72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="73" spans="1:49">
+    <row r="73" spans="1:51">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -11513,16 +11951,22 @@
       <c r="AW73" t="n">
         <v>0.1</v>
       </c>
+      <c r="AX73" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="74" spans="1:49">
+    <row r="74" spans="1:51">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -11662,16 +12106,22 @@
       <c r="AW74" t="n">
         <v>0.37</v>
       </c>
+      <c r="AX74" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="75" spans="1:49">
+    <row r="75" spans="1:51">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -11811,16 +12261,22 @@
       <c r="AW75" t="n">
         <v>0.17</v>
       </c>
+      <c r="AX75" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="76" spans="1:49">
+    <row r="76" spans="1:51">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -11960,16 +12416,22 @@
       <c r="AW76" t="n">
         <v>0.39</v>
       </c>
+      <c r="AX76" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="77" spans="1:49">
+    <row r="77" spans="1:51">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -12109,10 +12571,16 @@
       <c r="AW77" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AX77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="78" spans="1:49">
+    <row r="78" spans="1:51">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12126,7 +12594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12134,7 +12602,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12279,13 +12747,19 @@
       <c r="AV1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AW1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -12425,13 +12899,19 @@
       <c r="AV2" t="n">
         <v>1160</v>
       </c>
+      <c r="AW2" t="n">
+        <v>1142</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1142</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -12571,13 +13051,19 @@
       <c r="AV3" t="n">
         <v>320</v>
       </c>
+      <c r="AW3" t="n">
+        <v>316</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>316</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -12717,13 +13203,19 @@
       <c r="AV4" t="n">
         <v>96</v>
       </c>
+      <c r="AW4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -12863,13 +13355,19 @@
       <c r="AV5" t="n">
         <v>307</v>
       </c>
+      <c r="AW5" t="n">
+        <v>304</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>304</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -13009,13 +13507,19 @@
       <c r="AV6" t="n">
         <v>163</v>
       </c>
+      <c r="AW6" t="n">
+        <v>168</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>168</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -13155,13 +13659,19 @@
       <c r="AV7" t="n">
         <v>105</v>
       </c>
+      <c r="AW7" t="n">
+        <v>98</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -13301,13 +13811,19 @@
       <c r="AV8" t="n">
         <v>569</v>
       </c>
+      <c r="AW8" t="n">
+        <v>558</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>558</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -13447,13 +13963,19 @@
       <c r="AV9" t="n">
         <v>271</v>
       </c>
+      <c r="AW9" t="n">
+        <v>269</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>269</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -13593,13 +14115,19 @@
       <c r="AV10" t="n">
         <v>145</v>
       </c>
+      <c r="AW10" t="n">
+        <v>147</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>147</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -13739,13 +14267,19 @@
       <c r="AV11" t="n">
         <v>175</v>
       </c>
+      <c r="AW11" t="n">
+        <v>168</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>168</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -13885,13 +14419,19 @@
       <c r="AV12" t="n">
         <v>277</v>
       </c>
+      <c r="AW12" t="n">
+        <v>267</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -14031,13 +14571,19 @@
       <c r="AV13" t="n">
         <v>667</v>
       </c>
+      <c r="AW13" t="n">
+        <v>650</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>650</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -14177,13 +14723,19 @@
       <c r="AV14" t="n">
         <v>216</v>
       </c>
+      <c r="AW14" t="n">
+        <v>225</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>225</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -14323,13 +14875,19 @@
       <c r="AV15" t="n">
         <v>465</v>
       </c>
+      <c r="AW15" t="n">
+        <v>432</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>432</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -14469,13 +15027,19 @@
       <c r="AV16" t="n">
         <v>380</v>
       </c>
+      <c r="AW16" t="n">
+        <v>371</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>371</v>
+      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -14615,13 +15179,19 @@
       <c r="AV17" t="n">
         <v>315</v>
       </c>
+      <c r="AW17" t="n">
+        <v>339</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>339</v>
+      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -14761,13 +15331,19 @@
       <c r="AV18" t="n">
         <v>417</v>
       </c>
+      <c r="AW18" t="n">
+        <v>410</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>410</v>
+      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -14907,13 +15483,19 @@
       <c r="AV19" t="n">
         <v>458</v>
       </c>
+      <c r="AW19" t="n">
+        <v>456</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>456</v>
+      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -15053,10 +15635,16 @@
       <c r="AV20" t="n">
         <v>285</v>
       </c>
+      <c r="AW20" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>276</v>
+      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -15105,6 +15693,8 @@
       <c r="AT21" t="s"/>
       <c r="AU21" t="s"/>
       <c r="AV21" t="s"/>
+      <c r="AW21" t="s"/>
+      <c r="AX21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>trideni</t>
   </si>
@@ -170,6 +170,18 @@
     <t>22.–28. 3. 2021</t>
   </si>
   <si>
+    <t>29. 3.–4. 4. 2021</t>
+  </si>
+  <si>
+    <t>5.–11. 4. 2021</t>
+  </si>
+  <si>
+    <t>19.–25. 4. 2021</t>
+  </si>
+  <si>
+    <t>26. 4.–2. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -257,10 +269,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY78"/>
+  <dimension ref="A1:BC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +655,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,16 +809,28 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -952,16 +976,28 @@
       <c r="AY2" t="n">
         <v>0.61</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1107,16 +1143,28 @@
       <c r="AY3" t="n">
         <v>0.09</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1262,16 +1310,28 @@
       <c r="AY4" t="n">
         <v>0.16</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1417,16 +1477,28 @@
       <c r="AY5" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1572,16 +1644,28 @@
       <c r="AY6" t="n">
         <v>0.63</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1727,16 +1811,28 @@
       <c r="AY7" t="n">
         <v>0.08</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:55">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1882,16 +1978,28 @@
       <c r="AY8" t="n">
         <v>0.13</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -2037,16 +2145,28 @@
       <c r="AY9" t="n">
         <v>0.16</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:55">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2192,16 +2312,28 @@
       <c r="AY10" t="n">
         <v>0.31</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2347,16 +2479,28 @@
       <c r="AY11" t="n">
         <v>0.1</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:55">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2502,16 +2646,28 @@
       <c r="AY12" t="n">
         <v>0.55</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2657,16 +2813,28 @@
       <c r="AY13" t="n">
         <v>0.04</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2812,16 +2980,28 @@
       <c r="AY14" t="n">
         <v>0.77</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -2967,16 +3147,28 @@
       <c r="AY15" t="n">
         <v>0.06</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -3122,16 +3314,28 @@
       <c r="AY16" t="n">
         <v>0.03</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3277,16 +3481,28 @@
       <c r="AY17" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:55">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3432,16 +3648,28 @@
       <c r="AY18" t="n">
         <v>0.65</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:55">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3587,16 +3815,28 @@
       <c r="AY19" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3742,16 +3982,28 @@
       <c r="AY20" t="n">
         <v>0.1</v>
       </c>
+      <c r="AZ20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -3897,16 +4149,28 @@
       <c r="AY21" t="n">
         <v>0.11</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:55">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -4052,16 +4316,28 @@
       <c r="AY22" t="n">
         <v>0.36</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -4207,16 +4483,28 @@
       <c r="AY23" t="n">
         <v>0.19</v>
       </c>
+      <c r="AZ23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4362,16 +4650,28 @@
       <c r="AY24" t="n">
         <v>0.37</v>
       </c>
+      <c r="AZ24" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -4517,16 +4817,28 @@
       <c r="AY25" t="n">
         <v>0.08</v>
       </c>
+      <c r="AZ25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -4672,16 +4984,28 @@
       <c r="AY26" t="n">
         <v>0.64</v>
       </c>
+      <c r="AZ26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:55">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -4827,16 +5151,28 @@
       <c r="AY27" t="n">
         <v>0.08</v>
       </c>
+      <c r="AZ27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -4982,16 +5318,28 @@
       <c r="AY28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -5137,16 +5485,28 @@
       <c r="AY29" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -5292,16 +5652,28 @@
       <c r="AY30" t="n">
         <v>0.66</v>
       </c>
+      <c r="AZ30" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -5447,16 +5819,28 @@
       <c r="AY31" t="n">
         <v>0.08</v>
       </c>
+      <c r="AZ31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:55">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -5602,16 +5986,28 @@
       <c r="AY32" t="n">
         <v>0.11</v>
       </c>
+      <c r="AZ32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:55">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -5757,16 +6153,28 @@
       <c r="AY33" t="n">
         <v>0.15</v>
       </c>
+      <c r="AZ33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:55">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -5912,16 +6320,28 @@
       <c r="AY34" t="n">
         <v>0.57</v>
       </c>
+      <c r="AZ34" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:55">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -6067,16 +6487,28 @@
       <c r="AY35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AZ35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:55">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6222,16 +6654,28 @@
       <c r="AY36" t="n">
         <v>0.18</v>
       </c>
+      <c r="AZ36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:55">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -6377,16 +6821,28 @@
       <c r="AY37" t="n">
         <v>0.16</v>
       </c>
+      <c r="AZ37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:55">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -6532,16 +6988,28 @@
       <c r="AY38" t="n">
         <v>0.47</v>
       </c>
+      <c r="AZ38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:55">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -6687,16 +7155,28 @@
       <c r="AY39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AZ39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:55">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -6842,16 +7322,28 @@
       <c r="AY40" t="n">
         <v>0.27</v>
       </c>
+      <c r="AZ40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:55">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -6997,16 +7489,28 @@
       <c r="AY41" t="n">
         <v>0.09</v>
       </c>
+      <c r="AZ41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:55">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -7152,16 +7656,28 @@
       <c r="AY42" t="n">
         <v>0.58</v>
       </c>
+      <c r="AZ42" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:55">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -7307,16 +7823,28 @@
       <c r="AY43" t="n">
         <v>0.06</v>
       </c>
+      <c r="AZ43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:55">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -7462,16 +7990,28 @@
       <c r="AY44" t="n">
         <v>0.25</v>
       </c>
+      <c r="AZ44" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:55">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -7617,16 +8157,28 @@
       <c r="AY45" t="n">
         <v>0.11</v>
       </c>
+      <c r="AZ45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:55">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -7772,16 +8324,28 @@
       <c r="AY46" t="n">
         <v>0.65</v>
       </c>
+      <c r="AZ46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:55">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -7927,16 +8491,28 @@
       <c r="AY47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AZ47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:55">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -8082,16 +8658,28 @@
       <c r="AY48" t="n">
         <v>0.12</v>
       </c>
+      <c r="AZ48" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:55">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -8237,16 +8825,28 @@
       <c r="AY49" t="n">
         <v>0.13</v>
       </c>
+      <c r="AZ49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:55">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -8392,16 +8992,28 @@
       <c r="AY50" t="n">
         <v>0.54</v>
       </c>
+      <c r="AZ50" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:55">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -8547,16 +9159,28 @@
       <c r="AY51" t="n">
         <v>0.12</v>
       </c>
+      <c r="AZ51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:55">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -8702,16 +9326,28 @@
       <c r="AY52" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ52" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:55">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -8857,16 +9493,28 @@
       <c r="AY53" t="n">
         <v>0.2</v>
       </c>
+      <c r="AZ53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:55">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -9012,16 +9660,28 @@
       <c r="AY54" t="n">
         <v>0.64</v>
       </c>
+      <c r="AZ54" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -9167,16 +9827,28 @@
       <c r="AY55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AZ55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:55">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -9322,16 +9994,28 @@
       <c r="AY56" t="n">
         <v>0.12</v>
       </c>
+      <c r="AZ56" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:55">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -9477,16 +10161,28 @@
       <c r="AY57" t="n">
         <v>0.17</v>
       </c>
+      <c r="AZ57" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:55">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -9632,16 +10328,28 @@
       <c r="AY58" t="n">
         <v>0.57</v>
       </c>
+      <c r="AZ58" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:55">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -9787,16 +10495,28 @@
       <c r="AY59" t="n">
         <v>0.12</v>
       </c>
+      <c r="AZ59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:55">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -9942,16 +10662,28 @@
       <c r="AY60" t="n">
         <v>0.2</v>
       </c>
+      <c r="AZ60" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:55">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -10097,16 +10829,28 @@
       <c r="AY61" t="n">
         <v>0.11</v>
       </c>
+      <c r="AZ61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:55">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -10252,16 +10996,28 @@
       <c r="AY62" t="n">
         <v>0.62</v>
       </c>
+      <c r="AZ62" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:55">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -10407,16 +11163,28 @@
       <c r="AY63" t="n">
         <v>0.09</v>
       </c>
+      <c r="AZ63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:55">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -10562,16 +11330,28 @@
       <c r="AY64" t="n">
         <v>0.15</v>
       </c>
+      <c r="AZ64" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:55">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -10717,16 +11497,28 @@
       <c r="AY65" t="n">
         <v>0.14</v>
       </c>
+      <c r="AZ65" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:55">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -10872,16 +11664,28 @@
       <c r="AY66" t="n">
         <v>0.71</v>
       </c>
+      <c r="AZ66" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:55">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -11027,16 +11831,28 @@
       <c r="AY67" t="n">
         <v>0.03</v>
       </c>
+      <c r="AZ67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:55">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -11182,16 +11998,28 @@
       <c r="AY68" t="n">
         <v>0.03</v>
       </c>
+      <c r="AZ68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:55">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -11337,16 +12165,28 @@
       <c r="AY69" t="n">
         <v>0.23</v>
       </c>
+      <c r="AZ69" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:55">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -11492,16 +12332,28 @@
       <c r="AY70" t="n">
         <v>0.64</v>
       </c>
+      <c r="AZ70" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:55">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -11647,16 +12499,28 @@
       <c r="AY71" t="n">
         <v>0.11</v>
       </c>
+      <c r="AZ71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:55">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -11802,16 +12666,28 @@
       <c r="AY72" t="n">
         <v>0.15</v>
       </c>
+      <c r="AZ72" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:55">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -11957,16 +12833,28 @@
       <c r="AY73" t="n">
         <v>0.1</v>
       </c>
+      <c r="AZ73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="1:55">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -12112,16 +13000,28 @@
       <c r="AY74" t="n">
         <v>0.42</v>
       </c>
+      <c r="AZ74" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:55">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -12267,16 +13167,28 @@
       <c r="AY75" t="n">
         <v>0.16</v>
       </c>
+      <c r="AZ75" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:55">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -12422,16 +13334,28 @@
       <c r="AY76" t="n">
         <v>0.35</v>
       </c>
+      <c r="AZ76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:55">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -12577,10 +13501,22 @@
       <c r="AY77" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AZ77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:55">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -12594,7 +13530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12602,7 +13538,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:54">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12753,13 +13689,25 @@
       <c r="AX1" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="AY1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -12905,13 +13853,25 @@
       <c r="AX2" t="n">
         <v>1142</v>
       </c>
+      <c r="AY2" t="n">
+        <v>1126</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1126</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1106</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -13057,13 +14017,25 @@
       <c r="AX3" t="n">
         <v>316</v>
       </c>
+      <c r="AY3" t="n">
+        <v>312</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>312</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>299</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>299</v>
+      </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -13209,13 +14181,25 @@
       <c r="AX4" t="n">
         <v>95</v>
       </c>
+      <c r="AY4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>99</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -13361,13 +14345,25 @@
       <c r="AX5" t="n">
         <v>304</v>
       </c>
+      <c r="AY5" t="n">
+        <v>310</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>310</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>297</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -13513,13 +14509,25 @@
       <c r="AX6" t="n">
         <v>168</v>
       </c>
+      <c r="AY6" t="n">
+        <v>156</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>156</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>160</v>
+      </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -13665,13 +14673,25 @@
       <c r="AX7" t="n">
         <v>98</v>
       </c>
+      <c r="AY7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>105</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>105</v>
+      </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -13817,13 +14837,25 @@
       <c r="AX8" t="n">
         <v>558</v>
       </c>
+      <c r="AY8" t="n">
+        <v>541</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>541</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>530</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>530</v>
+      </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -13969,13 +15001,25 @@
       <c r="AX9" t="n">
         <v>269</v>
       </c>
+      <c r="AY9" t="n">
+        <v>270</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>270</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>269</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>269</v>
+      </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -14121,13 +15165,25 @@
       <c r="AX10" t="n">
         <v>147</v>
       </c>
+      <c r="AY10" t="n">
+        <v>143</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>143</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>147</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>147</v>
+      </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -14273,13 +15329,25 @@
       <c r="AX11" t="n">
         <v>168</v>
       </c>
+      <c r="AY11" t="n">
+        <v>172</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>172</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>160</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>160</v>
+      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -14425,13 +15493,25 @@
       <c r="AX12" t="n">
         <v>267</v>
       </c>
+      <c r="AY12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>260</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>254</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>254</v>
+      </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -14577,13 +15657,25 @@
       <c r="AX13" t="n">
         <v>650</v>
       </c>
+      <c r="AY13" t="n">
+        <v>645</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>645</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>637</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>637</v>
+      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -14729,13 +15821,25 @@
       <c r="AX14" t="n">
         <v>225</v>
       </c>
+      <c r="AY14" t="n">
+        <v>221</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>221</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>215</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>215</v>
+      </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -14881,13 +15985,25 @@
       <c r="AX15" t="n">
         <v>432</v>
       </c>
+      <c r="AY15" t="n">
+        <v>391</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>391</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>349</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -15033,13 +16149,25 @@
       <c r="AX16" t="n">
         <v>371</v>
       </c>
+      <c r="AY16" t="n">
+        <v>353</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>353</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>292</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>292</v>
+      </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:54">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -15185,13 +16313,25 @@
       <c r="AX17" t="n">
         <v>339</v>
       </c>
+      <c r="AY17" t="n">
+        <v>382</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>382</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>465</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>465</v>
+      </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:54">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -15337,13 +16477,25 @@
       <c r="AX18" t="n">
         <v>410</v>
       </c>
+      <c r="AY18" t="n">
+        <v>418</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>418</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>397</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>397</v>
+      </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:54">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -15489,13 +16641,25 @@
       <c r="AX19" t="n">
         <v>456</v>
       </c>
+      <c r="AY19" t="n">
+        <v>439</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>439</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>439</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>439</v>
+      </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:54">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -15641,10 +16805,22 @@
       <c r="AX20" t="n">
         <v>276</v>
       </c>
+      <c r="AY20" t="n">
+        <v>269</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>269</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>270</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:54">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -15695,6 +16871,10 @@
       <c r="AV21" t="s"/>
       <c r="AW21" t="s"/>
       <c r="AX21" t="s"/>
+      <c r="AY21" t="s"/>
+      <c r="AZ21" t="s"/>
+      <c r="BA21" t="s"/>
+      <c r="BB21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>trideni</t>
   </si>
@@ -182,6 +182,12 @@
     <t>26. 4.–2. 5. 2021</t>
   </si>
   <si>
+    <t>10.–16. 5. 2021</t>
+  </si>
+  <si>
+    <t>17.–23. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -269,10 +275,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC78"/>
+  <dimension ref="A1:BE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,16 +827,22 @@
       <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -988,16 +1000,22 @@
       <c r="BC2" t="n">
         <v>0.7</v>
       </c>
+      <c r="BD2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1155,16 +1173,22 @@
       <c r="BC3" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1322,16 +1346,22 @@
       <c r="BC4" t="n">
         <v>0.13</v>
       </c>
+      <c r="BD4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1489,16 +1519,22 @@
       <c r="BC5" t="n">
         <v>0.09</v>
       </c>
+      <c r="BD5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1656,16 +1692,22 @@
       <c r="BC6" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BD6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1823,16 +1865,22 @@
       <c r="BC7" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -1990,16 +2038,22 @@
       <c r="BC8" t="n">
         <v>0.12</v>
       </c>
+      <c r="BD8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -2157,16 +2211,22 @@
       <c r="BC9" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2324,16 +2384,22 @@
       <c r="BC10" t="n">
         <v>0.36</v>
       </c>
+      <c r="BD10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2491,16 +2557,22 @@
       <c r="BC11" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:57">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2658,16 +2730,22 @@
       <c r="BC12" t="n">
         <v>0.48</v>
       </c>
+      <c r="BD12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2825,16 +2903,22 @@
       <c r="BC13" t="n">
         <v>0.05</v>
       </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -2992,16 +3076,22 @@
       <c r="BC14" t="n">
         <v>0.8</v>
       </c>
+      <c r="BD14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -3159,16 +3249,22 @@
       <c r="BC15" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:57">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -3326,16 +3422,22 @@
       <c r="BC16" t="n">
         <v>0.03</v>
       </c>
+      <c r="BD16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:57">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3493,16 +3595,22 @@
       <c r="BC17" t="n">
         <v>0.1</v>
       </c>
+      <c r="BD17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:57">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3655,21 +3763,27 @@
         <v>0.7</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:57">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3827,16 +3941,22 @@
       <c r="BC19" t="n">
         <v>0.06</v>
       </c>
+      <c r="BD19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:57">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -3994,16 +4114,22 @@
       <c r="BC20" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:57">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -4156,21 +4282,27 @@
         <v>0.09</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:57">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -4328,16 +4460,22 @@
       <c r="BC22" t="n">
         <v>0.64</v>
       </c>
+      <c r="BD22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:57">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -4495,16 +4633,22 @@
       <c r="BC23" t="n">
         <v>0.17</v>
       </c>
+      <c r="BD23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:57">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4662,16 +4806,22 @@
       <c r="BC24" t="n">
         <v>0.16</v>
       </c>
+      <c r="BD24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:57">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -4829,16 +4979,22 @@
       <c r="BC25" t="n">
         <v>0.03</v>
       </c>
+      <c r="BD25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:57">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -4996,16 +5152,22 @@
       <c r="BC26" t="n">
         <v>0.75</v>
       </c>
+      <c r="BD26" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:57">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -5163,16 +5325,22 @@
       <c r="BC27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:57">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -5330,16 +5498,22 @@
       <c r="BC28" t="n">
         <v>0.12</v>
       </c>
+      <c r="BD28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:57">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -5497,16 +5671,22 @@
       <c r="BC29" t="n">
         <v>0.06</v>
       </c>
+      <c r="BD29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:57">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -5664,16 +5844,22 @@
       <c r="BC30" t="n">
         <v>0.76</v>
       </c>
+      <c r="BD30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:57">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -5831,16 +6017,22 @@
       <c r="BC31" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:57">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -5998,16 +6190,22 @@
       <c r="BC32" t="n">
         <v>0.06</v>
       </c>
+      <c r="BD32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:57">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -6165,16 +6363,22 @@
       <c r="BC33" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:57">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -6332,16 +6536,22 @@
       <c r="BC34" t="n">
         <v>0.63</v>
       </c>
+      <c r="BD34" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:57">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -6499,16 +6709,22 @@
       <c r="BC35" t="n">
         <v>0.06</v>
       </c>
+      <c r="BD35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:57">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6666,16 +6882,22 @@
       <c r="BC36" t="n">
         <v>0.19</v>
       </c>
+      <c r="BD36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:57">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -6833,16 +7055,22 @@
       <c r="BC37" t="n">
         <v>0.12</v>
       </c>
+      <c r="BD37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:57">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -7000,16 +7228,22 @@
       <c r="BC38" t="n">
         <v>0.52</v>
       </c>
+      <c r="BD38" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:57">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -7167,16 +7401,22 @@
       <c r="BC39" t="n">
         <v>0.18</v>
       </c>
+      <c r="BD39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:57">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -7334,16 +7574,22 @@
       <c r="BC40" t="n">
         <v>0.24</v>
       </c>
+      <c r="BD40" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:57">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -7501,16 +7747,22 @@
       <c r="BC41" t="n">
         <v>0.06</v>
       </c>
+      <c r="BD41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="1:57">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -7668,16 +7920,22 @@
       <c r="BC42" t="n">
         <v>0.66</v>
       </c>
+      <c r="BD42" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="1:57">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -7835,16 +8093,22 @@
       <c r="BC43" t="n">
         <v>0.12</v>
       </c>
+      <c r="BD43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="1:57">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -8002,16 +8266,22 @@
       <c r="BC44" t="n">
         <v>0.18</v>
       </c>
+      <c r="BD44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="1:57">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -8169,16 +8439,22 @@
       <c r="BC45" t="n">
         <v>0.04</v>
       </c>
+      <c r="BD45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="1:57">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -8336,16 +8612,22 @@
       <c r="BC46" t="n">
         <v>0.75</v>
       </c>
+      <c r="BD46" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="1:57">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -8503,16 +8785,22 @@
       <c r="BC47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="1:57">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -8670,16 +8958,22 @@
       <c r="BC48" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD48" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="1:57">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -8837,16 +9131,22 @@
       <c r="BC49" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="1:57">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -9004,16 +9304,22 @@
       <c r="BC50" t="n">
         <v>0.61</v>
       </c>
+      <c r="BD50" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51" spans="1:57">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -9171,16 +9477,22 @@
       <c r="BC51" t="n">
         <v>0.09</v>
       </c>
+      <c r="BD51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52" spans="1:57">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -9338,16 +9650,22 @@
       <c r="BC52" t="n">
         <v>0.11</v>
       </c>
+      <c r="BD52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53" spans="1:57">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -9505,16 +9823,22 @@
       <c r="BC53" t="n">
         <v>0.19</v>
       </c>
+      <c r="BD53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54" spans="1:57">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -9672,16 +9996,22 @@
       <c r="BC54" t="n">
         <v>0.74</v>
       </c>
+      <c r="BD54" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="55" spans="1:55">
+    <row r="55" spans="1:57">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -9839,16 +10169,22 @@
       <c r="BC55" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="56" spans="1:55">
+    <row r="56" spans="1:57">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -10006,16 +10342,22 @@
       <c r="BC56" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="57" spans="1:55">
+    <row r="57" spans="1:57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -10173,16 +10515,22 @@
       <c r="BC57" t="n">
         <v>0.1</v>
       </c>
+      <c r="BD57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="1:57">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -10340,16 +10688,22 @@
       <c r="BC58" t="n">
         <v>0.64</v>
       </c>
+      <c r="BD58" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="59" spans="1:55">
+    <row r="59" spans="1:57">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -10507,16 +10861,22 @@
       <c r="BC59" t="n">
         <v>0.1</v>
       </c>
+      <c r="BD59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="60" spans="1:55">
+    <row r="60" spans="1:57">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -10674,16 +11034,22 @@
       <c r="BC60" t="n">
         <v>0.17</v>
       </c>
+      <c r="BD60" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="61" spans="1:55">
+    <row r="61" spans="1:57">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -10841,16 +11207,22 @@
       <c r="BC61" t="n">
         <v>0.09</v>
       </c>
+      <c r="BD61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="62" spans="1:55">
+    <row r="62" spans="1:57">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -11003,21 +11375,27 @@
         <v>0.65</v>
       </c>
       <c r="BB62" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="BC62" t="n">
         <v>0.71</v>
       </c>
+      <c r="BD62" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="63" spans="1:55">
+    <row r="63" spans="1:57">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -11175,16 +11553,22 @@
       <c r="BC63" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BD63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="64" spans="1:55">
+    <row r="64" spans="1:57">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -11342,16 +11726,22 @@
       <c r="BC64" t="n">
         <v>0.14</v>
       </c>
+      <c r="BD64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="65" spans="1:55">
+    <row r="65" spans="1:57">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -11504,21 +11894,27 @@
         <v>0.13</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="BC65" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="66" spans="1:55">
+    <row r="66" spans="1:57">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -11676,16 +12072,22 @@
       <c r="BC66" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BD66" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="67" spans="1:55">
+    <row r="67" spans="1:57">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -11843,16 +12245,22 @@
       <c r="BC67" t="n">
         <v>0.03</v>
       </c>
+      <c r="BD67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="68" spans="1:55">
+    <row r="68" spans="1:57">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -12010,16 +12418,22 @@
       <c r="BC68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BD68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:55">
+    <row r="69" spans="1:57">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -12177,16 +12591,22 @@
       <c r="BC69" t="n">
         <v>0.13</v>
       </c>
+      <c r="BD69" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="70" spans="1:55">
+    <row r="70" spans="1:57">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -12344,16 +12764,22 @@
       <c r="BC70" t="n">
         <v>0.71</v>
       </c>
+      <c r="BD70" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="71" spans="1:55">
+    <row r="71" spans="1:57">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -12506,21 +12932,27 @@
         <v>0.09</v>
       </c>
       <c r="BB71" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="BC71" t="n">
         <v>0.09</v>
       </c>
+      <c r="BD71" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="72" spans="1:55">
+    <row r="72" spans="1:57">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -12678,16 +13110,22 @@
       <c r="BC72" t="n">
         <v>0.12</v>
       </c>
+      <c r="BD72" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="73" spans="1:55">
+    <row r="73" spans="1:57">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -12840,21 +13278,27 @@
         <v>0.1</v>
       </c>
       <c r="BB73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="BC73" t="n">
         <v>0.08</v>
       </c>
+      <c r="BD73" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="74" spans="1:55">
+    <row r="74" spans="1:57">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -13012,16 +13456,22 @@
       <c r="BC74" t="n">
         <v>0.53</v>
       </c>
+      <c r="BD74" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="75" spans="1:55">
+    <row r="75" spans="1:57">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -13179,16 +13629,22 @@
       <c r="BC75" t="n">
         <v>0.15</v>
       </c>
+      <c r="BD75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="76" spans="1:55">
+    <row r="76" spans="1:57">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -13346,16 +13802,22 @@
       <c r="BC76" t="n">
         <v>0.29</v>
       </c>
+      <c r="BD76" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="77" spans="1:55">
+    <row r="77" spans="1:57">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -13513,10 +13975,16 @@
       <c r="BC77" t="n">
         <v>0.03</v>
       </c>
+      <c r="BD77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="78" spans="1:55">
+    <row r="78" spans="1:57">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13530,7 +13998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB21"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13538,7 +14006,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:56">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13701,13 +14169,19 @@
       <c r="BB1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="BC1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -13860,18 +14334,24 @@
         <v>1126</v>
       </c>
       <c r="BA2" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="BB2" t="n">
-        <v>1106</v>
+        <v>1105</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1078</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1078</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -14029,13 +14509,19 @@
       <c r="BB3" t="n">
         <v>299</v>
       </c>
+      <c r="BC3" t="n">
+        <v>299</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>299</v>
+      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -14193,13 +14679,19 @@
       <c r="BB4" t="n">
         <v>99</v>
       </c>
+      <c r="BC4" t="n">
+        <v>96</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -14352,18 +14844,24 @@
         <v>310</v>
       </c>
       <c r="BA5" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BB5" t="n">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>289</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -14516,18 +15014,24 @@
         <v>156</v>
       </c>
       <c r="BA6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BB6" t="n">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>158</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -14680,18 +15184,24 @@
         <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB7" t="n">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>89</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -14844,18 +15354,24 @@
         <v>541</v>
       </c>
       <c r="BA8" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BB8" t="n">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>519</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:56">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -15008,18 +15524,24 @@
         <v>270</v>
       </c>
       <c r="BA9" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BB9" t="n">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>266</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -15177,13 +15699,19 @@
       <c r="BB10" t="n">
         <v>147</v>
       </c>
+      <c r="BC10" t="n">
+        <v>136</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>136</v>
+      </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:56">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -15341,13 +15869,19 @@
       <c r="BB11" t="n">
         <v>160</v>
       </c>
+      <c r="BC11" t="n">
+        <v>157</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>157</v>
+      </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:56">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -15505,13 +16039,19 @@
       <c r="BB12" t="n">
         <v>254</v>
       </c>
+      <c r="BC12" t="n">
+        <v>248</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>248</v>
+      </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:56">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -15664,18 +16204,24 @@
         <v>645</v>
       </c>
       <c r="BA13" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BB13" t="n">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>622</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:56">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -15833,13 +16379,19 @@
       <c r="BB14" t="n">
         <v>215</v>
       </c>
+      <c r="BC14" t="n">
+        <v>208</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:56">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -15992,18 +16544,24 @@
         <v>391</v>
       </c>
       <c r="BA15" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BB15" t="n">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>294</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:56">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -16161,13 +16719,19 @@
       <c r="BB16" t="n">
         <v>292</v>
       </c>
+      <c r="BC16" t="n">
+        <v>275</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>275</v>
+      </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:56">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -16320,18 +16884,24 @@
         <v>382</v>
       </c>
       <c r="BA17" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BB17" t="n">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>509</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:56">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -16489,13 +17059,19 @@
       <c r="BB18" t="n">
         <v>397</v>
       </c>
+      <c r="BC18" t="n">
+        <v>395</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>395</v>
+      </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:56">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -16648,18 +17224,24 @@
         <v>439</v>
       </c>
       <c r="BA19" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="BB19" t="n">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>426</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:56">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -16812,15 +17394,21 @@
         <v>269</v>
       </c>
       <c r="BA20" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BB20" t="n">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>257</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:56">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -16875,6 +17463,8 @@
       <c r="AZ21" t="s"/>
       <c r="BA21" t="s"/>
       <c r="BB21" t="s"/>
+      <c r="BC21" t="s"/>
+      <c r="BD21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>trideni</t>
   </si>
@@ -188,6 +188,12 @@
     <t>17.–23. 5. 2021</t>
   </si>
   <si>
+    <t>7.–13. 6. 2021</t>
+  </si>
+  <si>
+    <t>14.–20. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -275,10 +281,10 @@
     <t>VŠ</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE78"/>
+  <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +667,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,16 +839,22 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -1006,16 +1018,22 @@
       <c r="BE2" t="n">
         <v>0.74</v>
       </c>
+      <c r="BF2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1179,16 +1197,22 @@
       <c r="BE3" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1352,16 +1376,22 @@
       <c r="BE4" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1525,16 +1555,22 @@
       <c r="BE5" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1698,16 +1734,22 @@
       <c r="BE6" t="n">
         <v>0.72</v>
       </c>
+      <c r="BF6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1871,16 +1913,22 @@
       <c r="BE7" t="n">
         <v>0.05</v>
       </c>
+      <c r="BF7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -2044,16 +2092,22 @@
       <c r="BE8" t="n">
         <v>0.11</v>
       </c>
+      <c r="BF8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -2217,16 +2271,22 @@
       <c r="BE9" t="n">
         <v>0.12</v>
       </c>
+      <c r="BF9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2390,16 +2450,22 @@
       <c r="BE10" t="n">
         <v>0.49</v>
       </c>
+      <c r="BF10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2563,16 +2629,22 @@
       <c r="BE11" t="n">
         <v>0.11</v>
       </c>
+      <c r="BF11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:59">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2736,16 +2808,22 @@
       <c r="BE12" t="n">
         <v>0.4</v>
       </c>
+      <c r="BF12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2909,16 +2987,22 @@
       <c r="BE13" t="n">
         <v>0</v>
       </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -3082,16 +3166,22 @@
       <c r="BE14" t="n">
         <v>0.82</v>
       </c>
+      <c r="BF14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:59">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -3255,16 +3345,22 @@
       <c r="BE15" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -3428,16 +3524,22 @@
       <c r="BE16" t="n">
         <v>0.03</v>
       </c>
+      <c r="BF16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:59">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3601,16 +3703,22 @@
       <c r="BE17" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:59">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3774,16 +3882,22 @@
       <c r="BE18" t="n">
         <v>0.78</v>
       </c>
+      <c r="BF18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:59">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -3947,16 +4061,22 @@
       <c r="BE19" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:59">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -4120,16 +4240,22 @@
       <c r="BE20" t="n">
         <v>0.05</v>
       </c>
+      <c r="BF20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:59">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -4293,16 +4419,22 @@
       <c r="BE21" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:59">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -4466,16 +4598,22 @@
       <c r="BE22" t="n">
         <v>0.68</v>
       </c>
+      <c r="BF22" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:59">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -4639,16 +4777,22 @@
       <c r="BE23" t="n">
         <v>0.16</v>
       </c>
+      <c r="BF23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:59">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4812,16 +4956,22 @@
       <c r="BE24" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:59">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -4985,16 +5135,22 @@
       <c r="BE25" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:57">
+    <row r="26" spans="1:59">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -5158,16 +5314,22 @@
       <c r="BE26" t="n">
         <v>0.8</v>
       </c>
+      <c r="BF26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -5331,16 +5493,22 @@
       <c r="BE27" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:59">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -5504,16 +5672,22 @@
       <c r="BE28" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="29" spans="1:57">
+    <row r="29" spans="1:59">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -5677,16 +5851,22 @@
       <c r="BE29" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:59">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -5850,16 +6030,22 @@
       <c r="BE30" t="n">
         <v>0.77</v>
       </c>
+      <c r="BF30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:59">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -6023,16 +6209,22 @@
       <c r="BE31" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="32" spans="1:57">
+    <row r="32" spans="1:59">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -6196,16 +6388,22 @@
       <c r="BE32" t="n">
         <v>0.08</v>
       </c>
+      <c r="BF32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:59">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -6369,16 +6567,22 @@
       <c r="BE33" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:59">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -6542,16 +6746,22 @@
       <c r="BE34" t="n">
         <v>0.66</v>
       </c>
+      <c r="BF34" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:59">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -6715,16 +6925,22 @@
       <c r="BE35" t="n">
         <v>0.08</v>
       </c>
+      <c r="BF35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="36" spans="1:57">
+    <row r="36" spans="1:59">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6888,16 +7104,22 @@
       <c r="BE36" t="n">
         <v>0.16</v>
       </c>
+      <c r="BF36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:59">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -7061,16 +7283,22 @@
       <c r="BE37" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:59">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -7234,16 +7462,22 @@
       <c r="BE38" t="n">
         <v>0.54</v>
       </c>
+      <c r="BF38" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:59">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -7407,16 +7641,22 @@
       <c r="BE39" t="n">
         <v>0.15</v>
       </c>
+      <c r="BF39" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:59">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -7580,16 +7820,22 @@
       <c r="BE40" t="n">
         <v>0.21</v>
       </c>
+      <c r="BF40" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:59">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -7753,16 +7999,22 @@
       <c r="BE41" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="42" spans="1:57">
+    <row r="42" spans="1:59">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -7926,16 +8178,22 @@
       <c r="BE42" t="n">
         <v>0.7</v>
       </c>
+      <c r="BF42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="43" spans="1:57">
+    <row r="43" spans="1:59">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -8099,16 +8357,22 @@
       <c r="BE43" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF43" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:59">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -8272,16 +8536,22 @@
       <c r="BE44" t="n">
         <v>0.17</v>
       </c>
+      <c r="BF44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="45" spans="1:57">
+    <row r="45" spans="1:59">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -8445,16 +8715,22 @@
       <c r="BE45" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="46" spans="1:57">
+    <row r="46" spans="1:59">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -8618,16 +8894,22 @@
       <c r="BE46" t="n">
         <v>0.77</v>
       </c>
+      <c r="BF46" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="47" spans="1:57">
+    <row r="47" spans="1:59">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -8791,16 +9073,22 @@
       <c r="BE47" t="n">
         <v>0.08</v>
       </c>
+      <c r="BF47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="48" spans="1:57">
+    <row r="48" spans="1:59">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -8964,16 +9252,22 @@
       <c r="BE48" t="n">
         <v>0.08</v>
       </c>
+      <c r="BF48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:57">
+    <row r="49" spans="1:59">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -9137,16 +9431,22 @@
       <c r="BE49" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="50" spans="1:57">
+    <row r="50" spans="1:59">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -9310,16 +9610,22 @@
       <c r="BE50" t="n">
         <v>0.67</v>
       </c>
+      <c r="BF50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="51" spans="1:57">
+    <row r="51" spans="1:59">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -9483,16 +9789,22 @@
       <c r="BE51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="52" spans="1:57">
+    <row r="52" spans="1:59">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -9656,16 +9968,22 @@
       <c r="BE52" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:57">
+    <row r="53" spans="1:59">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -9829,16 +10147,22 @@
       <c r="BE53" t="n">
         <v>0.17</v>
       </c>
+      <c r="BF53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="54" spans="1:57">
+    <row r="54" spans="1:59">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -10002,16 +10326,22 @@
       <c r="BE54" t="n">
         <v>0.74</v>
       </c>
+      <c r="BF54" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="55" spans="1:57">
+    <row r="55" spans="1:59">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -10175,16 +10505,22 @@
       <c r="BE55" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="56" spans="1:57">
+    <row r="56" spans="1:59">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -10348,16 +10684,22 @@
       <c r="BE56" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BF56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="57" spans="1:57">
+    <row r="57" spans="1:59">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -10521,16 +10863,22 @@
       <c r="BE57" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="58" spans="1:57">
+    <row r="58" spans="1:59">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -10694,16 +11042,22 @@
       <c r="BE58" t="n">
         <v>0.72</v>
       </c>
+      <c r="BF58" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="59" spans="1:57">
+    <row r="59" spans="1:59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -10867,16 +11221,22 @@
       <c r="BE59" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="60" spans="1:57">
+    <row r="60" spans="1:59">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -11040,16 +11400,22 @@
       <c r="BE60" t="n">
         <v>0.13</v>
       </c>
+      <c r="BF60" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="61" spans="1:57">
+    <row r="61" spans="1:59">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -11213,16 +11579,22 @@
       <c r="BE61" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF61" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="62" spans="1:57">
+    <row r="62" spans="1:59">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -11386,16 +11758,22 @@
       <c r="BE62" t="n">
         <v>0.74</v>
       </c>
+      <c r="BF62" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="63" spans="1:57">
+    <row r="63" spans="1:59">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -11559,16 +11937,22 @@
       <c r="BE63" t="n">
         <v>0.06</v>
       </c>
+      <c r="BF63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="64" spans="1:57">
+    <row r="64" spans="1:59">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -11732,16 +12116,22 @@
       <c r="BE64" t="n">
         <v>0.11</v>
       </c>
+      <c r="BF64" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="65" spans="1:57">
+    <row r="65" spans="1:59">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -11905,16 +12295,22 @@
       <c r="BE65" t="n">
         <v>0.09</v>
       </c>
+      <c r="BF65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="66" spans="1:57">
+    <row r="66" spans="1:59">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -12078,16 +12474,22 @@
       <c r="BE66" t="n">
         <v>0.8</v>
       </c>
+      <c r="BF66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="67" spans="1:57">
+    <row r="67" spans="1:59">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -12251,16 +12653,22 @@
       <c r="BE67" t="n">
         <v>0.03</v>
       </c>
+      <c r="BF67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="68" spans="1:57">
+    <row r="68" spans="1:59">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -12424,16 +12832,22 @@
       <c r="BE68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BF68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="69" spans="1:57">
+    <row r="69" spans="1:59">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -12597,16 +13011,22 @@
       <c r="BE69" t="n">
         <v>0.14</v>
       </c>
+      <c r="BF69" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="70" spans="1:57">
+    <row r="70" spans="1:59">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -12770,16 +13190,22 @@
       <c r="BE70" t="n">
         <v>0.72</v>
       </c>
+      <c r="BF70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="71" spans="1:57">
+    <row r="71" spans="1:59">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -12943,16 +13369,22 @@
       <c r="BE71" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="72" spans="1:57">
+    <row r="72" spans="1:59">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -13116,16 +13548,22 @@
       <c r="BE72" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="73" spans="1:57">
+    <row r="73" spans="1:59">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -13289,16 +13727,22 @@
       <c r="BE73" t="n">
         <v>0.08</v>
       </c>
+      <c r="BF73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="74" spans="1:57">
+    <row r="74" spans="1:59">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -13462,16 +13906,22 @@
       <c r="BE74" t="n">
         <v>0.65</v>
       </c>
+      <c r="BF74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="75" spans="1:57">
+    <row r="75" spans="1:59">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -13635,16 +14085,22 @@
       <c r="BE75" t="n">
         <v>0.1</v>
       </c>
+      <c r="BF75" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="76" spans="1:57">
+    <row r="76" spans="1:59">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -13808,16 +14264,22 @@
       <c r="BE76" t="n">
         <v>0.22</v>
       </c>
+      <c r="BF76" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="77" spans="1:57">
+    <row r="77" spans="1:59">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -13981,10 +14443,16 @@
       <c r="BE77" t="n">
         <v>0.03</v>
       </c>
+      <c r="BF77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="78" spans="1:57">
+    <row r="78" spans="1:59">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -13998,7 +14466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14006,7 +14474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14175,13 +14643,19 @@
       <c r="BD1" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BE1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -14345,13 +14819,19 @@
       <c r="BD2" t="n">
         <v>1078</v>
       </c>
+      <c r="BE2" t="n">
+        <v>1059</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -14515,13 +14995,19 @@
       <c r="BD3" t="n">
         <v>299</v>
       </c>
+      <c r="BE3" t="n">
+        <v>302</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>302</v>
+      </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:58">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -14685,13 +15171,19 @@
       <c r="BD4" t="n">
         <v>96</v>
       </c>
+      <c r="BE4" t="n">
+        <v>99</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -14855,13 +15347,19 @@
       <c r="BD5" t="n">
         <v>289</v>
       </c>
+      <c r="BE5" t="n">
+        <v>268</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>268</v>
+      </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -15025,13 +15523,19 @@
       <c r="BD6" t="n">
         <v>158</v>
       </c>
+      <c r="BE6" t="n">
+        <v>144</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:58">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -15195,13 +15699,19 @@
       <c r="BD7" t="n">
         <v>89</v>
       </c>
+      <c r="BE7" t="n">
+        <v>95</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>95</v>
+      </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:58">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -15365,13 +15875,19 @@
       <c r="BD8" t="n">
         <v>519</v>
       </c>
+      <c r="BE8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>501</v>
+      </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:58">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -15535,13 +16051,19 @@
       <c r="BD9" t="n">
         <v>266</v>
       </c>
+      <c r="BE9" t="n">
+        <v>267</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:58">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -15705,13 +16227,19 @@
       <c r="BD10" t="n">
         <v>136</v>
       </c>
+      <c r="BE10" t="n">
+        <v>135</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:58">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -15875,13 +16403,19 @@
       <c r="BD11" t="n">
         <v>157</v>
       </c>
+      <c r="BE11" t="n">
+        <v>156</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>156</v>
+      </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:58">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -16045,13 +16579,19 @@
       <c r="BD12" t="n">
         <v>248</v>
       </c>
+      <c r="BE12" t="n">
+        <v>256</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>256</v>
+      </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:58">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -16215,13 +16755,19 @@
       <c r="BD13" t="n">
         <v>622</v>
       </c>
+      <c r="BE13" t="n">
+        <v>600</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>600</v>
+      </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:58">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -16385,13 +16931,19 @@
       <c r="BD14" t="n">
         <v>208</v>
       </c>
+      <c r="BE14" t="n">
+        <v>203</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>203</v>
+      </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:58">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -16555,13 +17107,19 @@
       <c r="BD15" t="n">
         <v>294</v>
       </c>
+      <c r="BE15" t="n">
+        <v>269</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>269</v>
+      </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:58">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -16725,13 +17283,19 @@
       <c r="BD16" t="n">
         <v>275</v>
       </c>
+      <c r="BE16" t="n">
+        <v>214</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>214</v>
+      </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:58">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -16895,13 +17459,19 @@
       <c r="BD17" t="n">
         <v>509</v>
       </c>
+      <c r="BE17" t="n">
+        <v>576</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>576</v>
+      </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:58">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -17065,13 +17635,19 @@
       <c r="BD18" t="n">
         <v>395</v>
       </c>
+      <c r="BE18" t="n">
+        <v>385</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>385</v>
+      </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:58">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -17235,13 +17811,19 @@
       <c r="BD19" t="n">
         <v>426</v>
       </c>
+      <c r="BE19" t="n">
+        <v>422</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>422</v>
+      </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:58">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -17405,10 +17987,16 @@
       <c r="BD20" t="n">
         <v>257</v>
       </c>
+      <c r="BE20" t="n">
+        <v>252</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>252</v>
+      </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:58">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -17465,6 +18053,8 @@
       <c r="BB21" t="s"/>
       <c r="BC21" t="s"/>
       <c r="BD21" t="s"/>
+      <c r="BE21" t="s"/>
+      <c r="BF21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,281 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>16.–22. 3. 2020</t>
-  </si>
-  <si>
-    <t>23.–29. 3. 2020</t>
-  </si>
-  <si>
-    <t>30. 3.–5. 4. 2020</t>
-  </si>
-  <si>
-    <t>6.–12. 4. 2020</t>
-  </si>
-  <si>
-    <t>13.–19. 4. 2020</t>
-  </si>
-  <si>
-    <t>20.–26. 4. 2020</t>
-  </si>
-  <si>
-    <t>27. 4.–3. 5. 2020</t>
-  </si>
-  <si>
-    <t>4.–10. 5. 2020</t>
-  </si>
-  <si>
-    <t>11.–17. 5. 2020</t>
-  </si>
-  <si>
-    <t>18.–24. 5. 2020</t>
-  </si>
-  <si>
-    <t>25.–31. 5. 2020</t>
-  </si>
-  <si>
-    <t>1.–7. 6. 2020</t>
-  </si>
-  <si>
-    <t>15.–21. 6. 2020</t>
-  </si>
-  <si>
-    <t>22.–28. 6. 2020</t>
-  </si>
-  <si>
-    <t>6.–12. 7. 2020</t>
-  </si>
-  <si>
-    <t>13.–19. 7. 2020</t>
-  </si>
-  <si>
-    <t>27. 7.–2. 8. 2020</t>
-  </si>
-  <si>
-    <t>3.–9. 8. 2020</t>
-  </si>
-  <si>
-    <t>17.–23. 8. 2020</t>
-  </si>
-  <si>
-    <t>24.–30. 8. 2020</t>
-  </si>
-  <si>
-    <t>31. 8.–6. 9. 2020</t>
-  </si>
-  <si>
-    <t>7.–13. 9. 2020</t>
-  </si>
-  <si>
-    <t>14.–20. 9. 2020</t>
-  </si>
-  <si>
-    <t>21.–27. 9. 2020</t>
-  </si>
-  <si>
-    <t>28. 9.–4. 10. 2020</t>
-  </si>
-  <si>
-    <t>5.–11. 10. 2020</t>
-  </si>
-  <si>
-    <t>12.–18. 10. 2020</t>
-  </si>
-  <si>
-    <t>19.–25. 10. 2020</t>
-  </si>
-  <si>
-    <t>26. 10.–1. 11. 2020</t>
-  </si>
-  <si>
-    <t>2.–8. 11. 2020</t>
-  </si>
-  <si>
-    <t>9.–15. 11. 2020</t>
-  </si>
-  <si>
-    <t>16.–22. 11. 2020</t>
-  </si>
-  <si>
-    <t>23.–29. 11. 2020</t>
-  </si>
-  <si>
-    <t>30. 11.–6. 12. 2020</t>
-  </si>
-  <si>
-    <t>7.–13. 12. 2020</t>
-  </si>
-  <si>
-    <t>14.–20. 12. 2020</t>
-  </si>
-  <si>
-    <t>21.–27. 12. 2020</t>
-  </si>
-  <si>
-    <t>28. 12.–3. 1. 2021</t>
-  </si>
-  <si>
-    <t>11.–17. 1. 2021</t>
-  </si>
-  <si>
-    <t>18.–24. 1. 2021</t>
-  </si>
-  <si>
-    <t>1.–7. 2. 2021</t>
-  </si>
-  <si>
-    <t>8.–14. 2. 2021</t>
-  </si>
-  <si>
-    <t>15.–21. 2. 2021</t>
-  </si>
-  <si>
-    <t>22.–28. 2. 2021</t>
-  </si>
-  <si>
-    <t>1.–7. 3. 2021</t>
-  </si>
-  <si>
-    <t>8.–14. 3. 2021</t>
-  </si>
-  <si>
-    <t>15.–21. 3. 2021</t>
-  </si>
-  <si>
-    <t>22.–28. 3. 2021</t>
-  </si>
-  <si>
-    <t>29. 3.–4. 4. 2021</t>
-  </si>
-  <si>
-    <t>5.–11. 4. 2021</t>
-  </si>
-  <si>
-    <t>19.–25. 4. 2021</t>
-  </si>
-  <si>
-    <t>26. 4.–2. 5. 2021</t>
-  </si>
-  <si>
-    <t>10.–16. 5. 2021</t>
-  </si>
-  <si>
-    <t>17.–23. 5. 2021</t>
-  </si>
-  <si>
-    <t>7.–13. 6. 2021</t>
-  </si>
-  <si>
-    <t>14.–20. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Plná osobní přítomnost v práci</t>
-  </si>
-  <si>
-    <t>Půl napůl osobní přítomnost a home office</t>
-  </si>
-  <si>
-    <t>Plný home office</t>
-  </si>
-  <si>
-    <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
-  </si>
-  <si>
-    <t>Obor práce</t>
-  </si>
-  <si>
-    <t>Obchod a služby</t>
-  </si>
-  <si>
-    <t>IT a finance</t>
-  </si>
-  <si>
-    <t>Průmysl a zemědělství</t>
-  </si>
-  <si>
-    <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
-  </si>
-  <si>
-    <t>Školství a kultura</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -659,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG78"/>
+  <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,194 +459,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>23.–29. 3. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3.–5. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>6.–12. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 4. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 4. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>27. 4.–3. 5. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>4.–10. 5. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 5. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>18.–24. 5. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>25.–31. 5. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 6. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 6. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 6. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>6.–12. 7. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 7. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>27. 7.–2. 8. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>3.–9. 8. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 8. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>24.–30. 8. 2020</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>31. 8.–6. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>21.–27. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9.–4. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>12.–18. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>19.–25. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>26. 10.–1. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2.–8. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>9.–15. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>23.–29. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11.–6. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>21.–27. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12.–3. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>18.–24. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>8.–14. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>8.–14. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>29. 3.–4. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>19.–25. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>26. 4.–2. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>10.–16. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 7. 2021</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>12.–18. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.51</v>
@@ -1024,16 +950,28 @@
       <c r="BG2" t="n">
         <v>0.76</v>
       </c>
+      <c r="BH2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
@@ -1203,16 +1141,28 @@
       <c r="BG3" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1382,16 +1332,28 @@
       <c r="BG4" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.18</v>
@@ -1561,16 +1523,28 @@
       <c r="BG5" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -1740,16 +1714,28 @@
       <c r="BG6" t="n">
         <v>0.76</v>
       </c>
+      <c r="BH6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.08</v>
@@ -1919,16 +1905,28 @@
       <c r="BG7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.22</v>
@@ -2098,16 +2096,28 @@
       <c r="BG8" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -2277,16 +2287,28 @@
       <c r="BG9" t="n">
         <v>0.09</v>
       </c>
+      <c r="BH9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.31</v>
@@ -2456,16 +2478,28 @@
       <c r="BG10" t="n">
         <v>0.47</v>
       </c>
+      <c r="BH10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.11</v>
@@ -2635,16 +2669,28 @@
       <c r="BG11" t="n">
         <v>0.17</v>
       </c>
+      <c r="BH11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="12" spans="1:59">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -2814,16 +2860,28 @@
       <c r="BG12" t="n">
         <v>0.34</v>
       </c>
+      <c r="BH12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="13" spans="1:59">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.11</v>
@@ -2993,16 +3051,28 @@
       <c r="BG13" t="n">
         <v>0.02</v>
       </c>
+      <c r="BH13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="14" spans="1:59">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.68</v>
@@ -3172,16 +3242,28 @@
       <c r="BG14" t="n">
         <v>0.84</v>
       </c>
+      <c r="BH14" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="15" spans="1:59">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
@@ -3351,16 +3433,28 @@
       <c r="BG15" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="16" spans="1:59">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
@@ -3530,16 +3624,28 @@
       <c r="BG16" t="n">
         <v>0.04</v>
       </c>
+      <c r="BH16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="17" spans="1:59">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -3709,16 +3815,28 @@
       <c r="BG17" t="n">
         <v>0.04</v>
       </c>
+      <c r="BH17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="18" spans="1:59">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.5600000000000001</v>
@@ -3888,16 +4006,28 @@
       <c r="BG18" t="n">
         <v>0.86</v>
       </c>
+      <c r="BH18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="19" spans="1:59">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.17</v>
@@ -4067,16 +4197,28 @@
       <c r="BG19" t="n">
         <v>0.05</v>
       </c>
+      <c r="BH19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="20" spans="1:59">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.1</v>
@@ -4246,16 +4388,28 @@
       <c r="BG20" t="n">
         <v>0.03</v>
       </c>
+      <c r="BH20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="21" spans="1:59">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.17</v>
@@ -4425,16 +4579,28 @@
       <c r="BG21" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="22" spans="1:59">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.17</v>
@@ -4604,16 +4770,28 @@
       <c r="BG22" t="n">
         <v>0.76</v>
       </c>
+      <c r="BH22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="23" spans="1:59">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.16</v>
@@ -4783,16 +4961,28 @@
       <c r="BG23" t="n">
         <v>0.14</v>
       </c>
+      <c r="BH23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="24" spans="1:59">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
@@ -4962,16 +5152,28 @@
       <c r="BG24" t="n">
         <v>0.015</v>
       </c>
+      <c r="BH24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="25" spans="1:59">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.17</v>
@@ -5141,16 +5343,28 @@
       <c r="BG25" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="BH25" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="26" spans="1:59">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.54</v>
@@ -5320,16 +5534,28 @@
       <c r="BG26" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BH26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="27" spans="1:59">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.11</v>
@@ -5499,16 +5725,28 @@
       <c r="BG27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="28" spans="1:59">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.17</v>
@@ -5678,16 +5916,28 @@
       <c r="BG28" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="29" spans="1:59">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.18</v>
@@ -5857,16 +6107,28 @@
       <c r="BG29" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="30" spans="1:59">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.58</v>
@@ -6036,16 +6298,28 @@
       <c r="BG30" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:59">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.07000000000000001</v>
@@ -6215,16 +6489,28 @@
       <c r="BG31" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="32" spans="1:59">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.16</v>
@@ -6394,16 +6680,28 @@
       <c r="BG32" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="33" spans="1:59">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.19</v>
@@ -6573,16 +6871,28 @@
       <c r="BG33" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH33" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:59">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.39</v>
@@ -6752,16 +7062,28 @@
       <c r="BG34" t="n">
         <v>0.71</v>
       </c>
+      <c r="BH34" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="35" spans="1:59">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.12</v>
@@ -6931,16 +7253,28 @@
       <c r="BG35" t="n">
         <v>0.09</v>
       </c>
+      <c r="BH35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:59">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -7110,16 +7444,28 @@
       <c r="BG36" t="n">
         <v>0.13</v>
       </c>
+      <c r="BH36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="37" spans="1:59">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.24</v>
@@ -7289,16 +7635,28 @@
       <c r="BG37" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH37" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="38" spans="1:59">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.35</v>
@@ -7468,16 +7826,28 @@
       <c r="BG38" t="n">
         <v>0.62</v>
       </c>
+      <c r="BH38" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:59">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -7647,16 +8017,28 @@
       <c r="BG39" t="n">
         <v>0.14</v>
       </c>
+      <c r="BH39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="40" spans="1:59">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.32</v>
@@ -7826,16 +8208,28 @@
       <c r="BG40" t="n">
         <v>0.16</v>
       </c>
+      <c r="BH40" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="41" spans="1:59">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.18</v>
@@ -8005,16 +8399,28 @@
       <c r="BG41" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH41" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="42" spans="1:59">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.54</v>
@@ -8184,16 +8590,28 @@
       <c r="BG42" t="n">
         <v>0.72</v>
       </c>
+      <c r="BH42" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="43" spans="1:59">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.12</v>
@@ -8363,16 +8781,28 @@
       <c r="BG43" t="n">
         <v>0.12</v>
       </c>
+      <c r="BH43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="44" spans="1:59">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.23</v>
@@ -8542,16 +8972,28 @@
       <c r="BG44" t="n">
         <v>0.14</v>
       </c>
+      <c r="BH44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="45" spans="1:59">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.11</v>
@@ -8721,16 +9163,28 @@
       <c r="BG45" t="n">
         <v>0.02</v>
       </c>
+      <c r="BH45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="46" spans="1:59">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.52</v>
@@ -8900,16 +9354,28 @@
       <c r="BG46" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BH46" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="47" spans="1:59">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -9079,16 +9545,28 @@
       <c r="BG47" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:59">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -9258,16 +9736,28 @@
       <c r="BG48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH48" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="49" spans="1:59">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>64</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -9437,16 +9927,28 @@
       <c r="BG49" t="n">
         <v>0.06</v>
       </c>
+      <c r="BH49" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="50" spans="1:59">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.44</v>
@@ -9616,16 +10118,28 @@
       <c r="BG50" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BH50" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="51" spans="1:59">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" t="s">
-        <v>62</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.12</v>
@@ -9795,16 +10309,28 @@
       <c r="BG51" t="n">
         <v>0.09</v>
       </c>
+      <c r="BH51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="52" spans="1:59">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.21</v>
@@ -9974,16 +10500,28 @@
       <c r="BG52" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="53" spans="1:59">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.23</v>
@@ -10153,16 +10691,28 @@
       <c r="BG53" t="n">
         <v>0.15</v>
       </c>
+      <c r="BH53" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="54" spans="1:59">
-      <c r="A54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.4</v>
@@ -10332,16 +10882,28 @@
       <c r="BG54" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="55" spans="1:59">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.08</v>
@@ -10511,16 +11073,28 @@
       <c r="BG55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="56" spans="1:59">
-      <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.45</v>
@@ -10690,16 +11264,28 @@
       <c r="BG56" t="n">
         <v>0.05</v>
       </c>
+      <c r="BH56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="57" spans="1:59">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.07000000000000001</v>
@@ -10869,16 +11455,28 @@
       <c r="BG57" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="58" spans="1:59">
-      <c r="A58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.46</v>
@@ -11048,16 +11646,28 @@
       <c r="BG58" t="n">
         <v>0.72</v>
       </c>
+      <c r="BH58" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="59" spans="1:59">
-      <c r="A59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -11227,16 +11837,28 @@
       <c r="BG59" t="n">
         <v>0.1</v>
       </c>
+      <c r="BH59" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="60" spans="1:59">
-      <c r="A60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.18</v>
@@ -11406,16 +12028,28 @@
       <c r="BG60" t="n">
         <v>0.11</v>
       </c>
+      <c r="BH60" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="61" spans="1:59">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.26</v>
@@ -11585,16 +12219,28 @@
       <c r="BG61" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH61" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="62" spans="1:59">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>61</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.51</v>
@@ -11764,16 +12410,28 @@
       <c r="BG62" t="n">
         <v>0.76</v>
       </c>
+      <c r="BH62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="63" spans="1:59">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.11</v>
@@ -11943,16 +12601,28 @@
       <c r="BG63" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="64" spans="1:59">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.2</v>
@@ -12122,16 +12792,28 @@
       <c r="BG64" t="n">
         <v>0.09</v>
       </c>
+      <c r="BH64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="65" spans="1:59">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.18</v>
@@ -12301,16 +12983,28 @@
       <c r="BG65" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="66" spans="1:59">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>61</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
@@ -12480,16 +13174,28 @@
       <c r="BG66" t="n">
         <v>0.83</v>
       </c>
+      <c r="BH66" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="67" spans="1:59">
-      <c r="A67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>62</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -12659,16 +13365,28 @@
       <c r="BG67" t="n">
         <v>0.05</v>
       </c>
+      <c r="BH67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="68" spans="1:59">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>63</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0.05</v>
@@ -12838,16 +13556,28 @@
       <c r="BG68" t="n">
         <v>0.04</v>
       </c>
+      <c r="BH68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="69" spans="1:59">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0.27</v>
@@ -13017,16 +13747,28 @@
       <c r="BG69" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH69" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="70" spans="1:59">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0.53</v>
@@ -13196,16 +13938,28 @@
       <c r="BG70" t="n">
         <v>0.76</v>
       </c>
+      <c r="BH70" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="71" spans="1:59">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0.11</v>
@@ -13375,16 +14129,28 @@
       <c r="BG71" t="n">
         <v>0.09</v>
       </c>
+      <c r="BH71" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="72" spans="1:59">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>63</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0.2</v>
@@ -13554,16 +14320,28 @@
       <c r="BG72" t="n">
         <v>0.08</v>
       </c>
+      <c r="BH72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="73" spans="1:59">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0.16</v>
@@ -13733,16 +14511,28 @@
       <c r="BG73" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BH73" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="74" spans="1:59">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" t="s">
-        <v>61</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0.34</v>
@@ -13912,16 +14702,28 @@
       <c r="BG74" t="n">
         <v>0.67</v>
       </c>
+      <c r="BH74" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="75" spans="1:59">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" t="s">
-        <v>62</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -14091,16 +14893,28 @@
       <c r="BG75" t="n">
         <v>0.12</v>
       </c>
+      <c r="BH75" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="76" spans="1:59">
-      <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" t="s">
-        <v>63</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>0.41</v>
@@ -14270,16 +15084,28 @@
       <c r="BG76" t="n">
         <v>0.17</v>
       </c>
+      <c r="BH76" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="77" spans="1:59">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -14449,14 +15275,22 @@
       <c r="BG77" t="n">
         <v>0.04</v>
       </c>
+      <c r="BH77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="78" spans="1:59">
-      <c r="A78" t="s">
-        <v>88</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14466,7 +15300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF21"/>
+  <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14474,188 +15308,318 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>58</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>23.–29. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3.–5. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>6.–12. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 4. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>27. 4.–3. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>4.–10. 5. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 5. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>18.–24. 5. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>25.–31. 5. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 6. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 6. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 6. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>6.–12. 7. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 7. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>27. 7.–2. 8. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>3.–9. 8. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 8. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>24.–30. 8. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>31. 8.–6. 9. 2020</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>21.–27. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9.–4. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>12.–18. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>19.–25. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>26. 10.–1. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>2.–8. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>9.–15. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>23.–29. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11.–6. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>21.–27. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12.–3. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>18.–24. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>8.–14. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>8.–14. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>29. 3.–4. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>19.–25. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>26. 4.–2. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>10.–16. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 7. 2021</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>12.–18. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:58">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -14825,13 +15789,23 @@
       <c r="BF2" t="n">
         <v>1059</v>
       </c>
+      <c r="BG2" t="n">
+        <v>1008</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="3" spans="1:58">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>442</v>
@@ -15001,13 +15975,23 @@
       <c r="BF3" t="n">
         <v>302</v>
       </c>
+      <c r="BG3" t="n">
+        <v>291</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>291</v>
+      </c>
     </row>
-    <row r="4" spans="1:58">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>121</v>
@@ -15177,13 +16161,23 @@
       <c r="BF4" t="n">
         <v>99</v>
       </c>
+      <c r="BG4" t="n">
+        <v>92</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:58">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>428</v>
@@ -15353,13 +16347,23 @@
       <c r="BF5" t="n">
         <v>268</v>
       </c>
+      <c r="BG5" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>259</v>
+      </c>
     </row>
-    <row r="6" spans="1:58">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>236</v>
@@ -15529,13 +16533,23 @@
       <c r="BF6" t="n">
         <v>144</v>
       </c>
+      <c r="BG6" t="n">
+        <v>135</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>135</v>
+      </c>
     </row>
-    <row r="7" spans="1:58">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>128</v>
@@ -15705,13 +16719,23 @@
       <c r="BF7" t="n">
         <v>95</v>
       </c>
+      <c r="BG7" t="n">
+        <v>91</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:58">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>789</v>
@@ -15881,13 +16905,23 @@
       <c r="BF8" t="n">
         <v>501</v>
       </c>
+      <c r="BG8" t="n">
+        <v>480</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>480</v>
+      </c>
     </row>
-    <row r="9" spans="1:58">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>333</v>
@@ -16057,13 +17091,23 @@
       <c r="BF9" t="n">
         <v>267</v>
       </c>
+      <c r="BG9" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>259</v>
+      </c>
     </row>
-    <row r="10" spans="1:58">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>178</v>
@@ -16233,13 +17277,23 @@
       <c r="BF10" t="n">
         <v>135</v>
       </c>
+      <c r="BG10" t="n">
+        <v>124</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>124</v>
+      </c>
     </row>
-    <row r="11" spans="1:58">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>213</v>
@@ -16409,13 +17463,23 @@
       <c r="BF11" t="n">
         <v>156</v>
       </c>
+      <c r="BG11" t="n">
+        <v>145</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row r="12" spans="1:58">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>382</v>
@@ -16585,13 +17649,23 @@
       <c r="BF12" t="n">
         <v>256</v>
       </c>
+      <c r="BG12" t="n">
+        <v>255</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>255</v>
+      </c>
     </row>
-    <row r="13" spans="1:58">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>852</v>
@@ -16761,13 +17835,23 @@
       <c r="BF13" t="n">
         <v>600</v>
       </c>
+      <c r="BG13" t="n">
+        <v>568</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>568</v>
+      </c>
     </row>
-    <row r="14" spans="1:58">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>279</v>
@@ -16937,13 +18021,23 @@
       <c r="BF14" t="n">
         <v>203</v>
       </c>
+      <c r="BG14" t="n">
+        <v>185</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>185</v>
+      </c>
     </row>
-    <row r="15" spans="1:58">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -17113,13 +18207,23 @@
       <c r="BF15" t="n">
         <v>269</v>
       </c>
+      <c r="BG15" t="n">
+        <v>229</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>229</v>
+      </c>
     </row>
-    <row r="16" spans="1:58">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>157</v>
@@ -17289,13 +18393,23 @@
       <c r="BF16" t="n">
         <v>214</v>
       </c>
+      <c r="BG16" t="n">
+        <v>175</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>175</v>
+      </c>
     </row>
-    <row r="17" spans="1:58">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1327</v>
@@ -17465,13 +18579,23 @@
       <c r="BF17" t="n">
         <v>576</v>
       </c>
+      <c r="BG17" t="n">
+        <v>604</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>604</v>
+      </c>
     </row>
-    <row r="18" spans="1:58">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>544</v>
@@ -17641,13 +18765,23 @@
       <c r="BF18" t="n">
         <v>385</v>
       </c>
+      <c r="BG18" t="n">
+        <v>366</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>366</v>
+      </c>
     </row>
-    <row r="19" spans="1:58">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>587</v>
@@ -17817,13 +18951,23 @@
       <c r="BF19" t="n">
         <v>422</v>
       </c>
+      <c r="BG19" t="n">
+        <v>401</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>401</v>
+      </c>
     </row>
-    <row r="20" spans="1:58">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>382</v>
@@ -17993,70 +19137,80 @@
       <c r="BF20" t="n">
         <v>252</v>
       </c>
+      <c r="BG20" t="n">
+        <v>241</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>241</v>
+      </c>
     </row>
-    <row r="21" spans="1:58">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="s"/>
-      <c r="AE21" t="s"/>
-      <c r="AF21" t="s"/>
-      <c r="AG21" t="s"/>
-      <c r="AH21" t="s"/>
-      <c r="AI21" t="s"/>
-      <c r="AJ21" t="s"/>
-      <c r="AK21" t="s"/>
-      <c r="AL21" t="s"/>
-      <c r="AM21" t="s"/>
-      <c r="AN21" t="s"/>
-      <c r="AO21" t="s"/>
-      <c r="AP21" t="s"/>
-      <c r="AQ21" t="s"/>
-      <c r="AR21" t="s"/>
-      <c r="AS21" t="s"/>
-      <c r="AT21" t="s"/>
-      <c r="AU21" t="s"/>
-      <c r="AV21" t="s"/>
-      <c r="AW21" t="s"/>
-      <c r="AX21" t="s"/>
-      <c r="AY21" t="s"/>
-      <c r="AZ21" t="s"/>
-      <c r="BA21" t="s"/>
-      <c r="BB21" t="s"/>
-      <c r="BC21" t="s"/>
-      <c r="BD21" t="s"/>
-      <c r="BE21" t="s"/>
-      <c r="BF21" t="s"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI78"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +765,16 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>9.–15. 8. 2021</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -956,6 +966,12 @@
       <c r="BI2" t="n">
         <v>0.66</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1147,6 +1163,12 @@
       <c r="BI3" t="n">
         <v>0.09</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1338,6 +1360,12 @@
       <c r="BI4" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1529,6 +1557,12 @@
       <c r="BI5" t="n">
         <v>0.18</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1720,6 +1754,12 @@
       <c r="BI6" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1911,6 +1951,12 @@
       <c r="BI7" t="n">
         <v>0.06</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2102,6 +2148,12 @@
       <c r="BI8" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2293,6 +2345,12 @@
       <c r="BI9" t="n">
         <v>0.17</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2484,6 +2542,12 @@
       <c r="BI10" t="n">
         <v>0.47</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2675,6 +2739,12 @@
       <c r="BI11" t="n">
         <v>0.18</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2866,6 +2936,12 @@
       <c r="BI12" t="n">
         <v>0.24</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3057,6 +3133,12 @@
       <c r="BI13" t="n">
         <v>0.11</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3248,6 +3330,12 @@
       <c r="BI14" t="n">
         <v>0.76</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3439,6 +3527,12 @@
       <c r="BI15" t="n">
         <v>0.09</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3630,6 +3724,12 @@
       <c r="BI16" t="n">
         <v>0.02</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3821,6 +3921,12 @@
       <c r="BI17" t="n">
         <v>0.13</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4012,6 +4118,12 @@
       <c r="BI18" t="n">
         <v>0.78</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4203,6 +4315,12 @@
       <c r="BI19" t="n">
         <v>0.05</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4394,6 +4512,12 @@
       <c r="BI20" t="n">
         <v>0.02</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4585,6 +4709,12 @@
       <c r="BI21" t="n">
         <v>0.15</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4776,6 +4906,12 @@
       <c r="BI22" t="n">
         <v>0.27</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4967,6 +5103,12 @@
       <c r="BI23" t="n">
         <v>0.17</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5158,6 +5300,12 @@
       <c r="BI24" t="n">
         <v>0.04</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5349,6 +5497,12 @@
       <c r="BI25" t="n">
         <v>0.52</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5540,6 +5694,12 @@
       <c r="BI26" t="n">
         <v>0.68</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5731,6 +5891,12 @@
       <c r="BI27" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5922,6 +6088,12 @@
       <c r="BI28" t="n">
         <v>0.05</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6113,6 +6285,12 @@
       <c r="BI29" t="n">
         <v>0.19</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6304,6 +6482,12 @@
       <c r="BI30" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6495,6 +6679,12 @@
       <c r="BI31" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6686,6 +6876,12 @@
       <c r="BI32" t="n">
         <v>0.03</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6877,6 +7073,12 @@
       <c r="BI33" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7068,6 +7270,12 @@
       <c r="BI34" t="n">
         <v>0.6</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7259,6 +7467,12 @@
       <c r="BI35" t="n">
         <v>0.1</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7450,6 +7664,12 @@
       <c r="BI36" t="n">
         <v>0.13</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7641,6 +7861,12 @@
       <c r="BI37" t="n">
         <v>0.17</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7832,6 +8058,12 @@
       <c r="BI38" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8023,6 +8255,12 @@
       <c r="BI39" t="n">
         <v>0.11</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8214,6 +8452,12 @@
       <c r="BI40" t="n">
         <v>0.13</v>
       </c>
+      <c r="BJ40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8405,6 +8649,12 @@
       <c r="BI41" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8596,6 +8846,12 @@
       <c r="BI42" t="n">
         <v>0.68</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8787,6 +9043,12 @@
       <c r="BI43" t="n">
         <v>0.1</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8978,6 +9240,12 @@
       <c r="BI44" t="n">
         <v>0.12</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9169,6 +9437,12 @@
       <c r="BI45" t="n">
         <v>0.1</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9360,6 +9634,12 @@
       <c r="BI46" t="n">
         <v>0.67</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9551,6 +9831,12 @@
       <c r="BI47" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9742,6 +10028,12 @@
       <c r="BI48" t="n">
         <v>0.04</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9933,6 +10225,12 @@
       <c r="BI49" t="n">
         <v>0.21</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10124,6 +10422,12 @@
       <c r="BI50" t="n">
         <v>0.59</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10315,6 +10619,12 @@
       <c r="BI51" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10506,6 +10816,12 @@
       <c r="BI52" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ52" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10697,6 +11013,12 @@
       <c r="BI53" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ53" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10888,6 +11210,12 @@
       <c r="BI54" t="n">
         <v>0.63</v>
       </c>
+      <c r="BJ54" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11079,6 +11407,12 @@
       <c r="BI55" t="n">
         <v>0.09</v>
       </c>
+      <c r="BJ55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11270,6 +11604,12 @@
       <c r="BI56" t="n">
         <v>0.03</v>
       </c>
+      <c r="BJ56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11461,6 +11801,12 @@
       <c r="BI57" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ57" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11652,6 +11998,12 @@
       <c r="BI58" t="n">
         <v>0.57</v>
       </c>
+      <c r="BJ58" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11843,6 +12195,12 @@
       <c r="BI59" t="n">
         <v>0.11</v>
       </c>
+      <c r="BJ59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12034,6 +12392,12 @@
       <c r="BI60" t="n">
         <v>0.1</v>
       </c>
+      <c r="BJ60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12225,6 +12589,12 @@
       <c r="BI61" t="n">
         <v>0.22</v>
       </c>
+      <c r="BJ61" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12416,6 +12786,12 @@
       <c r="BI62" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BJ62" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12607,6 +12983,12 @@
       <c r="BI63" t="n">
         <v>0.08</v>
       </c>
+      <c r="BJ63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12798,6 +13180,12 @@
       <c r="BI64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BJ64" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12989,6 +13377,12 @@
       <c r="BI65" t="n">
         <v>0.16</v>
       </c>
+      <c r="BJ65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13180,6 +13574,12 @@
       <c r="BI66" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13371,6 +13771,12 @@
       <c r="BI67" t="n">
         <v>0.05</v>
       </c>
+      <c r="BJ67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13562,6 +13968,12 @@
       <c r="BI68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BJ68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13753,6 +14165,12 @@
       <c r="BI69" t="n">
         <v>0.17</v>
       </c>
+      <c r="BJ69" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13944,6 +14362,12 @@
       <c r="BI70" t="n">
         <v>0.66</v>
       </c>
+      <c r="BJ70" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14135,6 +14559,12 @@
       <c r="BI71" t="n">
         <v>0.09</v>
       </c>
+      <c r="BJ71" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14326,6 +14756,12 @@
       <c r="BI72" t="n">
         <v>0.06</v>
       </c>
+      <c r="BJ72" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14517,6 +14953,12 @@
       <c r="BI73" t="n">
         <v>0.19</v>
       </c>
+      <c r="BJ73" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14708,6 +15150,12 @@
       <c r="BI74" t="n">
         <v>0.52</v>
       </c>
+      <c r="BJ74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14899,6 +15347,12 @@
       <c r="BI75" t="n">
         <v>0.15</v>
       </c>
+      <c r="BJ75" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15090,6 +15544,12 @@
       <c r="BI76" t="n">
         <v>0.12</v>
       </c>
+      <c r="BJ76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15281,11 +15741,17 @@
       <c r="BI77" t="n">
         <v>0.21</v>
       </c>
+      <c r="BJ77" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -15300,7 +15766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH21"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15609,6 +16075,16 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>9.–15. 8. 2021</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15795,6 +16271,12 @@
       <c r="BH2" t="n">
         <v>1008</v>
       </c>
+      <c r="BI2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15981,6 +16463,12 @@
       <c r="BH3" t="n">
         <v>291</v>
       </c>
+      <c r="BI3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16167,6 +16655,12 @@
       <c r="BH4" t="n">
         <v>92</v>
       </c>
+      <c r="BI4" t="n">
+        <v>91</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16353,6 +16847,12 @@
       <c r="BH5" t="n">
         <v>259</v>
       </c>
+      <c r="BI5" t="n">
+        <v>292</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16539,6 +17039,12 @@
       <c r="BH6" t="n">
         <v>135</v>
       </c>
+      <c r="BI6" t="n">
+        <v>158</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16725,6 +17231,12 @@
       <c r="BH7" t="n">
         <v>91</v>
       </c>
+      <c r="BI7" t="n">
+        <v>85</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16911,6 +17423,12 @@
       <c r="BH8" t="n">
         <v>480</v>
       </c>
+      <c r="BI8" t="n">
+        <v>523</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>523</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17097,6 +17615,12 @@
       <c r="BH9" t="n">
         <v>259</v>
       </c>
+      <c r="BI9" t="n">
+        <v>262</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17283,6 +17807,12 @@
       <c r="BH10" t="n">
         <v>124</v>
       </c>
+      <c r="BI10" t="n">
+        <v>136</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17469,6 +17999,12 @@
       <c r="BH11" t="n">
         <v>145</v>
       </c>
+      <c r="BI11" t="n">
+        <v>152</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17655,6 +18191,12 @@
       <c r="BH12" t="n">
         <v>255</v>
       </c>
+      <c r="BI12" t="n">
+        <v>267</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17841,6 +18383,12 @@
       <c r="BH13" t="n">
         <v>568</v>
       </c>
+      <c r="BI13" t="n">
+        <v>620</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>620</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18027,6 +18575,12 @@
       <c r="BH14" t="n">
         <v>185</v>
       </c>
+      <c r="BI14" t="n">
+        <v>186</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18213,6 +18767,12 @@
       <c r="BH15" t="n">
         <v>229</v>
       </c>
+      <c r="BI15" t="n">
+        <v>211</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18399,6 +18959,12 @@
       <c r="BH16" t="n">
         <v>175</v>
       </c>
+      <c r="BI16" t="n">
+        <v>192</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18585,6 +19151,12 @@
       <c r="BH17" t="n">
         <v>604</v>
       </c>
+      <c r="BI17" t="n">
+        <v>670</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18771,6 +19343,12 @@
       <c r="BH18" t="n">
         <v>366</v>
       </c>
+      <c r="BI18" t="n">
+        <v>387</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18957,6 +19535,12 @@
       <c r="BH19" t="n">
         <v>401</v>
       </c>
+      <c r="BI19" t="n">
+        <v>436</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19143,11 +19727,17 @@
       <c r="BH20" t="n">
         <v>241</v>
       </c>
+      <c r="BI20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -19209,6 +19799,8 @@
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BM78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,16 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 9. 2021</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -972,6 +982,12 @@
       <c r="BK2" t="n">
         <v>0.63</v>
       </c>
+      <c r="BL2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1169,6 +1185,12 @@
       <c r="BK3" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1366,6 +1388,12 @@
       <c r="BK4" t="n">
         <v>0.06</v>
       </c>
+      <c r="BL4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1563,6 +1591,12 @@
       <c r="BK5" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1760,6 +1794,12 @@
       <c r="BK6" t="n">
         <v>0.6</v>
       </c>
+      <c r="BL6" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1957,6 +1997,12 @@
       <c r="BK7" t="n">
         <v>0.05</v>
       </c>
+      <c r="BL7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2154,6 +2200,12 @@
       <c r="BK8" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2351,6 +2403,12 @@
       <c r="BK9" t="n">
         <v>0.28</v>
       </c>
+      <c r="BL9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2548,6 +2606,12 @@
       <c r="BK10" t="n">
         <v>0.4</v>
       </c>
+      <c r="BL10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2745,6 +2809,12 @@
       <c r="BK11" t="n">
         <v>0.15</v>
       </c>
+      <c r="BL11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2942,6 +3012,12 @@
       <c r="BK12" t="n">
         <v>0.22</v>
       </c>
+      <c r="BL12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3139,6 +3215,12 @@
       <c r="BK13" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3336,6 +3418,12 @@
       <c r="BK14" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3533,6 +3621,12 @@
       <c r="BK15" t="n">
         <v>0.08</v>
       </c>
+      <c r="BL15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3730,6 +3824,12 @@
       <c r="BK16" t="n">
         <v>0.015</v>
       </c>
+      <c r="BL16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3927,6 +4027,12 @@
       <c r="BK17" t="n">
         <v>0.155</v>
       </c>
+      <c r="BL17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4124,6 +4230,12 @@
       <c r="BK18" t="n">
         <v>0.71</v>
       </c>
+      <c r="BL18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4321,6 +4433,12 @@
       <c r="BK19" t="n">
         <v>0.03</v>
       </c>
+      <c r="BL19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4518,6 +4636,12 @@
       <c r="BK20" t="n">
         <v>0.03</v>
       </c>
+      <c r="BL20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4715,6 +4839,12 @@
       <c r="BK21" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL21" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4912,6 +5042,12 @@
       <c r="BK22" t="n">
         <v>0.38</v>
       </c>
+      <c r="BL22" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5109,6 +5245,12 @@
       <c r="BK23" t="n">
         <v>0.12</v>
       </c>
+      <c r="BL23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5306,6 +5448,12 @@
       <c r="BK24" t="n">
         <v>0.02</v>
       </c>
+      <c r="BL24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5503,6 +5651,12 @@
       <c r="BK25" t="n">
         <v>0.48</v>
       </c>
+      <c r="BL25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5700,6 +5854,12 @@
       <c r="BK26" t="n">
         <v>0.65</v>
       </c>
+      <c r="BL26" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5897,6 +6057,12 @@
       <c r="BK27" t="n">
         <v>0.06</v>
       </c>
+      <c r="BL27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6094,6 +6260,12 @@
       <c r="BK28" t="n">
         <v>0.05</v>
       </c>
+      <c r="BL28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6291,6 +6463,12 @@
       <c r="BK29" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6488,6 +6666,12 @@
       <c r="BK30" t="n">
         <v>0.67</v>
       </c>
+      <c r="BL30" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6685,6 +6869,12 @@
       <c r="BK31" t="n">
         <v>0.05</v>
       </c>
+      <c r="BL31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6882,6 +7072,12 @@
       <c r="BK32" t="n">
         <v>0.04</v>
       </c>
+      <c r="BL32" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7079,6 +7275,12 @@
       <c r="BK33" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL33" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7276,6 +7478,12 @@
       <c r="BK34" t="n">
         <v>0.52</v>
       </c>
+      <c r="BL34" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7473,6 +7681,12 @@
       <c r="BK35" t="n">
         <v>0.12</v>
       </c>
+      <c r="BL35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7670,6 +7884,12 @@
       <c r="BK36" t="n">
         <v>0.13</v>
       </c>
+      <c r="BL36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7867,6 +8087,12 @@
       <c r="BK37" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8064,6 +8290,12 @@
       <c r="BK38" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BL38" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8261,6 +8493,12 @@
       <c r="BK39" t="n">
         <v>0.11</v>
       </c>
+      <c r="BL39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8458,6 +8696,12 @@
       <c r="BK40" t="n">
         <v>0.09</v>
       </c>
+      <c r="BL40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8655,6 +8899,12 @@
       <c r="BK41" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8852,6 +9102,12 @@
       <c r="BK42" t="n">
         <v>0.62</v>
       </c>
+      <c r="BL42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9049,6 +9305,12 @@
       <c r="BK43" t="n">
         <v>0.08</v>
       </c>
+      <c r="BL43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9246,6 +9508,12 @@
       <c r="BK44" t="n">
         <v>0.11</v>
       </c>
+      <c r="BL44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9443,6 +9711,12 @@
       <c r="BK45" t="n">
         <v>0.19</v>
       </c>
+      <c r="BL45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9640,6 +9914,12 @@
       <c r="BK46" t="n">
         <v>0.65</v>
       </c>
+      <c r="BL46" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9837,6 +10117,12 @@
       <c r="BK47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10034,6 +10320,12 @@
       <c r="BK48" t="n">
         <v>0.04</v>
       </c>
+      <c r="BL48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10231,6 +10523,12 @@
       <c r="BK49" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10428,6 +10726,12 @@
       <c r="BK50" t="n">
         <v>0.54</v>
       </c>
+      <c r="BL50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10625,6 +10929,12 @@
       <c r="BK51" t="n">
         <v>0.08</v>
       </c>
+      <c r="BL51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10822,6 +11132,12 @@
       <c r="BK52" t="n">
         <v>0.06</v>
       </c>
+      <c r="BL52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11019,6 +11335,12 @@
       <c r="BK53" t="n">
         <v>0.32</v>
       </c>
+      <c r="BL53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11216,6 +11538,12 @@
       <c r="BK54" t="n">
         <v>0.64</v>
       </c>
+      <c r="BL54" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11413,6 +11741,12 @@
       <c r="BK55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL55" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11610,6 +11944,12 @@
       <c r="BK56" t="n">
         <v>0.05</v>
       </c>
+      <c r="BL56" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11807,6 +12147,12 @@
       <c r="BK57" t="n">
         <v>0.24</v>
       </c>
+      <c r="BL57" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12004,6 +12350,12 @@
       <c r="BK58" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BL58" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12201,6 +12553,12 @@
       <c r="BK59" t="n">
         <v>0.11</v>
       </c>
+      <c r="BL59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12398,6 +12756,12 @@
       <c r="BK60" t="n">
         <v>0.03</v>
       </c>
+      <c r="BL60" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12595,6 +12959,12 @@
       <c r="BK61" t="n">
         <v>0.3</v>
       </c>
+      <c r="BL61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12792,6 +13162,12 @@
       <c r="BK62" t="n">
         <v>0.64</v>
       </c>
+      <c r="BL62" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12989,6 +13365,12 @@
       <c r="BK63" t="n">
         <v>0.06</v>
       </c>
+      <c r="BL63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13186,6 +13568,12 @@
       <c r="BK64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13383,6 +13771,12 @@
       <c r="BK65" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL65" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13580,6 +13974,12 @@
       <c r="BK66" t="n">
         <v>0.72</v>
       </c>
+      <c r="BL66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13777,6 +14177,12 @@
       <c r="BK67" t="n">
         <v>0.03</v>
       </c>
+      <c r="BL67" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13974,6 +14380,12 @@
       <c r="BK68" t="n">
         <v>0.02</v>
       </c>
+      <c r="BL68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14171,6 +14583,12 @@
       <c r="BK69" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL69" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14368,6 +14786,12 @@
       <c r="BK70" t="n">
         <v>0.61</v>
       </c>
+      <c r="BL70" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14565,6 +14989,12 @@
       <c r="BK71" t="n">
         <v>0.09</v>
       </c>
+      <c r="BL71" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14762,6 +15192,12 @@
       <c r="BK72" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BL72" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14959,6 +15395,12 @@
       <c r="BK73" t="n">
         <v>0.23</v>
       </c>
+      <c r="BL73" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15156,6 +15598,12 @@
       <c r="BK74" t="n">
         <v>0.51</v>
       </c>
+      <c r="BL74" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15353,6 +15801,12 @@
       <c r="BK75" t="n">
         <v>0.1</v>
       </c>
+      <c r="BL75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15550,6 +16004,12 @@
       <c r="BK76" t="n">
         <v>0.11</v>
       </c>
+      <c r="BL76" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15747,11 +16207,17 @@
       <c r="BK77" t="n">
         <v>0.28</v>
       </c>
+      <c r="BL77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -15766,7 +16232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16085,6 +16551,16 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 9. 2021</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16277,6 +16753,12 @@
       <c r="BJ2" t="n">
         <v>1073</v>
       </c>
+      <c r="BK2" t="n">
+        <v>1043</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16469,6 +16951,12 @@
       <c r="BJ3" t="n">
         <v>293</v>
       </c>
+      <c r="BK3" t="n">
+        <v>290</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16661,6 +17149,12 @@
       <c r="BJ4" t="n">
         <v>91</v>
       </c>
+      <c r="BK4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16853,6 +17347,12 @@
       <c r="BJ5" t="n">
         <v>292</v>
       </c>
+      <c r="BK5" t="n">
+        <v>269</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17045,6 +17545,12 @@
       <c r="BJ6" t="n">
         <v>158</v>
       </c>
+      <c r="BK6" t="n">
+        <v>144</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17237,6 +17743,12 @@
       <c r="BJ7" t="n">
         <v>85</v>
       </c>
+      <c r="BK7" t="n">
+        <v>92</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17429,6 +17941,12 @@
       <c r="BJ8" t="n">
         <v>523</v>
       </c>
+      <c r="BK8" t="n">
+        <v>503</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17621,6 +18139,12 @@
       <c r="BJ9" t="n">
         <v>262</v>
       </c>
+      <c r="BK9" t="n">
+        <v>263</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17813,6 +18337,12 @@
       <c r="BJ10" t="n">
         <v>136</v>
       </c>
+      <c r="BK10" t="n">
+        <v>130</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18005,6 +18535,12 @@
       <c r="BJ11" t="n">
         <v>152</v>
       </c>
+      <c r="BK11" t="n">
+        <v>147</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18197,6 +18733,12 @@
       <c r="BJ12" t="n">
         <v>267</v>
       </c>
+      <c r="BK12" t="n">
+        <v>265</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18389,6 +18931,12 @@
       <c r="BJ13" t="n">
         <v>620</v>
       </c>
+      <c r="BK13" t="n">
+        <v>593</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>593</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18581,6 +19129,12 @@
       <c r="BJ14" t="n">
         <v>186</v>
       </c>
+      <c r="BK14" t="n">
+        <v>185</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18773,6 +19327,12 @@
       <c r="BJ15" t="n">
         <v>211</v>
       </c>
+      <c r="BK15" t="n">
+        <v>207</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18965,6 +19525,12 @@
       <c r="BJ16" t="n">
         <v>192</v>
       </c>
+      <c r="BK16" t="n">
+        <v>153</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19157,6 +19723,12 @@
       <c r="BJ17" t="n">
         <v>670</v>
       </c>
+      <c r="BK17" t="n">
+        <v>683</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19349,6 +19921,12 @@
       <c r="BJ18" t="n">
         <v>387</v>
       </c>
+      <c r="BK18" t="n">
+        <v>396</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19541,6 +20119,12 @@
       <c r="BJ19" t="n">
         <v>436</v>
       </c>
+      <c r="BK19" t="n">
+        <v>403</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19733,11 +20317,17 @@
       <c r="BJ20" t="n">
         <v>250</v>
       </c>
+      <c r="BK20" t="n">
+        <v>244</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -19801,6 +20391,8 @@
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM78"/>
+  <dimension ref="A1:BO78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,16 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>4.–10. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -988,6 +998,12 @@
       <c r="BM2" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1191,6 +1207,12 @@
       <c r="BM3" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1394,6 +1416,12 @@
       <c r="BM4" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1597,6 +1625,12 @@
       <c r="BM5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1800,6 +1834,12 @@
       <c r="BM6" t="n">
         <v>0.79</v>
       </c>
+      <c r="BN6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2003,6 +2043,12 @@
       <c r="BM7" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2206,6 +2252,12 @@
       <c r="BM8" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2409,6 +2461,12 @@
       <c r="BM9" t="n">
         <v>0.1</v>
       </c>
+      <c r="BN9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2612,6 +2670,12 @@
       <c r="BM10" t="n">
         <v>0.47</v>
       </c>
+      <c r="BN10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2815,6 +2879,12 @@
       <c r="BM11" t="n">
         <v>0.17</v>
       </c>
+      <c r="BN11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3018,6 +3088,12 @@
       <c r="BM12" t="n">
         <v>0.3</v>
       </c>
+      <c r="BN12" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3221,6 +3297,12 @@
       <c r="BM13" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3424,6 +3506,12 @@
       <c r="BM14" t="n">
         <v>0.88</v>
       </c>
+      <c r="BN14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3627,6 +3715,12 @@
       <c r="BM15" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3830,6 +3924,12 @@
       <c r="BM16" t="n">
         <v>0.02</v>
       </c>
+      <c r="BN16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4033,6 +4133,12 @@
       <c r="BM17" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4236,6 +4342,12 @@
       <c r="BM18" t="n">
         <v>0.85</v>
       </c>
+      <c r="BN18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4439,6 +4551,12 @@
       <c r="BM19" t="n">
         <v>0.02</v>
       </c>
+      <c r="BN19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4642,6 +4760,12 @@
       <c r="BM20" t="n">
         <v>0.03</v>
       </c>
+      <c r="BN20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4845,6 +4969,12 @@
       <c r="BM21" t="n">
         <v>0.1</v>
       </c>
+      <c r="BN21" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5048,6 +5178,12 @@
       <c r="BM22" t="n">
         <v>0.84</v>
       </c>
+      <c r="BN22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5251,6 +5387,12 @@
       <c r="BM23" t="n">
         <v>0.1</v>
       </c>
+      <c r="BN23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5454,6 +5596,12 @@
       <c r="BM24" t="n">
         <v>0.04</v>
       </c>
+      <c r="BN24" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5657,6 +5805,12 @@
       <c r="BM25" t="n">
         <v>0.02</v>
       </c>
+      <c r="BN25" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5860,6 +6014,12 @@
       <c r="BM26" t="n">
         <v>0.84</v>
       </c>
+      <c r="BN26" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6063,6 +6223,12 @@
       <c r="BM27" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6266,6 +6432,12 @@
       <c r="BM28" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6469,6 +6641,12 @@
       <c r="BM29" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6672,6 +6850,12 @@
       <c r="BM30" t="n">
         <v>0.85</v>
       </c>
+      <c r="BN30" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6875,6 +7059,12 @@
       <c r="BM31" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7078,6 +7268,12 @@
       <c r="BM32" t="n">
         <v>0.03</v>
       </c>
+      <c r="BN32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7281,6 +7477,12 @@
       <c r="BM33" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7484,6 +7686,12 @@
       <c r="BM34" t="n">
         <v>0.71</v>
       </c>
+      <c r="BN34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7687,6 +7895,12 @@
       <c r="BM35" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7890,6 +8104,12 @@
       <c r="BM36" t="n">
         <v>0.17</v>
       </c>
+      <c r="BN36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8093,6 +8313,12 @@
       <c r="BM37" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8296,6 +8522,12 @@
       <c r="BM38" t="n">
         <v>0.65</v>
       </c>
+      <c r="BN38" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8499,6 +8731,12 @@
       <c r="BM39" t="n">
         <v>0.14</v>
       </c>
+      <c r="BN39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8702,6 +8940,12 @@
       <c r="BM40" t="n">
         <v>0.14</v>
       </c>
+      <c r="BN40" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8905,6 +9149,12 @@
       <c r="BM41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9108,6 +9358,12 @@
       <c r="BM42" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN42" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9311,6 +9567,12 @@
       <c r="BM43" t="n">
         <v>0.09</v>
       </c>
+      <c r="BN43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9514,6 +9776,12 @@
       <c r="BM44" t="n">
         <v>0.11</v>
       </c>
+      <c r="BN44" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9717,6 +9985,12 @@
       <c r="BM45" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9920,6 +10194,12 @@
       <c r="BM46" t="n">
         <v>0.85</v>
       </c>
+      <c r="BN46" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10123,6 +10403,12 @@
       <c r="BM47" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10326,6 +10612,12 @@
       <c r="BM48" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10529,6 +10821,12 @@
       <c r="BM49" t="n">
         <v>0.05</v>
       </c>
+      <c r="BN49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10732,6 +11030,12 @@
       <c r="BM50" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BN50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10935,6 +11239,12 @@
       <c r="BM51" t="n">
         <v>0.08</v>
       </c>
+      <c r="BN51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11138,6 +11448,12 @@
       <c r="BM52" t="n">
         <v>0.08</v>
       </c>
+      <c r="BN52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11341,6 +11657,12 @@
       <c r="BM53" t="n">
         <v>0.15</v>
       </c>
+      <c r="BN53" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11544,6 +11866,12 @@
       <c r="BM54" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BN54" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11747,6 +12075,12 @@
       <c r="BM55" t="n">
         <v>0.04</v>
       </c>
+      <c r="BN55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11950,6 +12284,12 @@
       <c r="BM56" t="n">
         <v>0.04</v>
       </c>
+      <c r="BN56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12153,6 +12493,12 @@
       <c r="BM57" t="n">
         <v>0.11</v>
       </c>
+      <c r="BN57" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12356,6 +12702,12 @@
       <c r="BM58" t="n">
         <v>0.74</v>
       </c>
+      <c r="BN58" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12559,6 +12911,12 @@
       <c r="BM59" t="n">
         <v>0.09</v>
       </c>
+      <c r="BN59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12762,6 +13120,12 @@
       <c r="BM60" t="n">
         <v>0.13</v>
       </c>
+      <c r="BN60" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12965,6 +13329,12 @@
       <c r="BM61" t="n">
         <v>0.04</v>
       </c>
+      <c r="BN61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13168,6 +13538,12 @@
       <c r="BM62" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BN62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13371,6 +13747,12 @@
       <c r="BM63" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13574,6 +13956,12 @@
       <c r="BM64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13777,6 +14165,12 @@
       <c r="BM65" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN65" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13980,6 +14374,12 @@
       <c r="BM66" t="n">
         <v>0.86</v>
       </c>
+      <c r="BN66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14183,6 +14583,12 @@
       <c r="BM67" t="n">
         <v>0.015</v>
       </c>
+      <c r="BN67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14386,6 +14792,12 @@
       <c r="BM68" t="n">
         <v>0.02</v>
       </c>
+      <c r="BN68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14589,6 +15001,12 @@
       <c r="BM69" t="n">
         <v>0.105</v>
       </c>
+      <c r="BN69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14792,6 +15210,12 @@
       <c r="BM70" t="n">
         <v>0.77</v>
       </c>
+      <c r="BN70" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14995,6 +15419,12 @@
       <c r="BM71" t="n">
         <v>0.08</v>
       </c>
+      <c r="BN71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15198,6 +15628,12 @@
       <c r="BM72" t="n">
         <v>0.09</v>
       </c>
+      <c r="BN72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15401,6 +15837,12 @@
       <c r="BM73" t="n">
         <v>0.06</v>
       </c>
+      <c r="BN73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15604,6 +16046,12 @@
       <c r="BM74" t="n">
         <v>0.74</v>
       </c>
+      <c r="BN74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15807,6 +16255,12 @@
       <c r="BM75" t="n">
         <v>0.11</v>
       </c>
+      <c r="BN75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16010,6 +16464,12 @@
       <c r="BM76" t="n">
         <v>0.11</v>
       </c>
+      <c r="BN76" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16213,11 +16673,17 @@
       <c r="BM77" t="n">
         <v>0.04</v>
       </c>
+      <c r="BN77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -16232,7 +16698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:BN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16561,6 +17027,16 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>4.–10. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16759,6 +17235,12 @@
       <c r="BL2" t="n">
         <v>1043</v>
       </c>
+      <c r="BM2" t="n">
+        <v>1041</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1041</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16957,6 +17439,12 @@
       <c r="BL3" t="n">
         <v>290</v>
       </c>
+      <c r="BM3" t="n">
+        <v>304</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17155,6 +17643,12 @@
       <c r="BL4" t="n">
         <v>100</v>
       </c>
+      <c r="BM4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17353,6 +17847,12 @@
       <c r="BL5" t="n">
         <v>269</v>
       </c>
+      <c r="BM5" t="n">
+        <v>258</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17551,6 +18051,12 @@
       <c r="BL6" t="n">
         <v>144</v>
       </c>
+      <c r="BM6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17749,6 +18255,12 @@
       <c r="BL7" t="n">
         <v>92</v>
       </c>
+      <c r="BM7" t="n">
+        <v>85</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17947,6 +18459,12 @@
       <c r="BL8" t="n">
         <v>503</v>
       </c>
+      <c r="BM8" t="n">
+        <v>518</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>518</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18145,6 +18663,12 @@
       <c r="BL9" t="n">
         <v>263</v>
       </c>
+      <c r="BM9" t="n">
+        <v>245</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18343,6 +18867,12 @@
       <c r="BL10" t="n">
         <v>130</v>
       </c>
+      <c r="BM10" t="n">
+        <v>131</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18541,6 +19071,12 @@
       <c r="BL11" t="n">
         <v>147</v>
       </c>
+      <c r="BM11" t="n">
+        <v>147</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18739,6 +19275,12 @@
       <c r="BL12" t="n">
         <v>265</v>
       </c>
+      <c r="BM12" t="n">
+        <v>265</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18937,6 +19479,12 @@
       <c r="BL13" t="n">
         <v>593</v>
       </c>
+      <c r="BM13" t="n">
+        <v>589</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>589</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19135,6 +19683,12 @@
       <c r="BL14" t="n">
         <v>185</v>
       </c>
+      <c r="BM14" t="n">
+        <v>187</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19333,6 +19887,12 @@
       <c r="BL15" t="n">
         <v>207</v>
       </c>
+      <c r="BM15" t="n">
+        <v>191</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19531,6 +20091,12 @@
       <c r="BL16" t="n">
         <v>153</v>
       </c>
+      <c r="BM16" t="n">
+        <v>164</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19729,6 +20295,12 @@
       <c r="BL17" t="n">
         <v>683</v>
       </c>
+      <c r="BM17" t="n">
+        <v>686</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19927,6 +20499,12 @@
       <c r="BL18" t="n">
         <v>396</v>
       </c>
+      <c r="BM18" t="n">
+        <v>390</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20125,6 +20703,12 @@
       <c r="BL19" t="n">
         <v>403</v>
       </c>
+      <c r="BM19" t="n">
+        <v>411</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20323,11 +20907,17 @@
       <c r="BL20" t="n">
         <v>244</v>
       </c>
+      <c r="BM20" t="n">
+        <v>240</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -20393,6 +20983,8 @@
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO78"/>
+  <dimension ref="A1:BQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,16 @@
           <t>11.–17. 10. 2021</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>25.–31. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1004,6 +1014,12 @@
       <c r="BO2" t="n">
         <v>0.78</v>
       </c>
+      <c r="BP2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1213,6 +1229,12 @@
       <c r="BO3" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BP3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1422,6 +1444,12 @@
       <c r="BO4" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BP4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1631,6 +1659,12 @@
       <c r="BO5" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1840,6 +1874,12 @@
       <c r="BO6" t="n">
         <v>0.75</v>
       </c>
+      <c r="BP6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2049,6 +2089,12 @@
       <c r="BO7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BP7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2258,6 +2304,12 @@
       <c r="BO8" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2467,6 +2519,12 @@
       <c r="BO9" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2676,6 +2734,12 @@
       <c r="BO10" t="n">
         <v>0.47</v>
       </c>
+      <c r="BP10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2885,6 +2949,12 @@
       <c r="BO11" t="n">
         <v>0.18</v>
       </c>
+      <c r="BP11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3094,6 +3164,12 @@
       <c r="BO12" t="n">
         <v>0.31</v>
       </c>
+      <c r="BP12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3303,6 +3379,12 @@
       <c r="BO13" t="n">
         <v>0.04</v>
       </c>
+      <c r="BP13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3512,6 +3594,12 @@
       <c r="BO14" t="n">
         <v>0.84</v>
       </c>
+      <c r="BP14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3721,6 +3809,12 @@
       <c r="BO15" t="n">
         <v>0.04</v>
       </c>
+      <c r="BP15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3930,6 +4024,12 @@
       <c r="BO16" t="n">
         <v>0.02</v>
       </c>
+      <c r="BP16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4139,6 +4239,12 @@
       <c r="BO17" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP17" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4348,6 +4454,12 @@
       <c r="BO18" t="n">
         <v>0.89</v>
       </c>
+      <c r="BP18" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4557,6 +4669,12 @@
       <c r="BO19" t="n">
         <v>0.01</v>
       </c>
+      <c r="BP19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4766,6 +4884,12 @@
       <c r="BO20" t="n">
         <v>0.005</v>
       </c>
+      <c r="BP20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4975,6 +5099,12 @@
       <c r="BO21" t="n">
         <v>0.095</v>
       </c>
+      <c r="BP21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5184,6 +5314,12 @@
       <c r="BO22" t="n">
         <v>0.82</v>
       </c>
+      <c r="BP22" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5393,6 +5529,12 @@
       <c r="BO23" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5602,6 +5744,12 @@
       <c r="BO24" t="n">
         <v>0.005</v>
       </c>
+      <c r="BP24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5811,6 +5959,12 @@
       <c r="BO25" t="n">
         <v>0.075</v>
       </c>
+      <c r="BP25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6020,6 +6174,12 @@
       <c r="BO26" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BP26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6229,6 +6389,12 @@
       <c r="BO27" t="n">
         <v>0.05</v>
       </c>
+      <c r="BP27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6438,6 +6604,12 @@
       <c r="BO28" t="n">
         <v>0.06</v>
       </c>
+      <c r="BP28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6647,6 +6819,12 @@
       <c r="BO29" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6856,6 +7034,12 @@
       <c r="BO30" t="n">
         <v>0.8</v>
       </c>
+      <c r="BP30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7065,6 +7249,12 @@
       <c r="BO31" t="n">
         <v>0.05</v>
       </c>
+      <c r="BP31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7274,6 +7464,12 @@
       <c r="BO32" t="n">
         <v>0.04</v>
       </c>
+      <c r="BP32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7483,6 +7679,12 @@
       <c r="BO33" t="n">
         <v>0.11</v>
       </c>
+      <c r="BP33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7692,6 +7894,12 @@
       <c r="BO34" t="n">
         <v>0.73</v>
       </c>
+      <c r="BP34" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7901,6 +8109,12 @@
       <c r="BO35" t="n">
         <v>0.09</v>
       </c>
+      <c r="BP35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8110,6 +8324,12 @@
       <c r="BO36" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8319,6 +8539,12 @@
       <c r="BO37" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8528,6 +8754,12 @@
       <c r="BO38" t="n">
         <v>0.66</v>
       </c>
+      <c r="BP38" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8737,6 +8969,12 @@
       <c r="BO39" t="n">
         <v>0.13</v>
       </c>
+      <c r="BP39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8946,6 +9184,12 @@
       <c r="BO40" t="n">
         <v>0.13</v>
       </c>
+      <c r="BP40" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9155,6 +9399,12 @@
       <c r="BO41" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9364,6 +9614,12 @@
       <c r="BO42" t="n">
         <v>0.73</v>
       </c>
+      <c r="BP42" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9573,6 +9829,12 @@
       <c r="BO43" t="n">
         <v>0.11</v>
       </c>
+      <c r="BP43" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9782,6 +10044,12 @@
       <c r="BO44" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9991,6 +10259,12 @@
       <c r="BO45" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10200,6 +10474,12 @@
       <c r="BO46" t="n">
         <v>0.84</v>
       </c>
+      <c r="BP46" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10409,6 +10689,12 @@
       <c r="BO47" t="n">
         <v>0.05</v>
       </c>
+      <c r="BP47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10618,6 +10904,12 @@
       <c r="BO48" t="n">
         <v>0.06</v>
       </c>
+      <c r="BP48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10827,6 +11119,12 @@
       <c r="BO49" t="n">
         <v>0.05</v>
       </c>
+      <c r="BP49" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11036,6 +11334,12 @@
       <c r="BO50" t="n">
         <v>0.64</v>
       </c>
+      <c r="BP50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11245,6 +11549,12 @@
       <c r="BO51" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11454,6 +11764,12 @@
       <c r="BO52" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11663,6 +11979,12 @@
       <c r="BO53" t="n">
         <v>0.18</v>
       </c>
+      <c r="BP53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11872,6 +12194,12 @@
       <c r="BO54" t="n">
         <v>0.76</v>
       </c>
+      <c r="BP54" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12081,6 +12409,12 @@
       <c r="BO55" t="n">
         <v>0.04</v>
       </c>
+      <c r="BP55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12290,6 +12624,12 @@
       <c r="BO56" t="n">
         <v>0.06</v>
       </c>
+      <c r="BP56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12499,6 +12839,12 @@
       <c r="BO57" t="n">
         <v>0.14</v>
       </c>
+      <c r="BP57" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12708,6 +13054,12 @@
       <c r="BO58" t="n">
         <v>0.74</v>
       </c>
+      <c r="BP58" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12917,6 +13269,12 @@
       <c r="BO59" t="n">
         <v>0.13</v>
       </c>
+      <c r="BP59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13126,6 +13484,12 @@
       <c r="BO60" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP60" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13335,6 +13699,12 @@
       <c r="BO61" t="n">
         <v>0.03</v>
       </c>
+      <c r="BP61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13544,6 +13914,12 @@
       <c r="BO62" t="n">
         <v>0.79</v>
       </c>
+      <c r="BP62" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13753,6 +14129,12 @@
       <c r="BO63" t="n">
         <v>0.06</v>
       </c>
+      <c r="BP63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13962,6 +14344,12 @@
       <c r="BO64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BP64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14171,6 +14559,12 @@
       <c r="BO65" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP65" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14380,6 +14774,12 @@
       <c r="BO66" t="n">
         <v>0.82</v>
       </c>
+      <c r="BP66" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14589,6 +14989,12 @@
       <c r="BO67" t="n">
         <v>0.03</v>
       </c>
+      <c r="BP67" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14798,6 +15204,12 @@
       <c r="BO68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BP68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15007,6 +15419,12 @@
       <c r="BO69" t="n">
         <v>0.12</v>
       </c>
+      <c r="BP69" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15216,6 +15634,12 @@
       <c r="BO70" t="n">
         <v>0.78</v>
       </c>
+      <c r="BP70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15425,6 +15849,12 @@
       <c r="BO71" t="n">
         <v>0.09</v>
       </c>
+      <c r="BP71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15634,6 +16064,12 @@
       <c r="BO72" t="n">
         <v>0.08</v>
       </c>
+      <c r="BP72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15843,6 +16279,12 @@
       <c r="BO73" t="n">
         <v>0.05</v>
       </c>
+      <c r="BP73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16052,6 +16494,12 @@
       <c r="BO74" t="n">
         <v>0.71</v>
       </c>
+      <c r="BP74" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16261,6 +16709,12 @@
       <c r="BO75" t="n">
         <v>0.1</v>
       </c>
+      <c r="BP75" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16470,6 +16924,12 @@
       <c r="BO76" t="n">
         <v>0.13</v>
       </c>
+      <c r="BP76" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16679,11 +17139,17 @@
       <c r="BO77" t="n">
         <v>0.06</v>
       </c>
+      <c r="BP77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
     </row>
@@ -16698,7 +17164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN21"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17037,6 +17503,16 @@
           <t>11.–17. 10. 2021</t>
         </is>
       </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>25.–31. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17241,6 +17717,12 @@
       <c r="BN2" t="n">
         <v>1041</v>
       </c>
+      <c r="BO2" t="n">
+        <v>955</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17445,6 +17927,12 @@
       <c r="BN3" t="n">
         <v>304</v>
       </c>
+      <c r="BO3" t="n">
+        <v>258</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17649,6 +18137,12 @@
       <c r="BN4" t="n">
         <v>101</v>
       </c>
+      <c r="BO4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17853,6 +18347,12 @@
       <c r="BN5" t="n">
         <v>258</v>
       </c>
+      <c r="BO5" t="n">
+        <v>254</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18057,6 +18557,12 @@
       <c r="BN6" t="n">
         <v>150</v>
       </c>
+      <c r="BO6" t="n">
+        <v>134</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18261,6 +18767,12 @@
       <c r="BN7" t="n">
         <v>85</v>
       </c>
+      <c r="BO7" t="n">
+        <v>83</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18465,6 +18977,12 @@
       <c r="BN8" t="n">
         <v>518</v>
       </c>
+      <c r="BO8" t="n">
+        <v>471</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>471</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18669,6 +19187,12 @@
       <c r="BN9" t="n">
         <v>245</v>
       </c>
+      <c r="BO9" t="n">
+        <v>232</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18873,6 +19397,12 @@
       <c r="BN10" t="n">
         <v>131</v>
       </c>
+      <c r="BO10" t="n">
+        <v>118</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19077,6 +19607,12 @@
       <c r="BN11" t="n">
         <v>147</v>
       </c>
+      <c r="BO11" t="n">
+        <v>134</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19281,6 +19817,12 @@
       <c r="BN12" t="n">
         <v>265</v>
       </c>
+      <c r="BO12" t="n">
+        <v>237</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19485,6 +20027,12 @@
       <c r="BN13" t="n">
         <v>589</v>
       </c>
+      <c r="BO13" t="n">
+        <v>540</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>540</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19689,6 +20237,12 @@
       <c r="BN14" t="n">
         <v>187</v>
       </c>
+      <c r="BO14" t="n">
+        <v>178</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19893,6 +20447,12 @@
       <c r="BN15" t="n">
         <v>191</v>
       </c>
+      <c r="BO15" t="n">
+        <v>267</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20097,6 +20657,12 @@
       <c r="BN16" t="n">
         <v>164</v>
       </c>
+      <c r="BO16" t="n">
+        <v>236</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20301,6 +20867,12 @@
       <c r="BN17" t="n">
         <v>686</v>
       </c>
+      <c r="BO17" t="n">
+        <v>452</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -20505,6 +21077,12 @@
       <c r="BN18" t="n">
         <v>390</v>
       </c>
+      <c r="BO18" t="n">
+        <v>353</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20709,6 +21287,12 @@
       <c r="BN19" t="n">
         <v>411</v>
       </c>
+      <c r="BO19" t="n">
+        <v>373</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20913,11 +21497,17 @@
       <c r="BN20" t="n">
         <v>240</v>
       </c>
+      <c r="BO20" t="n">
+        <v>229</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -20985,6 +21575,8 @@
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ78"/>
+  <dimension ref="A1:BS78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,16 @@
           <t>1.–7. 11. 2021</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 11. 2021</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1020,6 +1030,12 @@
       <c r="BQ2" t="n">
         <v>0.76</v>
       </c>
+      <c r="BR2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1235,6 +1251,12 @@
       <c r="BQ3" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1450,6 +1472,12 @@
       <c r="BQ4" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BR4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1665,6 +1693,12 @@
       <c r="BQ5" t="n">
         <v>0.09</v>
       </c>
+      <c r="BR5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1880,6 +1914,12 @@
       <c r="BQ6" t="n">
         <v>0.76</v>
       </c>
+      <c r="BR6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2095,6 +2135,12 @@
       <c r="BQ7" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2310,6 +2356,12 @@
       <c r="BQ8" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2525,6 +2577,12 @@
       <c r="BQ9" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2740,6 +2798,12 @@
       <c r="BQ10" t="n">
         <v>0.52</v>
       </c>
+      <c r="BR10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2955,6 +3019,12 @@
       <c r="BQ11" t="n">
         <v>0.11</v>
       </c>
+      <c r="BR11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3170,6 +3240,12 @@
       <c r="BQ12" t="n">
         <v>0.33</v>
       </c>
+      <c r="BR12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3385,6 +3461,12 @@
       <c r="BQ13" t="n">
         <v>0.04</v>
       </c>
+      <c r="BR13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3600,6 +3682,12 @@
       <c r="BQ14" t="n">
         <v>0.84</v>
       </c>
+      <c r="BR14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3815,6 +3903,12 @@
       <c r="BQ15" t="n">
         <v>0.05</v>
       </c>
+      <c r="BR15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4030,6 +4124,12 @@
       <c r="BQ16" t="n">
         <v>0.015</v>
       </c>
+      <c r="BR16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4245,6 +4345,12 @@
       <c r="BQ17" t="n">
         <v>0.095</v>
       </c>
+      <c r="BR17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4460,6 +4566,12 @@
       <c r="BQ18" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BR18" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4675,6 +4787,12 @@
       <c r="BQ19" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4890,6 +5008,12 @@
       <c r="BQ20" t="n">
         <v>0.015</v>
       </c>
+      <c r="BR20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5105,6 +5229,12 @@
       <c r="BQ21" t="n">
         <v>0.115</v>
       </c>
+      <c r="BR21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5320,6 +5450,12 @@
       <c r="BQ22" t="n">
         <v>0.79</v>
       </c>
+      <c r="BR22" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5535,6 +5671,12 @@
       <c r="BQ23" t="n">
         <v>0.1</v>
       </c>
+      <c r="BR23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5750,6 +5892,12 @@
       <c r="BQ24" t="n">
         <v>0.05</v>
       </c>
+      <c r="BR24" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5965,6 +6113,12 @@
       <c r="BQ25" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR25" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6180,6 +6334,12 @@
       <c r="BQ26" t="n">
         <v>0.79</v>
       </c>
+      <c r="BR26" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6395,6 +6555,12 @@
       <c r="BQ27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BR27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6610,6 +6776,12 @@
       <c r="BQ28" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6825,6 +6997,12 @@
       <c r="BQ29" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7040,6 +7218,12 @@
       <c r="BQ30" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BR30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7255,6 +7439,12 @@
       <c r="BQ31" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7470,6 +7660,12 @@
       <c r="BQ32" t="n">
         <v>0.03</v>
       </c>
+      <c r="BR32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7685,6 +7881,12 @@
       <c r="BQ33" t="n">
         <v>0.1</v>
       </c>
+      <c r="BR33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7900,6 +8102,12 @@
       <c r="BQ34" t="n">
         <v>0.66</v>
       </c>
+      <c r="BR34" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8115,6 +8323,12 @@
       <c r="BQ35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BR35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8330,6 +8544,12 @@
       <c r="BQ36" t="n">
         <v>0.16</v>
       </c>
+      <c r="BR36" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8545,6 +8765,12 @@
       <c r="BQ37" t="n">
         <v>0.11</v>
       </c>
+      <c r="BR37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8760,6 +8986,12 @@
       <c r="BQ38" t="n">
         <v>0.67</v>
       </c>
+      <c r="BR38" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8975,6 +9207,12 @@
       <c r="BQ39" t="n">
         <v>0.13</v>
       </c>
+      <c r="BR39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9190,6 +9428,12 @@
       <c r="BQ40" t="n">
         <v>0.14</v>
       </c>
+      <c r="BR40" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9405,6 +9649,12 @@
       <c r="BQ41" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9620,6 +9870,12 @@
       <c r="BQ42" t="n">
         <v>0.73</v>
       </c>
+      <c r="BR42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9835,6 +10091,12 @@
       <c r="BQ43" t="n">
         <v>0.13</v>
       </c>
+      <c r="BR43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10050,6 +10312,12 @@
       <c r="BQ44" t="n">
         <v>0.1</v>
       </c>
+      <c r="BR44" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10265,6 +10533,12 @@
       <c r="BQ45" t="n">
         <v>0.04</v>
       </c>
+      <c r="BR45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10480,6 +10754,12 @@
       <c r="BQ46" t="n">
         <v>0.82</v>
       </c>
+      <c r="BR46" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10695,6 +10975,12 @@
       <c r="BQ47" t="n">
         <v>0.04</v>
       </c>
+      <c r="BR47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10910,6 +11196,12 @@
       <c r="BQ48" t="n">
         <v>0.05</v>
       </c>
+      <c r="BR48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11125,6 +11417,12 @@
       <c r="BQ49" t="n">
         <v>0.09</v>
       </c>
+      <c r="BR49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11340,6 +11638,12 @@
       <c r="BQ50" t="n">
         <v>0.63</v>
       </c>
+      <c r="BR50" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11555,6 +11859,12 @@
       <c r="BQ51" t="n">
         <v>0.1</v>
       </c>
+      <c r="BR51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11770,6 +12080,12 @@
       <c r="BQ52" t="n">
         <v>0.12</v>
       </c>
+      <c r="BR52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11985,6 +12301,12 @@
       <c r="BQ53" t="n">
         <v>0.15</v>
       </c>
+      <c r="BR53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12200,6 +12522,12 @@
       <c r="BQ54" t="n">
         <v>0.74</v>
       </c>
+      <c r="BR54" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12415,6 +12743,12 @@
       <c r="BQ55" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12630,6 +12964,12 @@
       <c r="BQ56" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BR56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12845,6 +13185,12 @@
       <c r="BQ57" t="n">
         <v>0.11</v>
       </c>
+      <c r="BR57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13060,6 +13406,12 @@
       <c r="BQ58" t="n">
         <v>0.78</v>
       </c>
+      <c r="BR58" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13275,6 +13627,12 @@
       <c r="BQ59" t="n">
         <v>0.05</v>
       </c>
+      <c r="BR59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13490,6 +13848,12 @@
       <c r="BQ60" t="n">
         <v>0.09</v>
       </c>
+      <c r="BR60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13705,6 +14069,12 @@
       <c r="BQ61" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13920,6 +14290,12 @@
       <c r="BQ62" t="n">
         <v>0.76</v>
       </c>
+      <c r="BR62" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14135,6 +14511,12 @@
       <c r="BQ63" t="n">
         <v>0.09</v>
       </c>
+      <c r="BR63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14350,6 +14732,12 @@
       <c r="BQ64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BR64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14565,6 +14953,12 @@
       <c r="BQ65" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14780,6 +15174,12 @@
       <c r="BQ66" t="n">
         <v>0.79</v>
       </c>
+      <c r="BR66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14995,6 +15395,12 @@
       <c r="BQ67" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15210,6 +15616,12 @@
       <c r="BQ68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BR68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15425,6 +15837,12 @@
       <c r="BQ69" t="n">
         <v>0.12</v>
       </c>
+      <c r="BR69" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15640,6 +16058,12 @@
       <c r="BQ70" t="n">
         <v>0.78</v>
       </c>
+      <c r="BR70" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15855,6 +16279,12 @@
       <c r="BQ71" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR71" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16070,6 +16500,12 @@
       <c r="BQ72" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16285,6 +16721,12 @@
       <c r="BQ73" t="n">
         <v>0.08</v>
       </c>
+      <c r="BR73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16500,6 +16942,12 @@
       <c r="BQ74" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BR74" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16715,6 +17163,12 @@
       <c r="BQ75" t="n">
         <v>0.13</v>
       </c>
+      <c r="BR75" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16930,6 +17384,12 @@
       <c r="BQ76" t="n">
         <v>0.12</v>
       </c>
+      <c r="BR76" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17145,11 +17605,17 @@
       <c r="BQ77" t="n">
         <v>0.06</v>
       </c>
+      <c r="BR77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17513,6 +17979,16 @@
           <t>1.–7. 11. 2021</t>
         </is>
       </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 11. 2021</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17723,6 +18199,12 @@
       <c r="BP2" t="n">
         <v>955</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>1018</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1018</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17933,6 +18415,12 @@
       <c r="BP3" t="n">
         <v>258</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>286</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18143,6 +18631,12 @@
       <c r="BP4" t="n">
         <v>90</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>102</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18353,6 +18847,12 @@
       <c r="BP5" t="n">
         <v>254</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18563,6 +19063,12 @@
       <c r="BP6" t="n">
         <v>134</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>143</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18773,6 +19279,12 @@
       <c r="BP7" t="n">
         <v>83</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>91</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18983,6 +19495,12 @@
       <c r="BP8" t="n">
         <v>471</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>494</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19193,6 +19711,12 @@
       <c r="BP9" t="n">
         <v>232</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>249</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19403,6 +19927,12 @@
       <c r="BP10" t="n">
         <v>118</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>127</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19613,6 +20143,12 @@
       <c r="BP11" t="n">
         <v>134</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>148</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19823,6 +20359,12 @@
       <c r="BP12" t="n">
         <v>237</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>273</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20033,6 +20575,12 @@
       <c r="BP13" t="n">
         <v>540</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>560</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20243,6 +20791,12 @@
       <c r="BP14" t="n">
         <v>178</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>185</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20453,6 +21007,12 @@
       <c r="BP15" t="n">
         <v>267</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>387</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20663,6 +21223,12 @@
       <c r="BP16" t="n">
         <v>236</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>315</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20873,6 +21439,12 @@
       <c r="BP17" t="n">
         <v>452</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>316</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -21083,6 +21655,12 @@
       <c r="BP18" t="n">
         <v>353</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>374</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21293,6 +21871,12 @@
       <c r="BP19" t="n">
         <v>373</v>
       </c>
+      <c r="BQ19" t="n">
+        <v>400</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21503,11 +22087,17 @@
       <c r="BP20" t="n">
         <v>229</v>
       </c>
+      <c r="BQ20" t="n">
+        <v>244</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -21577,6 +22167,8 @@
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS78"/>
+  <dimension ref="A1:BU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,16 @@
           <t>22.–28. 11. 2021</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 12. 2021</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1036,6 +1046,12 @@
       <c r="BS2" t="n">
         <v>0.76</v>
       </c>
+      <c r="BT2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1257,6 +1273,12 @@
       <c r="BS3" t="n">
         <v>0.06</v>
       </c>
+      <c r="BT3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1478,6 +1500,12 @@
       <c r="BS4" t="n">
         <v>0.1</v>
       </c>
+      <c r="BT4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1699,6 +1727,12 @@
       <c r="BS5" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1920,6 +1954,12 @@
       <c r="BS6" t="n">
         <v>0.76</v>
       </c>
+      <c r="BT6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2141,6 +2181,12 @@
       <c r="BS7" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2362,6 +2408,12 @@
       <c r="BS8" t="n">
         <v>0.1</v>
       </c>
+      <c r="BT8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2583,6 +2635,12 @@
       <c r="BS9" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2804,6 +2862,12 @@
       <c r="BS10" t="n">
         <v>0.42</v>
       </c>
+      <c r="BT10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3025,6 +3089,12 @@
       <c r="BS11" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3246,6 +3316,12 @@
       <c r="BS12" t="n">
         <v>0.45</v>
       </c>
+      <c r="BT12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3467,6 +3543,12 @@
       <c r="BS13" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3688,6 +3770,12 @@
       <c r="BS14" t="n">
         <v>0.85</v>
       </c>
+      <c r="BT14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3909,6 +3997,12 @@
       <c r="BS15" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4130,6 +4224,12 @@
       <c r="BS16" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4351,6 +4451,12 @@
       <c r="BS17" t="n">
         <v>0.06</v>
       </c>
+      <c r="BT17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4572,6 +4678,12 @@
       <c r="BS18" t="n">
         <v>0.87</v>
       </c>
+      <c r="BT18" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4793,6 +4905,12 @@
       <c r="BS19" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5014,6 +5132,12 @@
       <c r="BS20" t="n">
         <v>0.015</v>
       </c>
+      <c r="BT20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5235,6 +5359,12 @@
       <c r="BS21" t="n">
         <v>0.065</v>
       </c>
+      <c r="BT21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5456,6 +5586,12 @@
       <c r="BS22" t="n">
         <v>0.82</v>
       </c>
+      <c r="BT22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5677,6 +5813,12 @@
       <c r="BS23" t="n">
         <v>0.1</v>
       </c>
+      <c r="BT23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5898,6 +6040,12 @@
       <c r="BS24" t="n">
         <v>0.005</v>
       </c>
+      <c r="BT24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6119,6 +6267,12 @@
       <c r="BS25" t="n">
         <v>0.075</v>
       </c>
+      <c r="BT25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6340,6 +6494,12 @@
       <c r="BS26" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BT26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6561,6 +6721,12 @@
       <c r="BS27" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6782,6 +6948,12 @@
       <c r="BS28" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BT28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7003,6 +7175,12 @@
       <c r="BS29" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BT29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7224,6 +7402,12 @@
       <c r="BS30" t="n">
         <v>0.79</v>
       </c>
+      <c r="BT30" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7445,6 +7629,12 @@
       <c r="BS31" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7666,6 +7856,12 @@
       <c r="BS32" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7887,6 +8083,12 @@
       <c r="BS33" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8108,6 +8310,12 @@
       <c r="BS34" t="n">
         <v>0.64</v>
       </c>
+      <c r="BT34" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8329,6 +8537,12 @@
       <c r="BS35" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8550,6 +8764,12 @@
       <c r="BS36" t="n">
         <v>0.17</v>
       </c>
+      <c r="BT36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8771,6 +8991,12 @@
       <c r="BS37" t="n">
         <v>0.14</v>
       </c>
+      <c r="BT37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8992,6 +9218,12 @@
       <c r="BS38" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BT38" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9213,6 +9445,12 @@
       <c r="BS39" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9434,6 +9672,12 @@
       <c r="BS40" t="n">
         <v>0.13</v>
       </c>
+      <c r="BT40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9655,6 +9899,12 @@
       <c r="BS41" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9876,6 +10126,12 @@
       <c r="BS42" t="n">
         <v>0.73</v>
       </c>
+      <c r="BT42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10097,6 +10353,12 @@
       <c r="BS43" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT43" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10318,6 +10580,12 @@
       <c r="BS44" t="n">
         <v>0.15</v>
       </c>
+      <c r="BT44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10539,6 +10807,12 @@
       <c r="BS45" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10760,6 +11034,12 @@
       <c r="BS46" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="BT46" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10981,6 +11261,12 @@
       <c r="BS47" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11202,6 +11488,12 @@
       <c r="BS48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BT48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11423,6 +11715,12 @@
       <c r="BS49" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT49" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11644,6 +11942,12 @@
       <c r="BS50" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BT50" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11865,6 +12169,12 @@
       <c r="BS51" t="n">
         <v>0.08</v>
       </c>
+      <c r="BT51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12086,6 +12396,12 @@
       <c r="BS52" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12307,6 +12623,12 @@
       <c r="BS53" t="n">
         <v>0.14</v>
       </c>
+      <c r="BT53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12528,6 +12850,12 @@
       <c r="BS54" t="n">
         <v>0.73</v>
       </c>
+      <c r="BT54" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12749,6 +13077,12 @@
       <c r="BS55" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BT55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12970,6 +13304,12 @@
       <c r="BS56" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BT56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13191,6 +13531,12 @@
       <c r="BS57" t="n">
         <v>0.13</v>
       </c>
+      <c r="BT57" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13412,6 +13758,12 @@
       <c r="BS58" t="n">
         <v>0.8</v>
       </c>
+      <c r="BT58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13633,6 +13985,12 @@
       <c r="BS59" t="n">
         <v>0.06</v>
       </c>
+      <c r="BT59" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13854,6 +14212,12 @@
       <c r="BS60" t="n">
         <v>0.1</v>
       </c>
+      <c r="BT60" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14075,6 +14439,12 @@
       <c r="BS61" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14296,6 +14666,12 @@
       <c r="BS62" t="n">
         <v>0.78</v>
       </c>
+      <c r="BT62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14517,6 +14893,12 @@
       <c r="BS63" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14738,6 +15120,12 @@
       <c r="BS64" t="n">
         <v>0.13</v>
       </c>
+      <c r="BT64" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14959,6 +15347,12 @@
       <c r="BS65" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT65" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15180,6 +15574,12 @@
       <c r="BS66" t="n">
         <v>0.85</v>
       </c>
+      <c r="BT66" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15401,6 +15801,12 @@
       <c r="BS67" t="n">
         <v>0.02</v>
       </c>
+      <c r="BT67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15622,6 +16028,12 @@
       <c r="BS68" t="n">
         <v>0.04</v>
       </c>
+      <c r="BT68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15843,6 +16255,12 @@
       <c r="BS69" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT69" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0.305</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16064,6 +16482,12 @@
       <c r="BS70" t="n">
         <v>0.74</v>
       </c>
+      <c r="BT70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16285,6 +16709,12 @@
       <c r="BS71" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT71" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16506,6 +16936,12 @@
       <c r="BS72" t="n">
         <v>0.12</v>
       </c>
+      <c r="BT72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16727,6 +17163,12 @@
       <c r="BS73" t="n">
         <v>0.09</v>
       </c>
+      <c r="BT73" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16948,6 +17390,12 @@
       <c r="BS74" t="n">
         <v>0.68</v>
       </c>
+      <c r="BT74" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17169,6 +17617,12 @@
       <c r="BS75" t="n">
         <v>0.12</v>
       </c>
+      <c r="BT75" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17390,6 +17844,12 @@
       <c r="BS76" t="n">
         <v>0.15</v>
       </c>
+      <c r="BT76" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17611,11 +18071,17 @@
       <c r="BS77" t="n">
         <v>0.05</v>
       </c>
+      <c r="BT77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -17630,7 +18096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR21"/>
+  <dimension ref="A1:BT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17989,6 +18455,16 @@
           <t>22.–28. 11. 2021</t>
         </is>
       </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 12. 2021</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18205,6 +18681,12 @@
       <c r="BR2" t="n">
         <v>1018</v>
       </c>
+      <c r="BS2" t="n">
+        <v>994</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>994</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18421,6 +18903,12 @@
       <c r="BR3" t="n">
         <v>286</v>
       </c>
+      <c r="BS3" t="n">
+        <v>273</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18637,6 +19125,12 @@
       <c r="BR4" t="n">
         <v>102</v>
       </c>
+      <c r="BS4" t="n">
+        <v>87</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18853,6 +19347,12 @@
       <c r="BR5" t="n">
         <v>250</v>
       </c>
+      <c r="BS5" t="n">
+        <v>275</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19069,6 +19569,12 @@
       <c r="BR6" t="n">
         <v>143</v>
       </c>
+      <c r="BS6" t="n">
+        <v>149</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19285,6 +19791,12 @@
       <c r="BR7" t="n">
         <v>91</v>
       </c>
+      <c r="BS7" t="n">
+        <v>79</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19501,6 +20013,12 @@
       <c r="BR8" t="n">
         <v>494</v>
       </c>
+      <c r="BS8" t="n">
+        <v>487</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>487</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19717,6 +20235,12 @@
       <c r="BR9" t="n">
         <v>249</v>
       </c>
+      <c r="BS9" t="n">
+        <v>264</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19933,6 +20457,12 @@
       <c r="BR10" t="n">
         <v>127</v>
       </c>
+      <c r="BS10" t="n">
+        <v>112</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -20149,6 +20679,12 @@
       <c r="BR11" t="n">
         <v>148</v>
       </c>
+      <c r="BS11" t="n">
+        <v>131</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20365,6 +20901,12 @@
       <c r="BR12" t="n">
         <v>273</v>
       </c>
+      <c r="BS12" t="n">
+        <v>264</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20581,6 +21123,12 @@
       <c r="BR13" t="n">
         <v>560</v>
       </c>
+      <c r="BS13" t="n">
+        <v>552</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>552</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20797,6 +21345,12 @@
       <c r="BR14" t="n">
         <v>185</v>
       </c>
+      <c r="BS14" t="n">
+        <v>178</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -21013,6 +21567,12 @@
       <c r="BR15" t="n">
         <v>387</v>
       </c>
+      <c r="BS15" t="n">
+        <v>402</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -21229,6 +21789,12 @@
       <c r="BR16" t="n">
         <v>315</v>
       </c>
+      <c r="BS16" t="n">
+        <v>218</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21445,6 +22011,12 @@
       <c r="BR17" t="n">
         <v>316</v>
       </c>
+      <c r="BS17" t="n">
+        <v>374</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -21661,6 +22233,12 @@
       <c r="BR18" t="n">
         <v>374</v>
       </c>
+      <c r="BS18" t="n">
+        <v>381</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21877,6 +22455,12 @@
       <c r="BR19" t="n">
         <v>400</v>
       </c>
+      <c r="BS19" t="n">
+        <v>380</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -22093,11 +22677,17 @@
       <c r="BR20" t="n">
         <v>244</v>
       </c>
+      <c r="BS20" t="n">
+        <v>233</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -22169,6 +22759,8 @@
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU78"/>
+  <dimension ref="A1:BW78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,6 +825,16 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>10.–16. 1. 2022</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1052,6 +1062,12 @@
       <c r="BU2" t="n">
         <v>0.57</v>
       </c>
+      <c r="BV2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1279,6 +1295,12 @@
       <c r="BU3" t="n">
         <v>0.13</v>
       </c>
+      <c r="BV3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1506,6 +1528,12 @@
       <c r="BU4" t="n">
         <v>0.08</v>
       </c>
+      <c r="BV4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1733,6 +1761,12 @@
       <c r="BU5" t="n">
         <v>0.22</v>
       </c>
+      <c r="BV5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1960,6 +1994,12 @@
       <c r="BU6" t="n">
         <v>0.61</v>
       </c>
+      <c r="BV6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2187,6 +2227,12 @@
       <c r="BU7" t="n">
         <v>0.09</v>
       </c>
+      <c r="BV7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2414,6 +2460,12 @@
       <c r="BU8" t="n">
         <v>0.09</v>
       </c>
+      <c r="BV8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2641,6 +2693,12 @@
       <c r="BU9" t="n">
         <v>0.21</v>
       </c>
+      <c r="BV9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2868,6 +2926,12 @@
       <c r="BU10" t="n">
         <v>0.25</v>
       </c>
+      <c r="BV10" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3095,6 +3159,12 @@
       <c r="BU11" t="n">
         <v>0.14</v>
       </c>
+      <c r="BV11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3322,6 +3392,12 @@
       <c r="BU12" t="n">
         <v>0.35</v>
       </c>
+      <c r="BV12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3549,6 +3625,12 @@
       <c r="BU13" t="n">
         <v>0.26</v>
       </c>
+      <c r="BV13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3776,6 +3858,12 @@
       <c r="BU14" t="n">
         <v>0.6</v>
       </c>
+      <c r="BV14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4003,6 +4091,12 @@
       <c r="BU15" t="n">
         <v>0.14</v>
       </c>
+      <c r="BV15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4230,6 +4324,12 @@
       <c r="BU16" t="n">
         <v>0.03</v>
       </c>
+      <c r="BV16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4457,6 +4557,12 @@
       <c r="BU17" t="n">
         <v>0.23</v>
       </c>
+      <c r="BV17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4684,6 +4790,12 @@
       <c r="BU18" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="BV18" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4911,6 +5023,12 @@
       <c r="BU19" t="n">
         <v>0.11</v>
       </c>
+      <c r="BV19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5138,6 +5256,12 @@
       <c r="BU20" t="n">
         <v>0.04</v>
       </c>
+      <c r="BV20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5365,6 +5489,12 @@
       <c r="BU21" t="n">
         <v>0.16</v>
       </c>
+      <c r="BV21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5592,6 +5722,12 @@
       <c r="BU22" t="n">
         <v>0.43</v>
       </c>
+      <c r="BV22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5819,6 +5955,12 @@
       <c r="BU23" t="n">
         <v>0.34</v>
       </c>
+      <c r="BV23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6046,6 +6188,12 @@
       <c r="BU24" t="n">
         <v>0.03</v>
       </c>
+      <c r="BV24" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6273,6 +6421,12 @@
       <c r="BU25" t="n">
         <v>0.2</v>
       </c>
+      <c r="BV25" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6500,6 +6654,12 @@
       <c r="BU26" t="n">
         <v>0.58</v>
       </c>
+      <c r="BV26" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6727,6 +6887,12 @@
       <c r="BU27" t="n">
         <v>0.12</v>
       </c>
+      <c r="BV27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6954,6 +7120,12 @@
       <c r="BU28" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BV28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7181,6 +7353,12 @@
       <c r="BU29" t="n">
         <v>0.23</v>
       </c>
+      <c r="BV29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7408,6 +7586,12 @@
       <c r="BU30" t="n">
         <v>0.63</v>
       </c>
+      <c r="BV30" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7635,6 +7819,12 @@
       <c r="BU31" t="n">
         <v>0.14</v>
       </c>
+      <c r="BV31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7862,6 +8052,12 @@
       <c r="BU32" t="n">
         <v>0.05</v>
       </c>
+      <c r="BV32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8089,6 +8285,12 @@
       <c r="BU33" t="n">
         <v>0.18</v>
       </c>
+      <c r="BV33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8316,6 +8518,12 @@
       <c r="BU34" t="n">
         <v>0.47</v>
       </c>
+      <c r="BV34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8543,6 +8751,12 @@
       <c r="BU35" t="n">
         <v>0.08</v>
       </c>
+      <c r="BV35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8770,6 +8984,12 @@
       <c r="BU36" t="n">
         <v>0.14</v>
       </c>
+      <c r="BV36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8997,6 +9217,12 @@
       <c r="BU37" t="n">
         <v>0.31</v>
       </c>
+      <c r="BV37" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9224,6 +9450,12 @@
       <c r="BU38" t="n">
         <v>0.51</v>
       </c>
+      <c r="BV38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9451,6 +9683,12 @@
       <c r="BU39" t="n">
         <v>0.16</v>
       </c>
+      <c r="BV39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9678,6 +9916,12 @@
       <c r="BU40" t="n">
         <v>0.14</v>
       </c>
+      <c r="BV40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9905,6 +10149,12 @@
       <c r="BU41" t="n">
         <v>0.19</v>
       </c>
+      <c r="BV41" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10132,6 +10382,12 @@
       <c r="BU42" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BV42" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10359,6 +10615,12 @@
       <c r="BU43" t="n">
         <v>0.13</v>
       </c>
+      <c r="BV43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10586,6 +10848,12 @@
       <c r="BU44" t="n">
         <v>0.1</v>
       </c>
+      <c r="BV44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10813,6 +11081,12 @@
       <c r="BU45" t="n">
         <v>0.21</v>
       </c>
+      <c r="BV45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11040,6 +11314,12 @@
       <c r="BU46" t="n">
         <v>0.61</v>
       </c>
+      <c r="BV46" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11267,6 +11547,12 @@
       <c r="BU47" t="n">
         <v>0.13</v>
       </c>
+      <c r="BV47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11494,6 +11780,12 @@
       <c r="BU48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BV48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11721,6 +12013,12 @@
       <c r="BU49" t="n">
         <v>0.19</v>
       </c>
+      <c r="BV49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11948,6 +12246,12 @@
       <c r="BU50" t="n">
         <v>0.46</v>
       </c>
+      <c r="BV50" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12175,6 +12479,12 @@
       <c r="BU51" t="n">
         <v>0.12</v>
       </c>
+      <c r="BV51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12402,6 +12712,12 @@
       <c r="BU52" t="n">
         <v>0.09</v>
       </c>
+      <c r="BV52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12629,6 +12945,12 @@
       <c r="BU53" t="n">
         <v>0.33</v>
       </c>
+      <c r="BV53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12856,6 +13178,12 @@
       <c r="BU54" t="n">
         <v>0.58</v>
       </c>
+      <c r="BV54" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13083,6 +13411,12 @@
       <c r="BU55" t="n">
         <v>0.1</v>
       </c>
+      <c r="BV55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13310,6 +13644,12 @@
       <c r="BU56" t="n">
         <v>0.09</v>
       </c>
+      <c r="BV56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13537,6 +13877,12 @@
       <c r="BU57" t="n">
         <v>0.23</v>
       </c>
+      <c r="BV57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13764,6 +14110,12 @@
       <c r="BU58" t="n">
         <v>0.57</v>
       </c>
+      <c r="BV58" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13991,6 +14343,12 @@
       <c r="BU59" t="n">
         <v>0.13</v>
       </c>
+      <c r="BV59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14218,6 +14576,12 @@
       <c r="BU60" t="n">
         <v>0.08</v>
       </c>
+      <c r="BV60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14445,6 +14809,12 @@
       <c r="BU61" t="n">
         <v>0.22</v>
       </c>
+      <c r="BV61" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14672,6 +15042,12 @@
       <c r="BU62" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BV62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14899,6 +15275,12 @@
       <c r="BU63" t="n">
         <v>0.15</v>
       </c>
+      <c r="BV63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15126,6 +15508,12 @@
       <c r="BU64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BV64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15353,6 +15741,12 @@
       <c r="BU65" t="n">
         <v>0.22</v>
       </c>
+      <c r="BV65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15580,6 +15974,12 @@
       <c r="BU66" t="n">
         <v>0.6</v>
       </c>
+      <c r="BV66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15807,6 +16207,12 @@
       <c r="BU67" t="n">
         <v>0.08</v>
       </c>
+      <c r="BV67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16034,6 +16440,12 @@
       <c r="BU68" t="n">
         <v>0.015</v>
       </c>
+      <c r="BV68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16261,6 +16673,12 @@
       <c r="BU69" t="n">
         <v>0.305</v>
       </c>
+      <c r="BV69" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16488,6 +16906,12 @@
       <c r="BU70" t="n">
         <v>0.6</v>
       </c>
+      <c r="BV70" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16715,6 +17139,12 @@
       <c r="BU71" t="n">
         <v>0.15</v>
       </c>
+      <c r="BV71" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16942,6 +17372,12 @@
       <c r="BU72" t="n">
         <v>0.08</v>
       </c>
+      <c r="BV72" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17169,6 +17605,12 @@
       <c r="BU73" t="n">
         <v>0.17</v>
       </c>
+      <c r="BV73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17396,6 +17838,12 @@
       <c r="BU74" t="n">
         <v>0.47</v>
       </c>
+      <c r="BV74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17623,6 +18071,12 @@
       <c r="BU75" t="n">
         <v>0.18</v>
       </c>
+      <c r="BV75" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17850,6 +18304,12 @@
       <c r="BU76" t="n">
         <v>0.19</v>
       </c>
+      <c r="BV76" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18077,11 +18537,17 @@
       <c r="BU77" t="n">
         <v>0.16</v>
       </c>
+      <c r="BV77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT21"/>
+  <dimension ref="A1:BV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18465,6 +18931,16 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>10.–16. 1. 2022</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18687,6 +19163,12 @@
       <c r="BT2" t="n">
         <v>994</v>
       </c>
+      <c r="BU2" t="n">
+        <v>1008</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1008</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18909,6 +19391,12 @@
       <c r="BT3" t="n">
         <v>273</v>
       </c>
+      <c r="BU3" t="n">
+        <v>282</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19131,6 +19619,12 @@
       <c r="BT4" t="n">
         <v>87</v>
       </c>
+      <c r="BU4" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19353,6 +19847,12 @@
       <c r="BT5" t="n">
         <v>275</v>
       </c>
+      <c r="BU5" t="n">
+        <v>262</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19575,6 +20075,12 @@
       <c r="BT6" t="n">
         <v>149</v>
       </c>
+      <c r="BU6" t="n">
+        <v>140</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19797,6 +20303,12 @@
       <c r="BT7" t="n">
         <v>79</v>
       </c>
+      <c r="BU7" t="n">
+        <v>87</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20019,6 +20531,12 @@
       <c r="BT8" t="n">
         <v>487</v>
       </c>
+      <c r="BU8" t="n">
+        <v>486</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20241,6 +20759,12 @@
       <c r="BT9" t="n">
         <v>264</v>
       </c>
+      <c r="BU9" t="n">
+        <v>248</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20463,6 +20987,12 @@
       <c r="BT10" t="n">
         <v>112</v>
       </c>
+      <c r="BU10" t="n">
+        <v>129</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -20685,6 +21215,12 @@
       <c r="BT11" t="n">
         <v>131</v>
       </c>
+      <c r="BU11" t="n">
+        <v>145</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20907,6 +21443,12 @@
       <c r="BT12" t="n">
         <v>264</v>
       </c>
+      <c r="BU12" t="n">
+        <v>261</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -21129,6 +21671,12 @@
       <c r="BT13" t="n">
         <v>552</v>
       </c>
+      <c r="BU13" t="n">
+        <v>566</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>566</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -21351,6 +21899,12 @@
       <c r="BT14" t="n">
         <v>178</v>
       </c>
+      <c r="BU14" t="n">
+        <v>181</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -21573,6 +22127,12 @@
       <c r="BT15" t="n">
         <v>402</v>
       </c>
+      <c r="BU15" t="n">
+        <v>459</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>459</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -21795,6 +22355,12 @@
       <c r="BT16" t="n">
         <v>218</v>
       </c>
+      <c r="BU16" t="n">
+        <v>233</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -22017,6 +22583,12 @@
       <c r="BT17" t="n">
         <v>374</v>
       </c>
+      <c r="BU17" t="n">
+        <v>316</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -22239,6 +22811,12 @@
       <c r="BT18" t="n">
         <v>381</v>
       </c>
+      <c r="BU18" t="n">
+        <v>361</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -22461,6 +23039,12 @@
       <c r="BT19" t="n">
         <v>380</v>
       </c>
+      <c r="BU19" t="n">
+        <v>400</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -22683,11 +23267,17 @@
       <c r="BT20" t="n">
         <v>233</v>
       </c>
+      <c r="BU20" t="n">
+        <v>247</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -22761,6 +23351,8 @@
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_06_home_office.xlsx
+++ b/ZBP_06_home_office.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW78"/>
+  <dimension ref="A1:BY78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,16 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 2. 2022</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1066,7 +1076,13 @@
         <v>0.76</v>
       </c>
       <c r="BW2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BX2" t="n">
         <v>0.73</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -1301,6 +1317,12 @@
       <c r="BW3" t="n">
         <v>0.09</v>
       </c>
+      <c r="BX3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1534,6 +1556,12 @@
       <c r="BW4" t="n">
         <v>0.09</v>
       </c>
+      <c r="BX4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1765,7 +1793,13 @@
         <v>0.08</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1998,7 +2032,13 @@
         <v>0.67</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -2233,6 +2273,12 @@
       <c r="BW7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BX7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2464,7 +2510,13 @@
         <v>0.11</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -2697,7 +2749,13 @@
         <v>0.14</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -2927,10 +2985,16 @@
         <v>0.25</v>
       </c>
       <c r="BV10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BY10" t="n">
         <v>0.43</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="11">
@@ -3160,10 +3224,16 @@
         <v>0.14</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -3393,10 +3463,16 @@
         <v>0.35</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -3629,7 +3705,13 @@
         <v>0.03</v>
       </c>
       <c r="BW13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BX13" t="n">
         <v>0.03</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
@@ -3864,6 +3946,12 @@
       <c r="BW14" t="n">
         <v>0.85</v>
       </c>
+      <c r="BX14" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4092,10 +4180,16 @@
         <v>0.14</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BW15" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
@@ -4330,6 +4424,12 @@
       <c r="BW16" t="n">
         <v>0.02</v>
       </c>
+      <c r="BX16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4558,10 +4658,16 @@
         <v>0.23</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="BW17" t="n">
         <v>0.06</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
@@ -4791,10 +4897,16 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
@@ -5027,7 +5139,13 @@
         <v>0.05</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
@@ -5260,7 +5378,13 @@
         <v>0.03</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="21">
@@ -5490,10 +5614,16 @@
         <v>0.16</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="BW21" t="n">
         <v>0.08</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5723,10 +5853,16 @@
         <v>0.43</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="BW22" t="n">
         <v>0.78</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="23">
@@ -5961,6 +6097,12 @@
       <c r="BW23" t="n">
         <v>0.14</v>
       </c>
+      <c r="BX23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6194,6 +6336,12 @@
       <c r="BW24" t="n">
         <v>0.02</v>
       </c>
+      <c r="BX24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6422,10 +6570,16 @@
         <v>0.2</v>
       </c>
       <c r="BV25" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="BW25" t="n">
         <v>0.06</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="26">
@@ -6655,10 +6809,16 @@
         <v>0.58</v>
       </c>
       <c r="BV26" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BW26" t="n">
         <v>0.8100000000000001</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="27">
@@ -6888,10 +7048,16 @@
         <v>0.12</v>
       </c>
       <c r="BV27" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="BW27" t="n">
         <v>0.06</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
@@ -7121,10 +7287,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="BV28" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BW28" t="n">
         <v>0.08</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
@@ -7354,10 +7526,16 @@
         <v>0.23</v>
       </c>
       <c r="BV29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="BW29" t="n">
         <v>0.05</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
@@ -7590,6 +7768,12 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="BW30" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BY30" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -7820,9 +8004,15 @@
         <v>0.14</v>
       </c>
       <c r="BV31" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BW31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY31" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -8058,6 +8248,12 @@
       <c r="BW32" t="n">
         <v>0.04</v>
       </c>
+      <c r="BX32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8286,10 +8482,16 @@
         <v>0.18</v>
       </c>
       <c r="BV33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="BW33" t="n">
         <v>0.11</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
@@ -8524,6 +8726,12 @@
       <c r="BW34" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BX34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8755,6 +8963,12 @@
         <v>0.12</v>
       </c>
       <c r="BW35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY35" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -8985,10 +9199,16 @@
         <v>0.14</v>
       </c>
       <c r="BV36" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="BW36" t="n">
         <v>0.15</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="37">
@@ -9218,10 +9438,16 @@
         <v>0.31</v>
       </c>
       <c r="BV37" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="BW37" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -9456,6 +9682,12 @@
       <c r="BW38" t="n">
         <v>0.57</v>
       </c>
+      <c r="BX38" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9689,6 +9921,12 @@
       <c r="BW39" t="n">
         <v>0.17</v>
       </c>
+      <c r="BX39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9922,6 +10160,12 @@
       <c r="BW40" t="n">
         <v>0.15</v>
       </c>
+      <c r="BX40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10155,6 +10399,12 @@
       <c r="BW41" t="n">
         <v>0.11</v>
       </c>
+      <c r="BX41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10383,10 +10633,16 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="BV42" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="BW42" t="n">
         <v>0.76</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -10621,6 +10877,12 @@
       <c r="BW43" t="n">
         <v>0.09</v>
       </c>
+      <c r="BX43" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10854,6 +11116,12 @@
       <c r="BW44" t="n">
         <v>0.12</v>
       </c>
+      <c r="BX44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11082,10 +11350,16 @@
         <v>0.21</v>
       </c>
       <c r="BV45" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="BW45" t="n">
         <v>0.03</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="46">
@@ -11318,7 +11592,13 @@
         <v>0.79</v>
       </c>
       <c r="BW46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BX46" t="n">
         <v>0.75</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="47">
@@ -11553,6 +11833,12 @@
       <c r="BW47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BX47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11786,6 +12072,12 @@
       <c r="BW48" t="n">
         <v>0.08</v>
       </c>
+      <c r="BX48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12017,7 +12309,13 @@
         <v>0.08</v>
       </c>
       <c r="BW49" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="50">
@@ -12247,10 +12545,16 @@
         <v>0.46</v>
       </c>
       <c r="BV50" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="BW50" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="51">
@@ -12483,6 +12787,12 @@
         <v>0.1</v>
       </c>
       <c r="BW51" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY51" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -12718,6 +13028,12 @@
       <c r="BW52" t="n">
         <v>0.08</v>
       </c>
+      <c r="BX52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12946,9 +13262,15 @@
         <v>0.33</v>
       </c>
       <c r="BV53" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="BW53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BY53" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -13179,10 +13501,16 @@
         <v>0.58</v>
       </c>
       <c r="BV54" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="BW54" t="n">
         <v>0.72</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="55">
@@ -13417,6 +13745,12 @@
       <c r="BW55" t="n">
         <v>0.09</v>
       </c>
+      <c r="BX55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13650,6 +13984,12 @@
       <c r="BW56" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BX56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13878,10 +14218,16 @@
         <v>0.23</v>
       </c>
       <c r="BV57" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="BW57" t="n">
         <v>0.12</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="58">
@@ -14116,6 +14462,12 @@
       <c r="BW58" t="n">
         <v>0.72</v>
       </c>
+      <c r="BX58" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14349,6 +14701,12 @@
       <c r="BW59" t="n">
         <v>0.14</v>
       </c>
+      <c r="BX59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14580,7 +14938,13 @@
         <v>0.08</v>
       </c>
       <c r="BW60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="61">
@@ -14813,7 +15177,13 @@
         <v>0.06</v>
       </c>
       <c r="BW61" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="62">
@@ -15043,9 +15413,15 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="BV62" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="BW62" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BY62" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -15281,6 +15657,12 @@
       <c r="BW63" t="n">
         <v>0.04</v>
       </c>
+      <c r="BX63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15514,6 +15896,12 @@
       <c r="BW64" t="n">
         <v>0.13</v>
       </c>
+      <c r="BX64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15742,10 +16130,16 @@
         <v>0.22</v>
       </c>
       <c r="BV65" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="BW65" t="n">
         <v>0.06</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
@@ -15978,7 +16372,13 @@
         <v>0.84</v>
       </c>
       <c r="BW66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="67">
@@ -16213,6 +16613,12 @@
       <c r="BW67" t="n">
         <v>0.03</v>
       </c>
+      <c r="BX67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16446,6 +16852,12 @@
       <c r="BW68" t="n">
         <v>0.03</v>
       </c>
+      <c r="BX68" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16677,7 +17089,13 @@
         <v>0.11</v>
       </c>
       <c r="BW69" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
@@ -16912,6 +17330,12 @@
       <c r="BW70" t="n">
         <v>0.7</v>
       </c>
+      <c r="BX70" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17145,6 +17569,12 @@
       <c r="BW71" t="n">
         <v>0.12</v>
       </c>
+      <c r="BX71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17373,10 +17803,16 @@
         <v>0.08</v>
       </c>
       <c r="BV72" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="BW72" t="n">
         <v>0.1</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="73">
@@ -17606,10 +18042,16 @@
         <v>0.17</v>
       </c>
       <c r="BV73" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="BW73" t="n">
         <v>0.08</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -17844,6 +18286,12 @@
       <c r="BW74" t="n">
         <v>0.66</v>
       </c>
+      <c r="BX74" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18077,6 +18525,12 @@
       <c r="BW75" t="n">
         <v>0.12</v>
       </c>
+      <c r="BX75" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18305,10 +18759,16 @@
         <v>0.19</v>
       </c>
       <c r="BV76" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="BW76" t="n">
         <v>0.17</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="77">
@@ -18538,16 +18998,22 @@
         <v>0.16</v>
       </c>
       <c r="BV77" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BW77" t="n">
         <v>0.05</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Home office, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -18562,7 +19028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV21"/>
+  <dimension ref="A1:BX21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18941,6 +19407,16 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 2. 2022</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19164,10 +19640,16 @@
         <v>994</v>
       </c>
       <c r="BU2" t="n">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="BV2" t="n">
-        <v>1008</v>
+        <v>1029</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="3">
@@ -19392,10 +19874,16 @@
         <v>273</v>
       </c>
       <c r="BU3" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BV3" t="n">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>268</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -19620,10 +20108,16 @@
         <v>87</v>
       </c>
       <c r="BU4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BV4" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>92</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -19848,10 +20342,16 @@
         <v>275</v>
       </c>
       <c r="BU5" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BV5" t="n">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>273</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="6">
@@ -20076,10 +20576,16 @@
         <v>149</v>
       </c>
       <c r="BU6" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BV6" t="n">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>133</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -20304,9 +20810,15 @@
         <v>79</v>
       </c>
       <c r="BU7" t="n">
+        <v>88</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>88</v>
+      </c>
+      <c r="BW7" t="n">
         <v>87</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BX7" t="n">
         <v>87</v>
       </c>
     </row>
@@ -20532,10 +21044,16 @@
         <v>487</v>
       </c>
       <c r="BU8" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="BV8" t="n">
-        <v>486</v>
+        <v>498</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>485</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="9">
@@ -20760,10 +21278,16 @@
         <v>264</v>
       </c>
       <c r="BU9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BV9" t="n">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>245</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="10">
@@ -20988,10 +21512,16 @@
         <v>112</v>
       </c>
       <c r="BU10" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BV10" t="n">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -21216,10 +21746,16 @@
         <v>131</v>
       </c>
       <c r="BU11" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BV11" t="n">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -21444,10 +21980,16 @@
         <v>264</v>
       </c>
       <c r="BU12" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="BV12" t="n">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>270</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -21672,10 +22214,16 @@
         <v>552</v>
       </c>
       <c r="BU13" t="n">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="BV13" t="n">
-        <v>566</v>
+        <v>579</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>563</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>563</v>
       </c>
     </row>
     <row r="14">
@@ -21900,10 +22448,16 @@
         <v>178</v>
       </c>
       <c r="BU14" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BV14" t="n">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>168</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -22128,10 +22682,16 @@
         <v>402</v>
       </c>
       <c r="BU15" t="n">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="BV15" t="n">
-        <v>459</v>
+        <v>470</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>465</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="16">
@@ -22356,10 +22916,16 @@
         <v>218</v>
       </c>
       <c r="BU16" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="BV16" t="n">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>185</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="17">
@@ -22584,10 +23150,16 @@
         <v>374</v>
       </c>
       <c r="BU17" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="BV17" t="n">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="18">
@@ -22812,9 +23384,15 @@
         <v>381</v>
       </c>
       <c r="BU18" t="n">
+        <v>366</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>366</v>
+      </c>
+      <c r="BW18" t="n">
         <v>361</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BX18" t="n">
         <v>361</v>
       </c>
     </row>
@@ -23040,9 +23618,15 @@
         <v>380</v>
       </c>
       <c r="BU19" t="n">
+        <v>413</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>413</v>
+      </c>
+      <c r="BW19" t="n">
         <v>400</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BX19" t="n">
         <v>400</v>
       </c>
     </row>
@@ -23268,16 +23852,22 @@
         <v>233</v>
       </c>
       <c r="BU20" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BV20" t="n">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>240</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Home office, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -23353,6 +23943,8 @@
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
